--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Nectarín.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Nectarín.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T835"/>
+  <dimension ref="A1:T836"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64967,7 +64967,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44244</v>
+        <v>44509</v>
       </c>
       <c r="E808" t="n">
         <v>13</v>
@@ -64995,25 +64995,25 @@
       </c>
       <c r="K808" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Early Glo</t>
         </is>
       </c>
       <c r="L808" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M808" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N808" t="n">
-        <v>280000</v>
+        <v>550000</v>
       </c>
       <c r="O808" t="n">
-        <v>280000</v>
+        <v>550000</v>
       </c>
       <c r="P808" t="n">
-        <v>280000</v>
+        <v>550000</v>
       </c>
       <c r="Q808" t="inlineStr">
         <is>
@@ -65022,11 +65022,11 @@
       </c>
       <c r="R808" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S808" t="n">
-        <v>667</v>
+        <v>1310</v>
       </c>
       <c r="T808" t="n">
         <v>420</v>
@@ -65084,16 +65084,16 @@
         </is>
       </c>
       <c r="M809" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N809" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="O809" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P809" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="Q809" t="inlineStr">
         <is>
@@ -65102,11 +65102,11 @@
       </c>
       <c r="R809" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S809" t="n">
-        <v>714</v>
+        <v>667</v>
       </c>
       <c r="T809" t="n">
         <v>420</v>
@@ -65160,20 +65160,20 @@
       </c>
       <c r="L810" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M810" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N810" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="O810" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="P810" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="Q810" t="inlineStr">
         <is>
@@ -65182,11 +65182,11 @@
       </c>
       <c r="R810" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S810" t="n">
-        <v>595</v>
+        <v>714</v>
       </c>
       <c r="T810" t="n">
         <v>420</v>
@@ -65244,7 +65244,7 @@
         </is>
       </c>
       <c r="M811" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N811" t="n">
         <v>250000</v>
@@ -65262,7 +65262,7 @@
       </c>
       <c r="R811" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S811" t="n">
@@ -65320,20 +65320,20 @@
       </c>
       <c r="L812" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M812" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N812" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O812" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="P812" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="Q812" t="inlineStr">
         <is>
@@ -65342,11 +65342,11 @@
       </c>
       <c r="R812" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S812" t="n">
-        <v>476</v>
+        <v>595</v>
       </c>
       <c r="T812" t="n">
         <v>420</v>
@@ -65404,16 +65404,16 @@
         </is>
       </c>
       <c r="M813" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N813" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="O813" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="P813" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="Q813" t="inlineStr">
         <is>
@@ -65422,11 +65422,11 @@
       </c>
       <c r="R813" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S813" t="n">
-        <v>524</v>
+        <v>476</v>
       </c>
       <c r="T813" t="n">
         <v>420</v>
@@ -65475,25 +65475,25 @@
       </c>
       <c r="K814" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L814" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M814" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N814" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="O814" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="P814" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="Q814" t="inlineStr">
         <is>
@@ -65506,7 +65506,7 @@
         </is>
       </c>
       <c r="S814" t="n">
-        <v>643</v>
+        <v>524</v>
       </c>
       <c r="T814" t="n">
         <v>420</v>
@@ -65560,20 +65560,20 @@
       </c>
       <c r="L815" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M815" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N815" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O815" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="P815" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="Q815" t="inlineStr">
         <is>
@@ -65586,7 +65586,7 @@
         </is>
       </c>
       <c r="S815" t="n">
-        <v>595</v>
+        <v>643</v>
       </c>
       <c r="T815" t="n">
         <v>420</v>
@@ -65640,20 +65640,20 @@
       </c>
       <c r="L816" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M816" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N816" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O816" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="P816" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="Q816" t="inlineStr">
         <is>
@@ -65666,7 +65666,7 @@
         </is>
       </c>
       <c r="S816" t="n">
-        <v>476</v>
+        <v>595</v>
       </c>
       <c r="T816" t="n">
         <v>420</v>
@@ -65715,25 +65715,25 @@
       </c>
       <c r="K817" t="inlineStr">
         <is>
-          <t>Venus</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L817" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M817" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="N817" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="O817" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="P817" t="n">
-        <v>235143</v>
+        <v>200000</v>
       </c>
       <c r="Q817" t="inlineStr">
         <is>
@@ -65746,7 +65746,7 @@
         </is>
       </c>
       <c r="S817" t="n">
-        <v>560</v>
+        <v>476</v>
       </c>
       <c r="T817" t="n">
         <v>420</v>
@@ -65800,20 +65800,20 @@
       </c>
       <c r="L818" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M818" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N818" t="n">
-        <v>170000</v>
+        <v>230000</v>
       </c>
       <c r="O818" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="P818" t="n">
-        <v>183333</v>
+        <v>235143</v>
       </c>
       <c r="Q818" t="inlineStr">
         <is>
@@ -65826,7 +65826,7 @@
         </is>
       </c>
       <c r="S818" t="n">
-        <v>437</v>
+        <v>560</v>
       </c>
       <c r="T818" t="n">
         <v>420</v>
@@ -65847,7 +65847,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E819" t="n">
         <v>13</v>
@@ -65875,29 +65875,29 @@
       </c>
       <c r="K819" t="inlineStr">
         <is>
-          <t>Artic Snow</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L819" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M819" t="n">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="N819" t="n">
-        <v>14000</v>
+        <v>170000</v>
       </c>
       <c r="O819" t="n">
-        <v>14000</v>
+        <v>200000</v>
       </c>
       <c r="P819" t="n">
-        <v>14000</v>
+        <v>183333</v>
       </c>
       <c r="Q819" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R819" t="inlineStr">
@@ -65906,10 +65906,10 @@
         </is>
       </c>
       <c r="S819" t="n">
-        <v>933</v>
+        <v>437</v>
       </c>
       <c r="T819" t="n">
-        <v>15</v>
+        <v>420</v>
       </c>
     </row>
     <row r="820">
@@ -65964,20 +65964,20 @@
         </is>
       </c>
       <c r="M820" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="N820" t="n">
-        <v>260000</v>
+        <v>14000</v>
       </c>
       <c r="O820" t="n">
-        <v>260000</v>
+        <v>14000</v>
       </c>
       <c r="P820" t="n">
-        <v>260000</v>
+        <v>14000</v>
       </c>
       <c r="Q820" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R820" t="inlineStr">
@@ -65986,10 +65986,10 @@
         </is>
       </c>
       <c r="S820" t="n">
-        <v>619</v>
+        <v>933</v>
       </c>
       <c r="T820" t="n">
-        <v>420</v>
+        <v>15</v>
       </c>
     </row>
     <row r="821">
@@ -66044,20 +66044,20 @@
         </is>
       </c>
       <c r="M821" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="N821" t="n">
-        <v>13000</v>
+        <v>260000</v>
       </c>
       <c r="O821" t="n">
-        <v>13000</v>
+        <v>260000</v>
       </c>
       <c r="P821" t="n">
-        <v>13000</v>
+        <v>260000</v>
       </c>
       <c r="Q821" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R821" t="inlineStr">
@@ -66066,10 +66066,10 @@
         </is>
       </c>
       <c r="S821" t="n">
-        <v>812</v>
+        <v>619</v>
       </c>
       <c r="T821" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="822">
@@ -66120,24 +66120,24 @@
       </c>
       <c r="L822" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M822" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N822" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O822" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P822" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q822" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R822" t="inlineStr">
@@ -66146,10 +66146,10 @@
         </is>
       </c>
       <c r="S822" t="n">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="T822" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="823">
@@ -66204,20 +66204,20 @@
         </is>
       </c>
       <c r="M823" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="N823" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="O823" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="P823" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="Q823" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R823" t="inlineStr">
@@ -66226,10 +66226,10 @@
         </is>
       </c>
       <c r="S823" t="n">
-        <v>548</v>
+        <v>800</v>
       </c>
       <c r="T823" t="n">
-        <v>420</v>
+        <v>15</v>
       </c>
     </row>
     <row r="824">
@@ -66284,20 +66284,20 @@
         </is>
       </c>
       <c r="M824" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="N824" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="O824" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="P824" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="Q824" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R824" t="inlineStr">
@@ -66306,10 +66306,10 @@
         </is>
       </c>
       <c r="S824" t="n">
-        <v>625</v>
+        <v>548</v>
       </c>
       <c r="T824" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="825">
@@ -66360,11 +66360,11 @@
       </c>
       <c r="L825" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M825" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N825" t="n">
         <v>10000</v>
@@ -66377,7 +66377,7 @@
       </c>
       <c r="Q825" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R825" t="inlineStr">
@@ -66386,10 +66386,10 @@
         </is>
       </c>
       <c r="S825" t="n">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="T825" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="826">
@@ -66435,29 +66435,29 @@
       </c>
       <c r="K826" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Snow</t>
         </is>
       </c>
       <c r="L826" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M826" t="n">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="N826" t="n">
-        <v>280000</v>
+        <v>10000</v>
       </c>
       <c r="O826" t="n">
-        <v>280000</v>
+        <v>10000</v>
       </c>
       <c r="P826" t="n">
-        <v>280000</v>
+        <v>10000</v>
       </c>
       <c r="Q826" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R826" t="inlineStr">
@@ -66469,7 +66469,7 @@
         <v>667</v>
       </c>
       <c r="T826" t="n">
-        <v>420</v>
+        <v>15</v>
       </c>
     </row>
     <row r="827">
@@ -66520,20 +66520,20 @@
       </c>
       <c r="L827" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M827" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N827" t="n">
-        <v>310000</v>
+        <v>280000</v>
       </c>
       <c r="O827" t="n">
-        <v>310000</v>
+        <v>280000</v>
       </c>
       <c r="P827" t="n">
-        <v>310000</v>
+        <v>280000</v>
       </c>
       <c r="Q827" t="inlineStr">
         <is>
@@ -66546,7 +66546,7 @@
         </is>
       </c>
       <c r="S827" t="n">
-        <v>738</v>
+        <v>667</v>
       </c>
       <c r="T827" t="n">
         <v>420</v>
@@ -66600,20 +66600,20 @@
       </c>
       <c r="L828" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M828" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N828" t="n">
-        <v>230000</v>
+        <v>310000</v>
       </c>
       <c r="O828" t="n">
-        <v>230000</v>
+        <v>310000</v>
       </c>
       <c r="P828" t="n">
-        <v>230000</v>
+        <v>310000</v>
       </c>
       <c r="Q828" t="inlineStr">
         <is>
@@ -66626,7 +66626,7 @@
         </is>
       </c>
       <c r="S828" t="n">
-        <v>548</v>
+        <v>738</v>
       </c>
       <c r="T828" t="n">
         <v>420</v>
@@ -66647,7 +66647,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E829" t="n">
         <v>13</v>
@@ -66675,7 +66675,7 @@
       </c>
       <c r="K829" t="inlineStr">
         <is>
-          <t>Artic Pride</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L829" t="inlineStr">
@@ -66684,16 +66684,16 @@
         </is>
       </c>
       <c r="M829" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N829" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="O829" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="P829" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="Q829" t="inlineStr">
         <is>
@@ -66706,7 +66706,7 @@
         </is>
       </c>
       <c r="S829" t="n">
-        <v>619</v>
+        <v>548</v>
       </c>
       <c r="T829" t="n">
         <v>420</v>
@@ -66760,20 +66760,20 @@
       </c>
       <c r="L830" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M830" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N830" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="O830" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P830" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="Q830" t="inlineStr">
         <is>
@@ -66786,7 +66786,7 @@
         </is>
       </c>
       <c r="S830" t="n">
-        <v>524</v>
+        <v>619</v>
       </c>
       <c r="T830" t="n">
         <v>420</v>
@@ -66835,25 +66835,25 @@
       </c>
       <c r="K831" t="inlineStr">
         <is>
-          <t>Early Diamond</t>
+          <t>Artic Pride</t>
         </is>
       </c>
       <c r="L831" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M831" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N831" t="n">
-        <v>400000</v>
+        <v>220000</v>
       </c>
       <c r="O831" t="n">
-        <v>400000</v>
+        <v>220000</v>
       </c>
       <c r="P831" t="n">
-        <v>400000</v>
+        <v>220000</v>
       </c>
       <c r="Q831" t="inlineStr">
         <is>
@@ -66866,7 +66866,7 @@
         </is>
       </c>
       <c r="S831" t="n">
-        <v>952</v>
+        <v>524</v>
       </c>
       <c r="T831" t="n">
         <v>420</v>
@@ -66920,20 +66920,20 @@
       </c>
       <c r="L832" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M832" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N832" t="n">
-        <v>360000</v>
+        <v>400000</v>
       </c>
       <c r="O832" t="n">
-        <v>360000</v>
+        <v>400000</v>
       </c>
       <c r="P832" t="n">
-        <v>360000</v>
+        <v>400000</v>
       </c>
       <c r="Q832" t="inlineStr">
         <is>
@@ -66946,7 +66946,7 @@
         </is>
       </c>
       <c r="S832" t="n">
-        <v>857</v>
+        <v>952</v>
       </c>
       <c r="T832" t="n">
         <v>420</v>
@@ -66995,25 +66995,25 @@
       </c>
       <c r="K833" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Early Diamond</t>
         </is>
       </c>
       <c r="L833" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M833" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="N833" t="n">
-        <v>280000</v>
+        <v>360000</v>
       </c>
       <c r="O833" t="n">
-        <v>400000</v>
+        <v>360000</v>
       </c>
       <c r="P833" t="n">
-        <v>326154</v>
+        <v>360000</v>
       </c>
       <c r="Q833" t="inlineStr">
         <is>
@@ -67026,7 +67026,7 @@
         </is>
       </c>
       <c r="S833" t="n">
-        <v>777</v>
+        <v>857</v>
       </c>
       <c r="T833" t="n">
         <v>420</v>
@@ -67080,20 +67080,20 @@
       </c>
       <c r="L834" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M834" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N834" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="O834" t="n">
-        <v>370000</v>
+        <v>400000</v>
       </c>
       <c r="P834" t="n">
-        <v>293902</v>
+        <v>326154</v>
       </c>
       <c r="Q834" t="inlineStr">
         <is>
@@ -67106,7 +67106,7 @@
         </is>
       </c>
       <c r="S834" t="n">
-        <v>700</v>
+        <v>777</v>
       </c>
       <c r="T834" t="n">
         <v>420</v>
@@ -67160,35 +67160,115 @@
       </c>
       <c r="L835" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M835" t="n">
+        <v>41</v>
+      </c>
+      <c r="N835" t="n">
+        <v>250000</v>
+      </c>
+      <c r="O835" t="n">
+        <v>370000</v>
+      </c>
+      <c r="P835" t="n">
+        <v>293902</v>
+      </c>
+      <c r="Q835" t="inlineStr">
+        <is>
+          <t>$/bins (420 kilos)</t>
+        </is>
+      </c>
+      <c r="R835" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S835" t="n">
+        <v>700</v>
+      </c>
+      <c r="T835" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>6</v>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D836" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E836" t="n">
+        <v>13</v>
+      </c>
+      <c r="F836" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G836" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H836" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I836" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J836" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>Super Queen</t>
+        </is>
+      </c>
+      <c r="L836" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M835" t="n">
+      <c r="M836" t="n">
         <v>18</v>
       </c>
-      <c r="N835" t="n">
+      <c r="N836" t="n">
         <v>200000</v>
       </c>
-      <c r="O835" t="n">
+      <c r="O836" t="n">
         <v>200000</v>
       </c>
-      <c r="P835" t="n">
+      <c r="P836" t="n">
         <v>200000</v>
       </c>
-      <c r="Q835" t="inlineStr">
+      <c r="Q836" t="inlineStr">
         <is>
           <t>$/bins (420 kilos)</t>
         </is>
       </c>
-      <c r="R835" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S835" t="n">
+      <c r="R836" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S836" t="n">
         <v>476</v>
       </c>
-      <c r="T835" t="n">
+      <c r="T836" t="n">
         <v>420</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Nectarín.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Nectarín.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T836"/>
+  <dimension ref="A1:T838"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62807,7 +62807,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -62835,7 +62835,7 @@
       </c>
       <c r="K781" t="inlineStr">
         <is>
-          <t>Artic Snow</t>
+          <t>Early Glo</t>
         </is>
       </c>
       <c r="L781" t="inlineStr">
@@ -62844,16 +62844,16 @@
         </is>
       </c>
       <c r="M781" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N781" t="n">
-        <v>250000</v>
+        <v>450000</v>
       </c>
       <c r="O781" t="n">
-        <v>260000</v>
+        <v>450000</v>
       </c>
       <c r="P781" t="n">
-        <v>255000</v>
+        <v>450000</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
@@ -62862,11 +62862,11 @@
       </c>
       <c r="R781" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S781" t="n">
-        <v>607</v>
+        <v>1071</v>
       </c>
       <c r="T781" t="n">
         <v>420</v>
@@ -62887,7 +62887,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E782" t="n">
         <v>13</v>
@@ -62915,7 +62915,7 @@
       </c>
       <c r="K782" t="inlineStr">
         <is>
-          <t>Artic Snow</t>
+          <t>Early Glo</t>
         </is>
       </c>
       <c r="L782" t="inlineStr">
@@ -62924,16 +62924,16 @@
         </is>
       </c>
       <c r="M782" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N782" t="n">
-        <v>220000</v>
+        <v>400000</v>
       </c>
       <c r="O782" t="n">
-        <v>220000</v>
+        <v>400000</v>
       </c>
       <c r="P782" t="n">
-        <v>220000</v>
+        <v>400000</v>
       </c>
       <c r="Q782" t="inlineStr">
         <is>
@@ -62942,11 +62942,11 @@
       </c>
       <c r="R782" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S782" t="n">
-        <v>524</v>
+        <v>952</v>
       </c>
       <c r="T782" t="n">
         <v>420</v>
@@ -62995,29 +62995,29 @@
       </c>
       <c r="K783" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Snow</t>
         </is>
       </c>
       <c r="L783" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M783" t="n">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="N783" t="n">
-        <v>16000</v>
+        <v>250000</v>
       </c>
       <c r="O783" t="n">
-        <v>16000</v>
+        <v>260000</v>
       </c>
       <c r="P783" t="n">
-        <v>16000</v>
+        <v>255000</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R783" t="inlineStr">
@@ -63026,10 +63026,10 @@
         </is>
       </c>
       <c r="S783" t="n">
-        <v>1067</v>
+        <v>607</v>
       </c>
       <c r="T783" t="n">
-        <v>15</v>
+        <v>420</v>
       </c>
     </row>
     <row r="784">
@@ -63075,29 +63075,29 @@
       </c>
       <c r="K784" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Snow</t>
         </is>
       </c>
       <c r="L784" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M784" t="n">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="N784" t="n">
-        <v>14000</v>
+        <v>220000</v>
       </c>
       <c r="O784" t="n">
-        <v>14000</v>
+        <v>220000</v>
       </c>
       <c r="P784" t="n">
-        <v>14000</v>
+        <v>220000</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R784" t="inlineStr">
@@ -63106,10 +63106,10 @@
         </is>
       </c>
       <c r="S784" t="n">
-        <v>933</v>
+        <v>524</v>
       </c>
       <c r="T784" t="n">
-        <v>15</v>
+        <v>420</v>
       </c>
     </row>
     <row r="785">
@@ -63160,24 +63160,24 @@
       </c>
       <c r="L785" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M785" t="n">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="N785" t="n">
-        <v>240000</v>
+        <v>16000</v>
       </c>
       <c r="O785" t="n">
-        <v>260000</v>
+        <v>16000</v>
       </c>
       <c r="P785" t="n">
-        <v>250000</v>
+        <v>16000</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R785" t="inlineStr">
@@ -63186,10 +63186,10 @@
         </is>
       </c>
       <c r="S785" t="n">
-        <v>595</v>
+        <v>1067</v>
       </c>
       <c r="T785" t="n">
-        <v>420</v>
+        <v>15</v>
       </c>
     </row>
     <row r="786">
@@ -63240,36 +63240,36 @@
       </c>
       <c r="L786" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M786" t="n">
+        <v>120</v>
+      </c>
+      <c r="N786" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O786" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P786" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q786" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R786" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S786" t="n">
+        <v>933</v>
+      </c>
+      <c r="T786" t="n">
         <v>15</v>
-      </c>
-      <c r="N786" t="n">
-        <v>210000</v>
-      </c>
-      <c r="O786" t="n">
-        <v>210000</v>
-      </c>
-      <c r="P786" t="n">
-        <v>210000</v>
-      </c>
-      <c r="Q786" t="inlineStr">
-        <is>
-          <t>$/bins (420 kilos)</t>
-        </is>
-      </c>
-      <c r="R786" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S786" t="n">
-        <v>500</v>
-      </c>
-      <c r="T786" t="n">
-        <v>420</v>
       </c>
     </row>
     <row r="787">
@@ -63315,29 +63315,29 @@
       </c>
       <c r="K787" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L787" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M787" t="n">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="N787" t="n">
-        <v>17000</v>
+        <v>240000</v>
       </c>
       <c r="O787" t="n">
-        <v>17000</v>
+        <v>260000</v>
       </c>
       <c r="P787" t="n">
-        <v>17000</v>
+        <v>250000</v>
       </c>
       <c r="Q787" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R787" t="inlineStr">
@@ -63346,10 +63346,10 @@
         </is>
       </c>
       <c r="S787" t="n">
-        <v>944</v>
+        <v>595</v>
       </c>
       <c r="T787" t="n">
-        <v>18</v>
+        <v>420</v>
       </c>
     </row>
     <row r="788">
@@ -63395,29 +63395,29 @@
       </c>
       <c r="K788" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L788" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M788" t="n">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="N788" t="n">
-        <v>15000</v>
+        <v>210000</v>
       </c>
       <c r="O788" t="n">
-        <v>15000</v>
+        <v>210000</v>
       </c>
       <c r="P788" t="n">
-        <v>15000</v>
+        <v>210000</v>
       </c>
       <c r="Q788" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R788" t="inlineStr">
@@ -63426,10 +63426,10 @@
         </is>
       </c>
       <c r="S788" t="n">
-        <v>833</v>
+        <v>500</v>
       </c>
       <c r="T788" t="n">
-        <v>18</v>
+        <v>420</v>
       </c>
     </row>
     <row r="789">
@@ -63447,7 +63447,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E789" t="n">
         <v>13</v>
@@ -63475,41 +63475,41 @@
       </c>
       <c r="K789" t="inlineStr">
         <is>
-          <t>August pearl</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L789" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M789" t="n">
+        <v>150</v>
+      </c>
+      <c r="N789" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O789" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P789" t="n">
+        <v>17000</v>
+      </c>
+      <c r="Q789" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R789" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S789" t="n">
+        <v>944</v>
+      </c>
+      <c r="T789" t="n">
         <v>18</v>
-      </c>
-      <c r="N789" t="n">
-        <v>200000</v>
-      </c>
-      <c r="O789" t="n">
-        <v>230000</v>
-      </c>
-      <c r="P789" t="n">
-        <v>215000</v>
-      </c>
-      <c r="Q789" t="inlineStr">
-        <is>
-          <t>$/bins (420 kilos)</t>
-        </is>
-      </c>
-      <c r="R789" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S789" t="n">
-        <v>512</v>
-      </c>
-      <c r="T789" t="n">
-        <v>420</v>
       </c>
     </row>
     <row r="790">
@@ -63527,7 +63527,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E790" t="n">
         <v>13</v>
@@ -63555,29 +63555,29 @@
       </c>
       <c r="K790" t="inlineStr">
         <is>
-          <t>August pearl</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L790" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M790" t="n">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="N790" t="n">
-        <v>160000</v>
+        <v>15000</v>
       </c>
       <c r="O790" t="n">
-        <v>180000</v>
+        <v>15000</v>
       </c>
       <c r="P790" t="n">
-        <v>170000</v>
+        <v>15000</v>
       </c>
       <c r="Q790" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R790" t="inlineStr">
@@ -63586,10 +63586,10 @@
         </is>
       </c>
       <c r="S790" t="n">
-        <v>405</v>
+        <v>833</v>
       </c>
       <c r="T790" t="n">
-        <v>420</v>
+        <v>18</v>
       </c>
     </row>
     <row r="791">
@@ -63607,7 +63607,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E791" t="n">
         <v>13</v>
@@ -63635,25 +63635,25 @@
       </c>
       <c r="K791" t="inlineStr">
         <is>
-          <t>Nectar Crest</t>
+          <t>August pearl</t>
         </is>
       </c>
       <c r="L791" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M791" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N791" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="O791" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="P791" t="n">
-        <v>280000</v>
+        <v>215000</v>
       </c>
       <c r="Q791" t="inlineStr">
         <is>
@@ -63666,7 +63666,7 @@
         </is>
       </c>
       <c r="S791" t="n">
-        <v>667</v>
+        <v>512</v>
       </c>
       <c r="T791" t="n">
         <v>420</v>
@@ -63687,7 +63687,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E792" t="n">
         <v>13</v>
@@ -63715,25 +63715,25 @@
       </c>
       <c r="K792" t="inlineStr">
         <is>
-          <t>Nectar Crest</t>
+          <t>August pearl</t>
         </is>
       </c>
       <c r="L792" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M792" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="N792" t="n">
-        <v>250000</v>
+        <v>160000</v>
       </c>
       <c r="O792" t="n">
-        <v>300000</v>
+        <v>180000</v>
       </c>
       <c r="P792" t="n">
-        <v>270000</v>
+        <v>170000</v>
       </c>
       <c r="Q792" t="inlineStr">
         <is>
@@ -63746,7 +63746,7 @@
         </is>
       </c>
       <c r="S792" t="n">
-        <v>643</v>
+        <v>405</v>
       </c>
       <c r="T792" t="n">
         <v>420</v>
@@ -63800,20 +63800,20 @@
       </c>
       <c r="L793" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M793" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N793" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="O793" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="P793" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="Q793" t="inlineStr">
         <is>
@@ -63826,7 +63826,7 @@
         </is>
       </c>
       <c r="S793" t="n">
-        <v>595</v>
+        <v>667</v>
       </c>
       <c r="T793" t="n">
         <v>420</v>
@@ -63875,29 +63875,29 @@
       </c>
       <c r="K794" t="inlineStr">
         <is>
-          <t>Red Diamond</t>
+          <t>Nectar Crest</t>
         </is>
       </c>
       <c r="L794" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M794" t="n">
-        <v>250</v>
+        <v>32</v>
       </c>
       <c r="N794" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="O794" t="n">
-        <v>12000</v>
+        <v>300000</v>
       </c>
       <c r="P794" t="n">
-        <v>12000</v>
+        <v>270000</v>
       </c>
       <c r="Q794" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R794" t="inlineStr">
@@ -63906,10 +63906,10 @@
         </is>
       </c>
       <c r="S794" t="n">
-        <v>750</v>
+        <v>643</v>
       </c>
       <c r="T794" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="795">
@@ -63955,25 +63955,25 @@
       </c>
       <c r="K795" t="inlineStr">
         <is>
-          <t>Venus</t>
+          <t>Nectar Crest</t>
         </is>
       </c>
       <c r="L795" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M795" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N795" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="O795" t="n">
-        <v>340000</v>
+        <v>250000</v>
       </c>
       <c r="P795" t="n">
-        <v>312903</v>
+        <v>250000</v>
       </c>
       <c r="Q795" t="inlineStr">
         <is>
@@ -63986,7 +63986,7 @@
         </is>
       </c>
       <c r="S795" t="n">
-        <v>745</v>
+        <v>595</v>
       </c>
       <c r="T795" t="n">
         <v>420</v>
@@ -64035,7 +64035,7 @@
       </c>
       <c r="K796" t="inlineStr">
         <is>
-          <t>Venus</t>
+          <t>Red Diamond</t>
         </is>
       </c>
       <c r="L796" t="inlineStr">
@@ -64044,29 +64044,29 @@
         </is>
       </c>
       <c r="M796" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="N796" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O796" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P796" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q796" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R796" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S796" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T796" t="n">
         <v>16</v>
@@ -64124,20 +64124,20 @@
         </is>
       </c>
       <c r="M797" t="n">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="N797" t="n">
-        <v>12000</v>
+        <v>280000</v>
       </c>
       <c r="O797" t="n">
-        <v>12000</v>
+        <v>340000</v>
       </c>
       <c r="P797" t="n">
-        <v>12000</v>
+        <v>312903</v>
       </c>
       <c r="Q797" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R797" t="inlineStr">
@@ -64146,10 +64146,10 @@
         </is>
       </c>
       <c r="S797" t="n">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="T797" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="798">
@@ -64200,20 +64200,20 @@
       </c>
       <c r="L798" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M798" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N798" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O798" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P798" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q798" t="inlineStr">
         <is>
@@ -64226,7 +64226,7 @@
         </is>
       </c>
       <c r="S798" t="n">
-        <v>875</v>
+        <v>812</v>
       </c>
       <c r="T798" t="n">
         <v>16</v>
@@ -64280,20 +64280,20 @@
       </c>
       <c r="L799" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M799" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N799" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O799" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P799" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q799" t="inlineStr">
         <is>
@@ -64306,7 +64306,7 @@
         </is>
       </c>
       <c r="S799" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T799" t="n">
         <v>16</v>
@@ -64360,24 +64360,24 @@
       </c>
       <c r="L800" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M800" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="N800" t="n">
-        <v>230000</v>
+        <v>14000</v>
       </c>
       <c r="O800" t="n">
-        <v>230000</v>
+        <v>14000</v>
       </c>
       <c r="P800" t="n">
-        <v>230000</v>
+        <v>14000</v>
       </c>
       <c r="Q800" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R800" t="inlineStr">
@@ -64386,10 +64386,10 @@
         </is>
       </c>
       <c r="S800" t="n">
-        <v>548</v>
+        <v>875</v>
       </c>
       <c r="T800" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="801">
@@ -64440,24 +64440,24 @@
       </c>
       <c r="L801" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M801" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="N801" t="n">
-        <v>240000</v>
+        <v>14000</v>
       </c>
       <c r="O801" t="n">
-        <v>300000</v>
+        <v>14000</v>
       </c>
       <c r="P801" t="n">
-        <v>265000</v>
+        <v>14000</v>
       </c>
       <c r="Q801" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R801" t="inlineStr">
@@ -64466,10 +64466,10 @@
         </is>
       </c>
       <c r="S801" t="n">
-        <v>631</v>
+        <v>875</v>
       </c>
       <c r="T801" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="802">
@@ -64524,20 +64524,20 @@
         </is>
       </c>
       <c r="M802" t="n">
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="N802" t="n">
-        <v>9000</v>
+        <v>230000</v>
       </c>
       <c r="O802" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="P802" t="n">
-        <v>9684</v>
+        <v>230000</v>
       </c>
       <c r="Q802" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R802" t="inlineStr">
@@ -64546,10 +64546,10 @@
         </is>
       </c>
       <c r="S802" t="n">
-        <v>605</v>
+        <v>548</v>
       </c>
       <c r="T802" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="803">
@@ -64604,20 +64604,20 @@
         </is>
       </c>
       <c r="M803" t="n">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="N803" t="n">
-        <v>10000</v>
+        <v>240000</v>
       </c>
       <c r="O803" t="n">
-        <v>10000</v>
+        <v>300000</v>
       </c>
       <c r="P803" t="n">
-        <v>10000</v>
+        <v>265000</v>
       </c>
       <c r="Q803" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R803" t="inlineStr">
@@ -64626,10 +64626,10 @@
         </is>
       </c>
       <c r="S803" t="n">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="T803" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="804">
@@ -64680,24 +64680,24 @@
       </c>
       <c r="L804" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M804" t="n">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="N804" t="n">
-        <v>190000</v>
+        <v>9000</v>
       </c>
       <c r="O804" t="n">
-        <v>190000</v>
+        <v>10000</v>
       </c>
       <c r="P804" t="n">
-        <v>190000</v>
+        <v>9684</v>
       </c>
       <c r="Q804" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R804" t="inlineStr">
@@ -64706,10 +64706,10 @@
         </is>
       </c>
       <c r="S804" t="n">
-        <v>452</v>
+        <v>605</v>
       </c>
       <c r="T804" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="805">
@@ -64760,24 +64760,24 @@
       </c>
       <c r="L805" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M805" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="N805" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="O805" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="P805" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="Q805" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R805" t="inlineStr">
@@ -64786,10 +64786,10 @@
         </is>
       </c>
       <c r="S805" t="n">
-        <v>476</v>
+        <v>625</v>
       </c>
       <c r="T805" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="806">
@@ -64844,20 +64844,20 @@
         </is>
       </c>
       <c r="M806" t="n">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="N806" t="n">
-        <v>7000</v>
+        <v>190000</v>
       </c>
       <c r="O806" t="n">
-        <v>7000</v>
+        <v>190000</v>
       </c>
       <c r="P806" t="n">
-        <v>7000</v>
+        <v>190000</v>
       </c>
       <c r="Q806" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R806" t="inlineStr">
@@ -64866,10 +64866,10 @@
         </is>
       </c>
       <c r="S806" t="n">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="T806" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="807">
@@ -64924,20 +64924,20 @@
         </is>
       </c>
       <c r="M807" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N807" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="O807" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="P807" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="Q807" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R807" t="inlineStr">
@@ -64946,10 +64946,10 @@
         </is>
       </c>
       <c r="S807" t="n">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="T807" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="808">
@@ -64967,7 +64967,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E808" t="n">
         <v>13</v>
@@ -64995,7 +64995,7 @@
       </c>
       <c r="K808" t="inlineStr">
         <is>
-          <t>Early Glo</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L808" t="inlineStr">
@@ -65004,32 +65004,32 @@
         </is>
       </c>
       <c r="M808" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="N808" t="n">
-        <v>550000</v>
+        <v>7000</v>
       </c>
       <c r="O808" t="n">
-        <v>550000</v>
+        <v>7000</v>
       </c>
       <c r="P808" t="n">
-        <v>550000</v>
+        <v>7000</v>
       </c>
       <c r="Q808" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R808" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S808" t="n">
-        <v>1310</v>
+        <v>438</v>
       </c>
       <c r="T808" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="809">
@@ -65047,7 +65047,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E809" t="n">
         <v>13</v>
@@ -65075,41 +65075,41 @@
       </c>
       <c r="K809" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L809" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M809" t="n">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="N809" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="O809" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="P809" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="Q809" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R809" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S809" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T809" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="810">
@@ -65127,7 +65127,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44244</v>
+        <v>44509</v>
       </c>
       <c r="E810" t="n">
         <v>13</v>
@@ -65155,25 +65155,25 @@
       </c>
       <c r="K810" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Early Glo</t>
         </is>
       </c>
       <c r="L810" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M810" t="n">
         <v>12</v>
       </c>
       <c r="N810" t="n">
-        <v>300000</v>
+        <v>550000</v>
       </c>
       <c r="O810" t="n">
-        <v>300000</v>
+        <v>550000</v>
       </c>
       <c r="P810" t="n">
-        <v>300000</v>
+        <v>550000</v>
       </c>
       <c r="Q810" t="inlineStr">
         <is>
@@ -65182,11 +65182,11 @@
       </c>
       <c r="R810" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S810" t="n">
-        <v>714</v>
+        <v>1310</v>
       </c>
       <c r="T810" t="n">
         <v>420</v>
@@ -65240,20 +65240,20 @@
       </c>
       <c r="L811" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M811" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N811" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="O811" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="P811" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="Q811" t="inlineStr">
         <is>
@@ -65266,7 +65266,7 @@
         </is>
       </c>
       <c r="S811" t="n">
-        <v>595</v>
+        <v>667</v>
       </c>
       <c r="T811" t="n">
         <v>420</v>
@@ -65320,20 +65320,20 @@
       </c>
       <c r="L812" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M812" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N812" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="O812" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="P812" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="Q812" t="inlineStr">
         <is>
@@ -65346,7 +65346,7 @@
         </is>
       </c>
       <c r="S812" t="n">
-        <v>595</v>
+        <v>714</v>
       </c>
       <c r="T812" t="n">
         <v>420</v>
@@ -65400,20 +65400,20 @@
       </c>
       <c r="L813" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M813" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N813" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O813" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="P813" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="Q813" t="inlineStr">
         <is>
@@ -65426,7 +65426,7 @@
         </is>
       </c>
       <c r="S813" t="n">
-        <v>476</v>
+        <v>595</v>
       </c>
       <c r="T813" t="n">
         <v>420</v>
@@ -65480,20 +65480,20 @@
       </c>
       <c r="L814" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M814" t="n">
         <v>15</v>
       </c>
       <c r="N814" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="O814" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="P814" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="Q814" t="inlineStr">
         <is>
@@ -65506,7 +65506,7 @@
         </is>
       </c>
       <c r="S814" t="n">
-        <v>524</v>
+        <v>595</v>
       </c>
       <c r="T814" t="n">
         <v>420</v>
@@ -65555,25 +65555,25 @@
       </c>
       <c r="K815" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L815" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M815" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N815" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="O815" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="P815" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="Q815" t="inlineStr">
         <is>
@@ -65582,11 +65582,11 @@
       </c>
       <c r="R815" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S815" t="n">
-        <v>643</v>
+        <v>476</v>
       </c>
       <c r="T815" t="n">
         <v>420</v>
@@ -65635,25 +65635,25 @@
       </c>
       <c r="K816" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L816" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M816" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N816" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="O816" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="P816" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="Q816" t="inlineStr">
         <is>
@@ -65666,7 +65666,7 @@
         </is>
       </c>
       <c r="S816" t="n">
-        <v>595</v>
+        <v>524</v>
       </c>
       <c r="T816" t="n">
         <v>420</v>
@@ -65720,20 +65720,20 @@
       </c>
       <c r="L817" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M817" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N817" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O817" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P817" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="Q817" t="inlineStr">
         <is>
@@ -65746,7 +65746,7 @@
         </is>
       </c>
       <c r="S817" t="n">
-        <v>476</v>
+        <v>643</v>
       </c>
       <c r="T817" t="n">
         <v>420</v>
@@ -65795,7 +65795,7 @@
       </c>
       <c r="K818" t="inlineStr">
         <is>
-          <t>Venus</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L818" t="inlineStr">
@@ -65804,16 +65804,16 @@
         </is>
       </c>
       <c r="M818" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="N818" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="O818" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="P818" t="n">
-        <v>235143</v>
+        <v>250000</v>
       </c>
       <c r="Q818" t="inlineStr">
         <is>
@@ -65826,7 +65826,7 @@
         </is>
       </c>
       <c r="S818" t="n">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="T818" t="n">
         <v>420</v>
@@ -65875,7 +65875,7 @@
       </c>
       <c r="K819" t="inlineStr">
         <is>
-          <t>Venus</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L819" t="inlineStr">
@@ -65884,16 +65884,16 @@
         </is>
       </c>
       <c r="M819" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="N819" t="n">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="O819" t="n">
         <v>200000</v>
       </c>
       <c r="P819" t="n">
-        <v>183333</v>
+        <v>200000</v>
       </c>
       <c r="Q819" t="inlineStr">
         <is>
@@ -65906,7 +65906,7 @@
         </is>
       </c>
       <c r="S819" t="n">
-        <v>437</v>
+        <v>476</v>
       </c>
       <c r="T819" t="n">
         <v>420</v>
@@ -65927,7 +65927,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E820" t="n">
         <v>13</v>
@@ -65955,7 +65955,7 @@
       </c>
       <c r="K820" t="inlineStr">
         <is>
-          <t>Artic Snow</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L820" t="inlineStr">
@@ -65964,20 +65964,20 @@
         </is>
       </c>
       <c r="M820" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="N820" t="n">
-        <v>14000</v>
+        <v>230000</v>
       </c>
       <c r="O820" t="n">
-        <v>14000</v>
+        <v>240000</v>
       </c>
       <c r="P820" t="n">
-        <v>14000</v>
+        <v>235143</v>
       </c>
       <c r="Q820" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R820" t="inlineStr">
@@ -65986,10 +65986,10 @@
         </is>
       </c>
       <c r="S820" t="n">
-        <v>933</v>
+        <v>560</v>
       </c>
       <c r="T820" t="n">
-        <v>15</v>
+        <v>420</v>
       </c>
     </row>
     <row r="821">
@@ -66007,7 +66007,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E821" t="n">
         <v>13</v>
@@ -66035,25 +66035,25 @@
       </c>
       <c r="K821" t="inlineStr">
         <is>
-          <t>Artic Snow</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L821" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M821" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="N821" t="n">
-        <v>260000</v>
+        <v>170000</v>
       </c>
       <c r="O821" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="P821" t="n">
-        <v>260000</v>
+        <v>183333</v>
       </c>
       <c r="Q821" t="inlineStr">
         <is>
@@ -66066,7 +66066,7 @@
         </is>
       </c>
       <c r="S821" t="n">
-        <v>619</v>
+        <v>437</v>
       </c>
       <c r="T821" t="n">
         <v>420</v>
@@ -66124,20 +66124,20 @@
         </is>
       </c>
       <c r="M822" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N822" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O822" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P822" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q822" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R822" t="inlineStr">
@@ -66146,10 +66146,10 @@
         </is>
       </c>
       <c r="S822" t="n">
-        <v>812</v>
+        <v>933</v>
       </c>
       <c r="T822" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="823">
@@ -66200,24 +66200,24 @@
       </c>
       <c r="L823" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M823" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="N823" t="n">
-        <v>12000</v>
+        <v>260000</v>
       </c>
       <c r="O823" t="n">
-        <v>12000</v>
+        <v>260000</v>
       </c>
       <c r="P823" t="n">
-        <v>12000</v>
+        <v>260000</v>
       </c>
       <c r="Q823" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R823" t="inlineStr">
@@ -66226,10 +66226,10 @@
         </is>
       </c>
       <c r="S823" t="n">
-        <v>800</v>
+        <v>619</v>
       </c>
       <c r="T823" t="n">
-        <v>15</v>
+        <v>420</v>
       </c>
     </row>
     <row r="824">
@@ -66280,24 +66280,24 @@
       </c>
       <c r="L824" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M824" t="n">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="N824" t="n">
-        <v>230000</v>
+        <v>13000</v>
       </c>
       <c r="O824" t="n">
-        <v>230000</v>
+        <v>13000</v>
       </c>
       <c r="P824" t="n">
-        <v>230000</v>
+        <v>13000</v>
       </c>
       <c r="Q824" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R824" t="inlineStr">
@@ -66306,10 +66306,10 @@
         </is>
       </c>
       <c r="S824" t="n">
-        <v>548</v>
+        <v>812</v>
       </c>
       <c r="T824" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="825">
@@ -66367,17 +66367,17 @@
         <v>120</v>
       </c>
       <c r="N825" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O825" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P825" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q825" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R825" t="inlineStr">
@@ -66386,10 +66386,10 @@
         </is>
       </c>
       <c r="S825" t="n">
-        <v>625</v>
+        <v>800</v>
       </c>
       <c r="T825" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="826">
@@ -66440,24 +66440,24 @@
       </c>
       <c r="L826" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M826" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="N826" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="O826" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="P826" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="Q826" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R826" t="inlineStr">
@@ -66466,10 +66466,10 @@
         </is>
       </c>
       <c r="S826" t="n">
-        <v>667</v>
+        <v>548</v>
       </c>
       <c r="T826" t="n">
-        <v>15</v>
+        <v>420</v>
       </c>
     </row>
     <row r="827">
@@ -66515,29 +66515,29 @@
       </c>
       <c r="K827" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Snow</t>
         </is>
       </c>
       <c r="L827" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M827" t="n">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="N827" t="n">
-        <v>280000</v>
+        <v>10000</v>
       </c>
       <c r="O827" t="n">
-        <v>280000</v>
+        <v>10000</v>
       </c>
       <c r="P827" t="n">
-        <v>280000</v>
+        <v>10000</v>
       </c>
       <c r="Q827" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R827" t="inlineStr">
@@ -66546,10 +66546,10 @@
         </is>
       </c>
       <c r="S827" t="n">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="T827" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="828">
@@ -66595,29 +66595,29 @@
       </c>
       <c r="K828" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Snow</t>
         </is>
       </c>
       <c r="L828" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M828" t="n">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="N828" t="n">
-        <v>310000</v>
+        <v>10000</v>
       </c>
       <c r="O828" t="n">
-        <v>310000</v>
+        <v>10000</v>
       </c>
       <c r="P828" t="n">
-        <v>310000</v>
+        <v>10000</v>
       </c>
       <c r="Q828" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R828" t="inlineStr">
@@ -66626,10 +66626,10 @@
         </is>
       </c>
       <c r="S828" t="n">
-        <v>738</v>
+        <v>667</v>
       </c>
       <c r="T828" t="n">
-        <v>420</v>
+        <v>15</v>
       </c>
     </row>
     <row r="829">
@@ -66680,20 +66680,20 @@
       </c>
       <c r="L829" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M829" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N829" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O829" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="P829" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="Q829" t="inlineStr">
         <is>
@@ -66706,7 +66706,7 @@
         </is>
       </c>
       <c r="S829" t="n">
-        <v>548</v>
+        <v>667</v>
       </c>
       <c r="T829" t="n">
         <v>420</v>
@@ -66727,7 +66727,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E830" t="n">
         <v>13</v>
@@ -66755,25 +66755,25 @@
       </c>
       <c r="K830" t="inlineStr">
         <is>
-          <t>Artic Pride</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L830" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M830" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N830" t="n">
-        <v>260000</v>
+        <v>310000</v>
       </c>
       <c r="O830" t="n">
-        <v>260000</v>
+        <v>310000</v>
       </c>
       <c r="P830" t="n">
-        <v>260000</v>
+        <v>310000</v>
       </c>
       <c r="Q830" t="inlineStr">
         <is>
@@ -66786,7 +66786,7 @@
         </is>
       </c>
       <c r="S830" t="n">
-        <v>619</v>
+        <v>738</v>
       </c>
       <c r="T830" t="n">
         <v>420</v>
@@ -66807,7 +66807,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E831" t="n">
         <v>13</v>
@@ -66835,25 +66835,25 @@
       </c>
       <c r="K831" t="inlineStr">
         <is>
-          <t>Artic Pride</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L831" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M831" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N831" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="O831" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="P831" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="Q831" t="inlineStr">
         <is>
@@ -66866,7 +66866,7 @@
         </is>
       </c>
       <c r="S831" t="n">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="T831" t="n">
         <v>420</v>
@@ -66915,25 +66915,25 @@
       </c>
       <c r="K832" t="inlineStr">
         <is>
-          <t>Early Diamond</t>
+          <t>Artic Pride</t>
         </is>
       </c>
       <c r="L832" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M832" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N832" t="n">
-        <v>400000</v>
+        <v>260000</v>
       </c>
       <c r="O832" t="n">
-        <v>400000</v>
+        <v>260000</v>
       </c>
       <c r="P832" t="n">
-        <v>400000</v>
+        <v>260000</v>
       </c>
       <c r="Q832" t="inlineStr">
         <is>
@@ -66946,7 +66946,7 @@
         </is>
       </c>
       <c r="S832" t="n">
-        <v>952</v>
+        <v>619</v>
       </c>
       <c r="T832" t="n">
         <v>420</v>
@@ -66995,25 +66995,25 @@
       </c>
       <c r="K833" t="inlineStr">
         <is>
-          <t>Early Diamond</t>
+          <t>Artic Pride</t>
         </is>
       </c>
       <c r="L833" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M833" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N833" t="n">
-        <v>360000</v>
+        <v>220000</v>
       </c>
       <c r="O833" t="n">
-        <v>360000</v>
+        <v>220000</v>
       </c>
       <c r="P833" t="n">
-        <v>360000</v>
+        <v>220000</v>
       </c>
       <c r="Q833" t="inlineStr">
         <is>
@@ -67026,7 +67026,7 @@
         </is>
       </c>
       <c r="S833" t="n">
-        <v>857</v>
+        <v>524</v>
       </c>
       <c r="T833" t="n">
         <v>420</v>
@@ -67075,7 +67075,7 @@
       </c>
       <c r="K834" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Early Diamond</t>
         </is>
       </c>
       <c r="L834" t="inlineStr">
@@ -67084,16 +67084,16 @@
         </is>
       </c>
       <c r="M834" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="N834" t="n">
-        <v>280000</v>
+        <v>400000</v>
       </c>
       <c r="O834" t="n">
         <v>400000</v>
       </c>
       <c r="P834" t="n">
-        <v>326154</v>
+        <v>400000</v>
       </c>
       <c r="Q834" t="inlineStr">
         <is>
@@ -67106,7 +67106,7 @@
         </is>
       </c>
       <c r="S834" t="n">
-        <v>777</v>
+        <v>952</v>
       </c>
       <c r="T834" t="n">
         <v>420</v>
@@ -67155,7 +67155,7 @@
       </c>
       <c r="K835" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Early Diamond</t>
         </is>
       </c>
       <c r="L835" t="inlineStr">
@@ -67164,16 +67164,16 @@
         </is>
       </c>
       <c r="M835" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="N835" t="n">
-        <v>250000</v>
+        <v>360000</v>
       </c>
       <c r="O835" t="n">
-        <v>370000</v>
+        <v>360000</v>
       </c>
       <c r="P835" t="n">
-        <v>293902</v>
+        <v>360000</v>
       </c>
       <c r="Q835" t="inlineStr">
         <is>
@@ -67186,7 +67186,7 @@
         </is>
       </c>
       <c r="S835" t="n">
-        <v>700</v>
+        <v>857</v>
       </c>
       <c r="T835" t="n">
         <v>420</v>
@@ -67240,35 +67240,195 @@
       </c>
       <c r="L836" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M836" t="n">
+        <v>39</v>
+      </c>
+      <c r="N836" t="n">
+        <v>280000</v>
+      </c>
+      <c r="O836" t="n">
+        <v>400000</v>
+      </c>
+      <c r="P836" t="n">
+        <v>326154</v>
+      </c>
+      <c r="Q836" t="inlineStr">
+        <is>
+          <t>$/bins (420 kilos)</t>
+        </is>
+      </c>
+      <c r="R836" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S836" t="n">
+        <v>777</v>
+      </c>
+      <c r="T836" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>6</v>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D837" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E837" t="n">
+        <v>13</v>
+      </c>
+      <c r="F837" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G837" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H837" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I837" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J837" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>Super Queen</t>
+        </is>
+      </c>
+      <c r="L837" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M837" t="n">
+        <v>41</v>
+      </c>
+      <c r="N837" t="n">
+        <v>250000</v>
+      </c>
+      <c r="O837" t="n">
+        <v>370000</v>
+      </c>
+      <c r="P837" t="n">
+        <v>293902</v>
+      </c>
+      <c r="Q837" t="inlineStr">
+        <is>
+          <t>$/bins (420 kilos)</t>
+        </is>
+      </c>
+      <c r="R837" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S837" t="n">
+        <v>700</v>
+      </c>
+      <c r="T837" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>6</v>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D838" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E838" t="n">
+        <v>13</v>
+      </c>
+      <c r="F838" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G838" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H838" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I838" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J838" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>Super Queen</t>
+        </is>
+      </c>
+      <c r="L838" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M836" t="n">
+      <c r="M838" t="n">
         <v>18</v>
       </c>
-      <c r="N836" t="n">
+      <c r="N838" t="n">
         <v>200000</v>
       </c>
-      <c r="O836" t="n">
+      <c r="O838" t="n">
         <v>200000</v>
       </c>
-      <c r="P836" t="n">
+      <c r="P838" t="n">
         <v>200000</v>
       </c>
-      <c r="Q836" t="inlineStr">
+      <c r="Q838" t="inlineStr">
         <is>
           <t>$/bins (420 kilos)</t>
         </is>
       </c>
-      <c r="R836" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S836" t="n">
+      <c r="R838" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S838" t="n">
         <v>476</v>
       </c>
-      <c r="T836" t="n">
+      <c r="T838" t="n">
         <v>420</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Nectarín.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Nectarín.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T841"/>
+  <dimension ref="A1:T844"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -57315,25 +57315,25 @@
       </c>
       <c r="K712" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Pride</t>
         </is>
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N712" t="n">
-        <v>300000</v>
+        <v>500000</v>
       </c>
       <c r="O712" t="n">
-        <v>300000</v>
+        <v>500000</v>
       </c>
       <c r="P712" t="n">
-        <v>300000</v>
+        <v>500000</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
@@ -57346,7 +57346,7 @@
         </is>
       </c>
       <c r="S712" t="n">
-        <v>714</v>
+        <v>1190</v>
       </c>
       <c r="T712" t="n">
         <v>420</v>
@@ -57367,7 +57367,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -57395,7 +57395,7 @@
       </c>
       <c r="K713" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Early Glo</t>
         </is>
       </c>
       <c r="L713" t="inlineStr">
@@ -57404,16 +57404,16 @@
         </is>
       </c>
       <c r="M713" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N713" t="n">
-        <v>260000</v>
+        <v>430000</v>
       </c>
       <c r="O713" t="n">
-        <v>270000</v>
+        <v>450000</v>
       </c>
       <c r="P713" t="n">
-        <v>264615</v>
+        <v>440000</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
@@ -57426,7 +57426,7 @@
         </is>
       </c>
       <c r="S713" t="n">
-        <v>630</v>
+        <v>1048</v>
       </c>
       <c r="T713" t="n">
         <v>420</v>
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -57475,25 +57475,25 @@
       </c>
       <c r="K714" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>Early Glo</t>
         </is>
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M714" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N714" t="n">
-        <v>250000</v>
+        <v>370000</v>
       </c>
       <c r="O714" t="n">
-        <v>250000</v>
+        <v>370000</v>
       </c>
       <c r="P714" t="n">
-        <v>250000</v>
+        <v>370000</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57506,7 +57506,7 @@
         </is>
       </c>
       <c r="S714" t="n">
-        <v>595</v>
+        <v>881</v>
       </c>
       <c r="T714" t="n">
         <v>420</v>
@@ -57555,25 +57555,25 @@
       </c>
       <c r="K715" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N715" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="O715" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="P715" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
@@ -57586,7 +57586,7 @@
         </is>
       </c>
       <c r="S715" t="n">
-        <v>524</v>
+        <v>714</v>
       </c>
       <c r="T715" t="n">
         <v>420</v>
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -57635,29 +57635,29 @@
       </c>
       <c r="K716" t="inlineStr">
         <is>
-          <t>Artic Snow</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M716" t="n">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="N716" t="n">
-        <v>15000</v>
+        <v>260000</v>
       </c>
       <c r="O716" t="n">
-        <v>15000</v>
+        <v>270000</v>
       </c>
       <c r="P716" t="n">
-        <v>15000</v>
+        <v>264615</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R716" t="inlineStr">
@@ -57666,10 +57666,10 @@
         </is>
       </c>
       <c r="S716" t="n">
-        <v>1000</v>
+        <v>630</v>
       </c>
       <c r="T716" t="n">
-        <v>15</v>
+        <v>420</v>
       </c>
     </row>
     <row r="717">
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -57715,29 +57715,29 @@
       </c>
       <c r="K717" t="inlineStr">
         <is>
-          <t>Artic Snow</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M717" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="N717" t="n">
-        <v>17000</v>
+        <v>250000</v>
       </c>
       <c r="O717" t="n">
-        <v>17000</v>
+        <v>250000</v>
       </c>
       <c r="P717" t="n">
-        <v>17000</v>
+        <v>250000</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R717" t="inlineStr">
@@ -57746,10 +57746,10 @@
         </is>
       </c>
       <c r="S717" t="n">
-        <v>944</v>
+        <v>595</v>
       </c>
       <c r="T717" t="n">
-        <v>18</v>
+        <v>420</v>
       </c>
     </row>
     <row r="718">
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -57795,29 +57795,29 @@
       </c>
       <c r="K718" t="inlineStr">
         <is>
-          <t>Artic Snow</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L718" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M718" t="n">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="N718" t="n">
-        <v>13000</v>
+        <v>220000</v>
       </c>
       <c r="O718" t="n">
-        <v>13000</v>
+        <v>220000</v>
       </c>
       <c r="P718" t="n">
-        <v>13000</v>
+        <v>220000</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R718" t="inlineStr">
@@ -57826,10 +57826,10 @@
         </is>
       </c>
       <c r="S718" t="n">
-        <v>867</v>
+        <v>524</v>
       </c>
       <c r="T718" t="n">
-        <v>15</v>
+        <v>420</v>
       </c>
     </row>
     <row r="719">
@@ -57880,11 +57880,11 @@
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N719" t="n">
         <v>15000</v>
@@ -57897,7 +57897,7 @@
       </c>
       <c r="Q719" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R719" t="inlineStr">
@@ -57906,10 +57906,10 @@
         </is>
       </c>
       <c r="S719" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T719" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="720">
@@ -57955,7 +57955,7 @@
       </c>
       <c r="K720" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Snow</t>
         </is>
       </c>
       <c r="L720" t="inlineStr">
@@ -57964,20 +57964,20 @@
         </is>
       </c>
       <c r="M720" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N720" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O720" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P720" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R720" t="inlineStr">
@@ -57986,10 +57986,10 @@
         </is>
       </c>
       <c r="S720" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T720" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="721">
@@ -58035,29 +58035,29 @@
       </c>
       <c r="K721" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Snow</t>
         </is>
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="N721" t="n">
-        <v>250000</v>
+        <v>13000</v>
       </c>
       <c r="O721" t="n">
-        <v>250000</v>
+        <v>13000</v>
       </c>
       <c r="P721" t="n">
-        <v>250000</v>
+        <v>13000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R721" t="inlineStr">
@@ -58066,10 +58066,10 @@
         </is>
       </c>
       <c r="S721" t="n">
-        <v>595</v>
+        <v>867</v>
       </c>
       <c r="T721" t="n">
-        <v>420</v>
+        <v>15</v>
       </c>
     </row>
     <row r="722">
@@ -58115,7 +58115,7 @@
       </c>
       <c r="K722" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Snow</t>
         </is>
       </c>
       <c r="L722" t="inlineStr">
@@ -58124,20 +58124,20 @@
         </is>
       </c>
       <c r="M722" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N722" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O722" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P722" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R722" t="inlineStr">
@@ -58146,10 +58146,10 @@
         </is>
       </c>
       <c r="S722" t="n">
-        <v>867</v>
+        <v>833</v>
       </c>
       <c r="T722" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="723">
@@ -58200,36 +58200,36 @@
       </c>
       <c r="L723" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M723" t="n">
+        <v>180</v>
+      </c>
+      <c r="N723" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O723" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P723" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q723" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R723" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S723" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T723" t="n">
         <v>15</v>
-      </c>
-      <c r="N723" t="n">
-        <v>220000</v>
-      </c>
-      <c r="O723" t="n">
-        <v>220000</v>
-      </c>
-      <c r="P723" t="n">
-        <v>220000</v>
-      </c>
-      <c r="Q723" t="inlineStr">
-        <is>
-          <t>$/bins (420 kilos)</t>
-        </is>
-      </c>
-      <c r="R723" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S723" t="n">
-        <v>524</v>
-      </c>
-      <c r="T723" t="n">
-        <v>420</v>
       </c>
     </row>
     <row r="724">
@@ -58280,20 +58280,20 @@
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M724" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N724" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O724" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="P724" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
@@ -58306,7 +58306,7 @@
         </is>
       </c>
       <c r="S724" t="n">
-        <v>476</v>
+        <v>595</v>
       </c>
       <c r="T724" t="n">
         <v>420</v>
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -58355,41 +58355,41 @@
       </c>
       <c r="K725" t="inlineStr">
         <is>
-          <t>Artic Glo</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M725" t="n">
+        <v>150</v>
+      </c>
+      <c r="N725" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O725" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P725" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q725" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R725" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S725" t="n">
+        <v>867</v>
+      </c>
+      <c r="T725" t="n">
         <v>15</v>
-      </c>
-      <c r="N725" t="n">
-        <v>430000</v>
-      </c>
-      <c r="O725" t="n">
-        <v>430000</v>
-      </c>
-      <c r="P725" t="n">
-        <v>430000</v>
-      </c>
-      <c r="Q725" t="inlineStr">
-        <is>
-          <t>$/bins (420 kilos)</t>
-        </is>
-      </c>
-      <c r="R725" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S725" t="n">
-        <v>1024</v>
-      </c>
-      <c r="T725" t="n">
-        <v>420</v>
       </c>
     </row>
     <row r="726">
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -58435,7 +58435,7 @@
       </c>
       <c r="K726" t="inlineStr">
         <is>
-          <t>Artic Glo</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L726" t="inlineStr">
@@ -58444,16 +58444,16 @@
         </is>
       </c>
       <c r="M726" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N726" t="n">
-        <v>380000</v>
+        <v>220000</v>
       </c>
       <c r="O726" t="n">
-        <v>380000</v>
+        <v>220000</v>
       </c>
       <c r="P726" t="n">
-        <v>380000</v>
+        <v>220000</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
@@ -58466,7 +58466,7 @@
         </is>
       </c>
       <c r="S726" t="n">
-        <v>905</v>
+        <v>524</v>
       </c>
       <c r="T726" t="n">
         <v>420</v>
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -58515,25 +58515,25 @@
       </c>
       <c r="K727" t="inlineStr">
         <is>
-          <t>August Glo</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L727" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M727" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N727" t="n">
-        <v>350000</v>
+        <v>200000</v>
       </c>
       <c r="O727" t="n">
-        <v>350000</v>
+        <v>200000</v>
       </c>
       <c r="P727" t="n">
-        <v>350000</v>
+        <v>200000</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
@@ -58546,7 +58546,7 @@
         </is>
       </c>
       <c r="S727" t="n">
-        <v>833</v>
+        <v>476</v>
       </c>
       <c r="T727" t="n">
         <v>420</v>
@@ -58595,7 +58595,7 @@
       </c>
       <c r="K728" t="inlineStr">
         <is>
-          <t>Early Diamond</t>
+          <t>Artic Glo</t>
         </is>
       </c>
       <c r="L728" t="inlineStr">
@@ -58604,16 +58604,16 @@
         </is>
       </c>
       <c r="M728" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N728" t="n">
-        <v>360000</v>
+        <v>430000</v>
       </c>
       <c r="O728" t="n">
-        <v>360000</v>
+        <v>430000</v>
       </c>
       <c r="P728" t="n">
-        <v>360000</v>
+        <v>430000</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
@@ -58626,7 +58626,7 @@
         </is>
       </c>
       <c r="S728" t="n">
-        <v>857</v>
+        <v>1024</v>
       </c>
       <c r="T728" t="n">
         <v>420</v>
@@ -58675,7 +58675,7 @@
       </c>
       <c r="K729" t="inlineStr">
         <is>
-          <t>Early Diamond</t>
+          <t>Artic Glo</t>
         </is>
       </c>
       <c r="L729" t="inlineStr">
@@ -58684,16 +58684,16 @@
         </is>
       </c>
       <c r="M729" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N729" t="n">
-        <v>340000</v>
+        <v>380000</v>
       </c>
       <c r="O729" t="n">
-        <v>340000</v>
+        <v>380000</v>
       </c>
       <c r="P729" t="n">
-        <v>340000</v>
+        <v>380000</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
@@ -58706,7 +58706,7 @@
         </is>
       </c>
       <c r="S729" t="n">
-        <v>810</v>
+        <v>905</v>
       </c>
       <c r="T729" t="n">
         <v>420</v>
@@ -58755,25 +58755,25 @@
       </c>
       <c r="K730" t="inlineStr">
         <is>
-          <t>Early Glo</t>
+          <t>August Glo</t>
         </is>
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N730" t="n">
-        <v>340000</v>
+        <v>350000</v>
       </c>
       <c r="O730" t="n">
-        <v>340000</v>
+        <v>350000</v>
       </c>
       <c r="P730" t="n">
-        <v>340000</v>
+        <v>350000</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
@@ -58786,7 +58786,7 @@
         </is>
       </c>
       <c r="S730" t="n">
-        <v>810</v>
+        <v>833</v>
       </c>
       <c r="T730" t="n">
         <v>420</v>
@@ -58835,25 +58835,25 @@
       </c>
       <c r="K731" t="inlineStr">
         <is>
-          <t>Early Glo</t>
+          <t>Early Diamond</t>
         </is>
       </c>
       <c r="L731" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M731" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N731" t="n">
-        <v>320000</v>
+        <v>360000</v>
       </c>
       <c r="O731" t="n">
-        <v>320000</v>
+        <v>360000</v>
       </c>
       <c r="P731" t="n">
-        <v>320000</v>
+        <v>360000</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
@@ -58862,11 +58862,11 @@
       </c>
       <c r="R731" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S731" t="n">
-        <v>762</v>
+        <v>857</v>
       </c>
       <c r="T731" t="n">
         <v>420</v>
@@ -58915,7 +58915,7 @@
       </c>
       <c r="K732" t="inlineStr">
         <is>
-          <t>Early Glo</t>
+          <t>Early Diamond</t>
         </is>
       </c>
       <c r="L732" t="inlineStr">
@@ -58924,32 +58924,32 @@
         </is>
       </c>
       <c r="M732" t="n">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="N732" t="n">
-        <v>10000</v>
+        <v>340000</v>
       </c>
       <c r="O732" t="n">
-        <v>10000</v>
+        <v>340000</v>
       </c>
       <c r="P732" t="n">
-        <v>10000</v>
+        <v>340000</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R732" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S732" t="n">
-        <v>556</v>
+        <v>810</v>
       </c>
       <c r="T732" t="n">
-        <v>18</v>
+        <v>420</v>
       </c>
     </row>
     <row r="733">
@@ -59000,20 +59000,20 @@
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N733" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="O733" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="P733" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
@@ -59022,11 +59022,11 @@
       </c>
       <c r="R733" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S733" t="n">
-        <v>619</v>
+        <v>810</v>
       </c>
       <c r="T733" t="n">
         <v>420</v>
@@ -59075,25 +59075,25 @@
       </c>
       <c r="K734" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>Early Glo</t>
         </is>
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M734" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N734" t="n">
-        <v>360000</v>
+        <v>320000</v>
       </c>
       <c r="O734" t="n">
-        <v>360000</v>
+        <v>320000</v>
       </c>
       <c r="P734" t="n">
-        <v>360000</v>
+        <v>320000</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
@@ -59106,7 +59106,7 @@
         </is>
       </c>
       <c r="S734" t="n">
-        <v>857</v>
+        <v>762</v>
       </c>
       <c r="T734" t="n">
         <v>420</v>
@@ -59155,7 +59155,7 @@
       </c>
       <c r="K735" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>Early Glo</t>
         </is>
       </c>
       <c r="L735" t="inlineStr">
@@ -59164,32 +59164,32 @@
         </is>
       </c>
       <c r="M735" t="n">
+        <v>150</v>
+      </c>
+      <c r="N735" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O735" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P735" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q735" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R735" t="inlineStr">
+        <is>
+          <t>Llay Llay</t>
+        </is>
+      </c>
+      <c r="S735" t="n">
+        <v>556</v>
+      </c>
+      <c r="T735" t="n">
         <v>18</v>
-      </c>
-      <c r="N735" t="n">
-        <v>330000</v>
-      </c>
-      <c r="O735" t="n">
-        <v>330000</v>
-      </c>
-      <c r="P735" t="n">
-        <v>330000</v>
-      </c>
-      <c r="Q735" t="inlineStr">
-        <is>
-          <t>$/bins (420 kilos)</t>
-        </is>
-      </c>
-      <c r="R735" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="S735" t="n">
-        <v>786</v>
-      </c>
-      <c r="T735" t="n">
-        <v>420</v>
       </c>
     </row>
     <row r="736">
@@ -59235,25 +59235,25 @@
       </c>
       <c r="K736" t="inlineStr">
         <is>
-          <t>May Glo</t>
+          <t>Early Glo</t>
         </is>
       </c>
       <c r="L736" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M736" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N736" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="O736" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="P736" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
@@ -59266,7 +59266,7 @@
         </is>
       </c>
       <c r="S736" t="n">
-        <v>786</v>
+        <v>619</v>
       </c>
       <c r="T736" t="n">
         <v>420</v>
@@ -59315,25 +59315,25 @@
       </c>
       <c r="K737" t="inlineStr">
         <is>
-          <t>May Glo</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L737" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M737" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N737" t="n">
-        <v>250000</v>
+        <v>360000</v>
       </c>
       <c r="O737" t="n">
-        <v>250000</v>
+        <v>360000</v>
       </c>
       <c r="P737" t="n">
-        <v>250000</v>
+        <v>360000</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
@@ -59346,7 +59346,7 @@
         </is>
       </c>
       <c r="S737" t="n">
-        <v>595</v>
+        <v>857</v>
       </c>
       <c r="T737" t="n">
         <v>420</v>
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -59395,7 +59395,7 @@
       </c>
       <c r="K738" t="inlineStr">
         <is>
-          <t>Artic Sprite</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L738" t="inlineStr">
@@ -59404,32 +59404,32 @@
         </is>
       </c>
       <c r="M738" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="N738" t="n">
-        <v>12000</v>
+        <v>330000</v>
       </c>
       <c r="O738" t="n">
-        <v>12000</v>
+        <v>330000</v>
       </c>
       <c r="P738" t="n">
-        <v>12000</v>
+        <v>330000</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R738" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S738" t="n">
-        <v>667</v>
+        <v>786</v>
       </c>
       <c r="T738" t="n">
-        <v>18</v>
+        <v>420</v>
       </c>
     </row>
     <row r="739">
@@ -59447,7 +59447,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -59475,41 +59475,41 @@
       </c>
       <c r="K739" t="inlineStr">
         <is>
-          <t>Artic Sprite</t>
+          <t>May Glo</t>
         </is>
       </c>
       <c r="L739" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M739" t="n">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="N739" t="n">
-        <v>8000</v>
+        <v>330000</v>
       </c>
       <c r="O739" t="n">
-        <v>8000</v>
+        <v>330000</v>
       </c>
       <c r="P739" t="n">
-        <v>8000</v>
+        <v>330000</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R739" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S739" t="n">
-        <v>444</v>
+        <v>786</v>
       </c>
       <c r="T739" t="n">
-        <v>18</v>
+        <v>420</v>
       </c>
     </row>
     <row r="740">
@@ -59527,7 +59527,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -59555,25 +59555,25 @@
       </c>
       <c r="K740" t="inlineStr">
         <is>
-          <t>Venus</t>
+          <t>May Glo</t>
         </is>
       </c>
       <c r="L740" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M740" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N740" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="O740" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="P740" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
@@ -59582,11 +59582,11 @@
       </c>
       <c r="R740" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S740" t="n">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="T740" t="n">
         <v>420</v>
@@ -59635,7 +59635,7 @@
       </c>
       <c r="K741" t="inlineStr">
         <is>
-          <t>Venus</t>
+          <t>Artic Sprite</t>
         </is>
       </c>
       <c r="L741" t="inlineStr">
@@ -59644,20 +59644,20 @@
         </is>
       </c>
       <c r="M741" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="N741" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="O741" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="P741" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R741" t="inlineStr">
@@ -59666,10 +59666,10 @@
         </is>
       </c>
       <c r="S741" t="n">
-        <v>548</v>
+        <v>667</v>
       </c>
       <c r="T741" t="n">
-        <v>420</v>
+        <v>18</v>
       </c>
     </row>
     <row r="742">
@@ -59715,7 +59715,7 @@
       </c>
       <c r="K742" t="inlineStr">
         <is>
-          <t>Venus</t>
+          <t>Artic Sprite</t>
         </is>
       </c>
       <c r="L742" t="inlineStr">
@@ -59724,20 +59724,20 @@
         </is>
       </c>
       <c r="M742" t="n">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="N742" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="O742" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="P742" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R742" t="inlineStr">
@@ -59746,10 +59746,10 @@
         </is>
       </c>
       <c r="S742" t="n">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="T742" t="n">
-        <v>420</v>
+        <v>18</v>
       </c>
     </row>
     <row r="743">
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -59795,25 +59795,25 @@
       </c>
       <c r="K743" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N743" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="O743" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P743" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
@@ -59826,7 +59826,7 @@
         </is>
       </c>
       <c r="S743" t="n">
-        <v>714</v>
+        <v>619</v>
       </c>
       <c r="T743" t="n">
         <v>420</v>
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -59875,7 +59875,7 @@
       </c>
       <c r="K744" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L744" t="inlineStr">
@@ -59884,7 +59884,7 @@
         </is>
       </c>
       <c r="M744" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N744" t="n">
         <v>230000</v>
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -59960,20 +59960,20 @@
       </c>
       <c r="L745" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M745" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N745" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O745" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P745" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
@@ -59986,7 +59986,7 @@
         </is>
       </c>
       <c r="S745" t="n">
-        <v>476</v>
+        <v>429</v>
       </c>
       <c r="T745" t="n">
         <v>420</v>
@@ -60035,25 +60035,25 @@
       </c>
       <c r="K746" t="inlineStr">
         <is>
-          <t>Venus</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M746" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N746" t="n">
-        <v>160000</v>
+        <v>300000</v>
       </c>
       <c r="O746" t="n">
-        <v>160000</v>
+        <v>300000</v>
       </c>
       <c r="P746" t="n">
-        <v>160000</v>
+        <v>300000</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
@@ -60066,7 +60066,7 @@
         </is>
       </c>
       <c r="S746" t="n">
-        <v>381</v>
+        <v>714</v>
       </c>
       <c r="T746" t="n">
         <v>420</v>
@@ -60087,7 +60087,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -60115,25 +60115,25 @@
       </c>
       <c r="K747" t="inlineStr">
         <is>
-          <t>Artic Glo</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L747" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M747" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N747" t="n">
-        <v>450000</v>
+        <v>230000</v>
       </c>
       <c r="O747" t="n">
-        <v>450000</v>
+        <v>230000</v>
       </c>
       <c r="P747" t="n">
-        <v>450000</v>
+        <v>230000</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
@@ -60146,7 +60146,7 @@
         </is>
       </c>
       <c r="S747" t="n">
-        <v>1071</v>
+        <v>548</v>
       </c>
       <c r="T747" t="n">
         <v>420</v>
@@ -60167,7 +60167,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -60195,7 +60195,7 @@
       </c>
       <c r="K748" t="inlineStr">
         <is>
-          <t>Artic Glo</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L748" t="inlineStr">
@@ -60207,13 +60207,13 @@
         <v>16</v>
       </c>
       <c r="N748" t="n">
-        <v>350000</v>
+        <v>200000</v>
       </c>
       <c r="O748" t="n">
-        <v>350000</v>
+        <v>200000</v>
       </c>
       <c r="P748" t="n">
-        <v>350000</v>
+        <v>200000</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
@@ -60226,7 +60226,7 @@
         </is>
       </c>
       <c r="S748" t="n">
-        <v>833</v>
+        <v>476</v>
       </c>
       <c r="T748" t="n">
         <v>420</v>
@@ -60247,7 +60247,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -60275,7 +60275,7 @@
       </c>
       <c r="K749" t="inlineStr">
         <is>
-          <t>Artic Glo</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L749" t="inlineStr">
@@ -60284,16 +60284,16 @@
         </is>
       </c>
       <c r="M749" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N749" t="n">
-        <v>250000</v>
+        <v>160000</v>
       </c>
       <c r="O749" t="n">
-        <v>250000</v>
+        <v>160000</v>
       </c>
       <c r="P749" t="n">
-        <v>250000</v>
+        <v>160000</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
@@ -60306,7 +60306,7 @@
         </is>
       </c>
       <c r="S749" t="n">
-        <v>595</v>
+        <v>381</v>
       </c>
       <c r="T749" t="n">
         <v>420</v>
@@ -60355,25 +60355,25 @@
       </c>
       <c r="K750" t="inlineStr">
         <is>
-          <t>Artic Sprite</t>
+          <t>Artic Glo</t>
         </is>
       </c>
       <c r="L750" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M750" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N750" t="n">
-        <v>350000</v>
+        <v>450000</v>
       </c>
       <c r="O750" t="n">
-        <v>350000</v>
+        <v>450000</v>
       </c>
       <c r="P750" t="n">
-        <v>350000</v>
+        <v>450000</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
@@ -60386,7 +60386,7 @@
         </is>
       </c>
       <c r="S750" t="n">
-        <v>833</v>
+        <v>1071</v>
       </c>
       <c r="T750" t="n">
         <v>420</v>
@@ -60435,25 +60435,25 @@
       </c>
       <c r="K751" t="inlineStr">
         <is>
-          <t>Artic Sprite</t>
+          <t>Artic Glo</t>
         </is>
       </c>
       <c r="L751" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M751" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N751" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="O751" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="P751" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
@@ -60466,7 +60466,7 @@
         </is>
       </c>
       <c r="S751" t="n">
-        <v>714</v>
+        <v>833</v>
       </c>
       <c r="T751" t="n">
         <v>420</v>
@@ -60515,25 +60515,25 @@
       </c>
       <c r="K752" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>Artic Glo</t>
         </is>
       </c>
       <c r="L752" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M752" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="N752" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="O752" t="n">
-        <v>350000</v>
+        <v>250000</v>
       </c>
       <c r="P752" t="n">
-        <v>340000</v>
+        <v>250000</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
@@ -60546,7 +60546,7 @@
         </is>
       </c>
       <c r="S752" t="n">
-        <v>810</v>
+        <v>595</v>
       </c>
       <c r="T752" t="n">
         <v>420</v>
@@ -60595,25 +60595,25 @@
       </c>
       <c r="K753" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>Artic Sprite</t>
         </is>
       </c>
       <c r="L753" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M753" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N753" t="n">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="O753" t="n">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="P753" t="n">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
@@ -60626,7 +60626,7 @@
         </is>
       </c>
       <c r="S753" t="n">
-        <v>595</v>
+        <v>833</v>
       </c>
       <c r="T753" t="n">
         <v>420</v>
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -60680,20 +60680,20 @@
       </c>
       <c r="L754" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M754" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N754" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="O754" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P754" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
@@ -60706,7 +60706,7 @@
         </is>
       </c>
       <c r="S754" t="n">
-        <v>667</v>
+        <v>714</v>
       </c>
       <c r="T754" t="n">
         <v>420</v>
@@ -60727,7 +60727,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -60755,7 +60755,7 @@
       </c>
       <c r="K755" t="inlineStr">
         <is>
-          <t>Artic Sprite</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L755" t="inlineStr">
@@ -60764,16 +60764,16 @@
         </is>
       </c>
       <c r="M755" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="N755" t="n">
-        <v>250000</v>
+        <v>330000</v>
       </c>
       <c r="O755" t="n">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="P755" t="n">
-        <v>250000</v>
+        <v>340000</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
@@ -60786,7 +60786,7 @@
         </is>
       </c>
       <c r="S755" t="n">
-        <v>595</v>
+        <v>810</v>
       </c>
       <c r="T755" t="n">
         <v>420</v>
@@ -60807,7 +60807,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -60835,7 +60835,7 @@
       </c>
       <c r="K756" t="inlineStr">
         <is>
-          <t>Artic Sprite</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L756" t="inlineStr">
@@ -60844,16 +60844,16 @@
         </is>
       </c>
       <c r="M756" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N756" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O756" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="P756" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
@@ -60866,7 +60866,7 @@
         </is>
       </c>
       <c r="S756" t="n">
-        <v>476</v>
+        <v>595</v>
       </c>
       <c r="T756" t="n">
         <v>420</v>
@@ -60915,7 +60915,7 @@
       </c>
       <c r="K757" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Sprite</t>
         </is>
       </c>
       <c r="L757" t="inlineStr">
@@ -60924,16 +60924,16 @@
         </is>
       </c>
       <c r="M757" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N757" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="O757" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="P757" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
@@ -60942,11 +60942,11 @@
       </c>
       <c r="R757" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S757" t="n">
-        <v>524</v>
+        <v>667</v>
       </c>
       <c r="T757" t="n">
         <v>420</v>
@@ -60995,7 +60995,7 @@
       </c>
       <c r="K758" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Sprite</t>
         </is>
       </c>
       <c r="L758" t="inlineStr">
@@ -61004,16 +61004,16 @@
         </is>
       </c>
       <c r="M758" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N758" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O758" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="P758" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
@@ -61022,11 +61022,11 @@
       </c>
       <c r="R758" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S758" t="n">
-        <v>476</v>
+        <v>595</v>
       </c>
       <c r="T758" t="n">
         <v>420</v>
@@ -61075,7 +61075,7 @@
       </c>
       <c r="K759" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Sprite</t>
         </is>
       </c>
       <c r="L759" t="inlineStr">
@@ -61084,16 +61084,16 @@
         </is>
       </c>
       <c r="M759" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N759" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="O759" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="P759" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
@@ -61102,11 +61102,11 @@
       </c>
       <c r="R759" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S759" t="n">
-        <v>381</v>
+        <v>476</v>
       </c>
       <c r="T759" t="n">
         <v>420</v>
@@ -61155,16 +61155,16 @@
       </c>
       <c r="K760" t="inlineStr">
         <is>
-          <t>Venus</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L760" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M760" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N760" t="n">
         <v>220000</v>
@@ -61182,7 +61182,7 @@
       </c>
       <c r="R760" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S760" t="n">
@@ -61235,25 +61235,25 @@
       </c>
       <c r="K761" t="inlineStr">
         <is>
-          <t>Venus</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L761" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M761" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N761" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O761" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P761" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
@@ -61262,11 +61262,11 @@
       </c>
       <c r="R761" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S761" t="n">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="T761" t="n">
         <v>420</v>
@@ -61287,7 +61287,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E762" t="n">
         <v>13</v>
@@ -61315,25 +61315,25 @@
       </c>
       <c r="K762" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L762" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M762" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N762" t="n">
-        <v>250000</v>
+        <v>160000</v>
       </c>
       <c r="O762" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="P762" t="n">
-        <v>260000</v>
+        <v>160000</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
@@ -61342,11 +61342,11 @@
       </c>
       <c r="R762" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S762" t="n">
-        <v>619</v>
+        <v>381</v>
       </c>
       <c r="T762" t="n">
         <v>420</v>
@@ -61367,7 +61367,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E763" t="n">
         <v>13</v>
@@ -61395,7 +61395,7 @@
       </c>
       <c r="K763" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L763" t="inlineStr">
@@ -61404,16 +61404,16 @@
         </is>
       </c>
       <c r="M763" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N763" t="n">
         <v>220000</v>
       </c>
       <c r="O763" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="P763" t="n">
-        <v>223571</v>
+        <v>220000</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
@@ -61426,7 +61426,7 @@
         </is>
       </c>
       <c r="S763" t="n">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="T763" t="n">
         <v>420</v>
@@ -61447,7 +61447,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E764" t="n">
         <v>13</v>
@@ -61475,7 +61475,7 @@
       </c>
       <c r="K764" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L764" t="inlineStr">
@@ -61484,7 +61484,7 @@
         </is>
       </c>
       <c r="M764" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N764" t="n">
         <v>180000</v>
@@ -61560,20 +61560,20 @@
       </c>
       <c r="L765" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M765" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N765" t="n">
-        <v>120000</v>
+        <v>250000</v>
       </c>
       <c r="O765" t="n">
-        <v>120000</v>
+        <v>270000</v>
       </c>
       <c r="P765" t="n">
-        <v>120000</v>
+        <v>260000</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
@@ -61586,7 +61586,7 @@
         </is>
       </c>
       <c r="S765" t="n">
-        <v>286</v>
+        <v>619</v>
       </c>
       <c r="T765" t="n">
         <v>420</v>
@@ -61635,7 +61635,7 @@
       </c>
       <c r="K766" t="inlineStr">
         <is>
-          <t>Venus</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L766" t="inlineStr">
@@ -61644,16 +61644,16 @@
         </is>
       </c>
       <c r="M766" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N766" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="O766" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="P766" t="n">
-        <v>200000</v>
+        <v>223571</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
@@ -61666,7 +61666,7 @@
         </is>
       </c>
       <c r="S766" t="n">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="T766" t="n">
         <v>420</v>
@@ -61715,7 +61715,7 @@
       </c>
       <c r="K767" t="inlineStr">
         <is>
-          <t>Venus</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L767" t="inlineStr">
@@ -61724,16 +61724,16 @@
         </is>
       </c>
       <c r="M767" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N767" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="O767" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="P767" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
@@ -61746,7 +61746,7 @@
         </is>
       </c>
       <c r="S767" t="n">
-        <v>357</v>
+        <v>429</v>
       </c>
       <c r="T767" t="n">
         <v>420</v>
@@ -61767,7 +61767,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E768" t="n">
         <v>13</v>
@@ -61795,29 +61795,29 @@
       </c>
       <c r="K768" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L768" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M768" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="N768" t="n">
-        <v>12000</v>
+        <v>120000</v>
       </c>
       <c r="O768" t="n">
-        <v>12000</v>
+        <v>120000</v>
       </c>
       <c r="P768" t="n">
-        <v>12000</v>
+        <v>120000</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R768" t="inlineStr">
@@ -61826,10 +61826,10 @@
         </is>
       </c>
       <c r="S768" t="n">
-        <v>750</v>
+        <v>286</v>
       </c>
       <c r="T768" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="769">
@@ -61847,7 +61847,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E769" t="n">
         <v>13</v>
@@ -61875,29 +61875,29 @@
       </c>
       <c r="K769" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L769" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M769" t="n">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="N769" t="n">
-        <v>14000</v>
+        <v>200000</v>
       </c>
       <c r="O769" t="n">
-        <v>14000</v>
+        <v>200000</v>
       </c>
       <c r="P769" t="n">
-        <v>14000</v>
+        <v>200000</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R769" t="inlineStr">
@@ -61906,10 +61906,10 @@
         </is>
       </c>
       <c r="S769" t="n">
-        <v>875</v>
+        <v>476</v>
       </c>
       <c r="T769" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="770">
@@ -61927,7 +61927,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E770" t="n">
         <v>13</v>
@@ -61955,25 +61955,25 @@
       </c>
       <c r="K770" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L770" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M770" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N770" t="n">
-        <v>230000</v>
+        <v>150000</v>
       </c>
       <c r="O770" t="n">
-        <v>230000</v>
+        <v>150000</v>
       </c>
       <c r="P770" t="n">
-        <v>230000</v>
+        <v>150000</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
@@ -61986,7 +61986,7 @@
         </is>
       </c>
       <c r="S770" t="n">
-        <v>548</v>
+        <v>357</v>
       </c>
       <c r="T770" t="n">
         <v>420</v>
@@ -62040,20 +62040,20 @@
       </c>
       <c r="L771" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M771" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N771" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O771" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P771" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
@@ -62066,7 +62066,7 @@
         </is>
       </c>
       <c r="S771" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T771" t="n">
         <v>16</v>
@@ -62120,20 +62120,20 @@
       </c>
       <c r="L772" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M772" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N772" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O772" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P772" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
@@ -62146,7 +62146,7 @@
         </is>
       </c>
       <c r="S772" t="n">
-        <v>500</v>
+        <v>875</v>
       </c>
       <c r="T772" t="n">
         <v>16</v>
@@ -62195,25 +62195,25 @@
       </c>
       <c r="K773" t="inlineStr">
         <is>
-          <t>August pearl</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L773" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M773" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N773" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="O773" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="P773" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
@@ -62226,7 +62226,7 @@
         </is>
       </c>
       <c r="S773" t="n">
-        <v>643</v>
+        <v>548</v>
       </c>
       <c r="T773" t="n">
         <v>420</v>
@@ -62275,7 +62275,7 @@
       </c>
       <c r="K774" t="inlineStr">
         <is>
-          <t>August pearl</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L774" t="inlineStr">
@@ -62284,32 +62284,32 @@
         </is>
       </c>
       <c r="M774" t="n">
+        <v>120</v>
+      </c>
+      <c r="N774" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O774" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P774" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q774" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R774" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S774" t="n">
+        <v>625</v>
+      </c>
+      <c r="T774" t="n">
         <v>16</v>
-      </c>
-      <c r="N774" t="n">
-        <v>250000</v>
-      </c>
-      <c r="O774" t="n">
-        <v>250000</v>
-      </c>
-      <c r="P774" t="n">
-        <v>250000</v>
-      </c>
-      <c r="Q774" t="inlineStr">
-        <is>
-          <t>$/bins (420 kilos)</t>
-        </is>
-      </c>
-      <c r="R774" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S774" t="n">
-        <v>595</v>
-      </c>
-      <c r="T774" t="n">
-        <v>420</v>
       </c>
     </row>
     <row r="775">
@@ -62355,29 +62355,29 @@
       </c>
       <c r="K775" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L775" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M775" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="N775" t="n">
-        <v>270000</v>
+        <v>8000</v>
       </c>
       <c r="O775" t="n">
-        <v>270000</v>
+        <v>8000</v>
       </c>
       <c r="P775" t="n">
-        <v>270000</v>
+        <v>8000</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R775" t="inlineStr">
@@ -62386,10 +62386,10 @@
         </is>
       </c>
       <c r="S775" t="n">
-        <v>643</v>
+        <v>500</v>
       </c>
       <c r="T775" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="776">
@@ -62435,7 +62435,7 @@
       </c>
       <c r="K776" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>August pearl</t>
         </is>
       </c>
       <c r="L776" t="inlineStr">
@@ -62444,20 +62444,20 @@
         </is>
       </c>
       <c r="M776" t="n">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="N776" t="n">
-        <v>12000</v>
+        <v>270000</v>
       </c>
       <c r="O776" t="n">
-        <v>12000</v>
+        <v>270000</v>
       </c>
       <c r="P776" t="n">
-        <v>12000</v>
+        <v>270000</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R776" t="inlineStr">
@@ -62466,10 +62466,10 @@
         </is>
       </c>
       <c r="S776" t="n">
-        <v>750</v>
+        <v>643</v>
       </c>
       <c r="T776" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="777">
@@ -62515,29 +62515,29 @@
       </c>
       <c r="K777" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>August pearl</t>
         </is>
       </c>
       <c r="L777" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M777" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="N777" t="n">
-        <v>14000</v>
+        <v>250000</v>
       </c>
       <c r="O777" t="n">
-        <v>14000</v>
+        <v>250000</v>
       </c>
       <c r="P777" t="n">
-        <v>14000</v>
+        <v>250000</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R777" t="inlineStr">
@@ -62546,10 +62546,10 @@
         </is>
       </c>
       <c r="S777" t="n">
-        <v>875</v>
+        <v>595</v>
       </c>
       <c r="T777" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="778">
@@ -62600,20 +62600,20 @@
       </c>
       <c r="L778" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M778" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N778" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="O778" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="P778" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
@@ -62626,7 +62626,7 @@
         </is>
       </c>
       <c r="S778" t="n">
-        <v>571</v>
+        <v>643</v>
       </c>
       <c r="T778" t="n">
         <v>420</v>
@@ -62680,20 +62680,20 @@
       </c>
       <c r="L779" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M779" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N779" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O779" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P779" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
@@ -62706,7 +62706,7 @@
         </is>
       </c>
       <c r="S779" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T779" t="n">
         <v>16</v>
@@ -62760,24 +62760,24 @@
       </c>
       <c r="L780" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M780" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N780" t="n">
-        <v>170000</v>
+        <v>14000</v>
       </c>
       <c r="O780" t="n">
-        <v>170000</v>
+        <v>14000</v>
       </c>
       <c r="P780" t="n">
-        <v>170000</v>
+        <v>14000</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R780" t="inlineStr">
@@ -62786,10 +62786,10 @@
         </is>
       </c>
       <c r="S780" t="n">
-        <v>405</v>
+        <v>875</v>
       </c>
       <c r="T780" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="781">
@@ -62840,24 +62840,24 @@
       </c>
       <c r="L781" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M781" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N781" t="n">
-        <v>8000</v>
+        <v>240000</v>
       </c>
       <c r="O781" t="n">
-        <v>8000</v>
+        <v>240000</v>
       </c>
       <c r="P781" t="n">
-        <v>8000</v>
+        <v>240000</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R781" t="inlineStr">
@@ -62866,10 +62866,10 @@
         </is>
       </c>
       <c r="S781" t="n">
-        <v>500</v>
+        <v>571</v>
       </c>
       <c r="T781" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="782">
@@ -62915,7 +62915,7 @@
       </c>
       <c r="K782" t="inlineStr">
         <is>
-          <t>Nectar Crest</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L782" t="inlineStr">
@@ -62924,20 +62924,20 @@
         </is>
       </c>
       <c r="M782" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="N782" t="n">
-        <v>250000</v>
+        <v>10000</v>
       </c>
       <c r="O782" t="n">
-        <v>250000</v>
+        <v>10000</v>
       </c>
       <c r="P782" t="n">
-        <v>250000</v>
+        <v>10000</v>
       </c>
       <c r="Q782" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R782" t="inlineStr">
@@ -62946,10 +62946,10 @@
         </is>
       </c>
       <c r="S782" t="n">
-        <v>595</v>
+        <v>625</v>
       </c>
       <c r="T782" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="783">
@@ -62995,7 +62995,7 @@
       </c>
       <c r="K783" t="inlineStr">
         <is>
-          <t>Nectar Crest</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L783" t="inlineStr">
@@ -63004,16 +63004,16 @@
         </is>
       </c>
       <c r="M783" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N783" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="O783" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="P783" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
@@ -63026,7 +63026,7 @@
         </is>
       </c>
       <c r="S783" t="n">
-        <v>476</v>
+        <v>405</v>
       </c>
       <c r="T783" t="n">
         <v>420</v>
@@ -63047,7 +63047,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E784" t="n">
         <v>13</v>
@@ -63075,29 +63075,29 @@
       </c>
       <c r="K784" t="inlineStr">
         <is>
-          <t>Artic Pride</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L784" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M784" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N784" t="n">
-        <v>360000</v>
+        <v>8000</v>
       </c>
       <c r="O784" t="n">
-        <v>360000</v>
+        <v>8000</v>
       </c>
       <c r="P784" t="n">
-        <v>360000</v>
+        <v>8000</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R784" t="inlineStr">
@@ -63106,10 +63106,10 @@
         </is>
       </c>
       <c r="S784" t="n">
-        <v>857</v>
+        <v>500</v>
       </c>
       <c r="T784" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="785">
@@ -63127,7 +63127,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E785" t="n">
         <v>13</v>
@@ -63155,7 +63155,7 @@
       </c>
       <c r="K785" t="inlineStr">
         <is>
-          <t>Artic Pride</t>
+          <t>Nectar Crest</t>
         </is>
       </c>
       <c r="L785" t="inlineStr">
@@ -63164,16 +63164,16 @@
         </is>
       </c>
       <c r="M785" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N785" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="O785" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="P785" t="n">
-        <v>305862</v>
+        <v>250000</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
@@ -63186,7 +63186,7 @@
         </is>
       </c>
       <c r="S785" t="n">
-        <v>728</v>
+        <v>595</v>
       </c>
       <c r="T785" t="n">
         <v>420</v>
@@ -63207,7 +63207,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E786" t="n">
         <v>13</v>
@@ -63235,7 +63235,7 @@
       </c>
       <c r="K786" t="inlineStr">
         <is>
-          <t>Artic Pride</t>
+          <t>Nectar Crest</t>
         </is>
       </c>
       <c r="L786" t="inlineStr">
@@ -63244,16 +63244,16 @@
         </is>
       </c>
       <c r="M786" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N786" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O786" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P786" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="Q786" t="inlineStr">
         <is>
@@ -63266,7 +63266,7 @@
         </is>
       </c>
       <c r="S786" t="n">
-        <v>595</v>
+        <v>476</v>
       </c>
       <c r="T786" t="n">
         <v>420</v>
@@ -63315,25 +63315,25 @@
       </c>
       <c r="K787" t="inlineStr">
         <is>
-          <t>Early Diamond</t>
+          <t>Artic Pride</t>
         </is>
       </c>
       <c r="L787" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M787" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N787" t="n">
-        <v>350000</v>
+        <v>360000</v>
       </c>
       <c r="O787" t="n">
-        <v>350000</v>
+        <v>360000</v>
       </c>
       <c r="P787" t="n">
-        <v>350000</v>
+        <v>360000</v>
       </c>
       <c r="Q787" t="inlineStr">
         <is>
@@ -63346,7 +63346,7 @@
         </is>
       </c>
       <c r="S787" t="n">
-        <v>833</v>
+        <v>857</v>
       </c>
       <c r="T787" t="n">
         <v>420</v>
@@ -63395,25 +63395,25 @@
       </c>
       <c r="K788" t="inlineStr">
         <is>
-          <t>Early Diamond</t>
+          <t>Artic Pride</t>
         </is>
       </c>
       <c r="L788" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M788" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N788" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O788" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="P788" t="n">
-        <v>270000</v>
+        <v>305862</v>
       </c>
       <c r="Q788" t="inlineStr">
         <is>
@@ -63426,7 +63426,7 @@
         </is>
       </c>
       <c r="S788" t="n">
-        <v>643</v>
+        <v>728</v>
       </c>
       <c r="T788" t="n">
         <v>420</v>
@@ -63475,25 +63475,25 @@
       </c>
       <c r="K789" t="inlineStr">
         <is>
-          <t>Garcica</t>
+          <t>Artic Pride</t>
         </is>
       </c>
       <c r="L789" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M789" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N789" t="n">
-        <v>450000</v>
+        <v>250000</v>
       </c>
       <c r="O789" t="n">
-        <v>450000</v>
+        <v>250000</v>
       </c>
       <c r="P789" t="n">
-        <v>450000</v>
+        <v>250000</v>
       </c>
       <c r="Q789" t="inlineStr">
         <is>
@@ -63506,7 +63506,7 @@
         </is>
       </c>
       <c r="S789" t="n">
-        <v>1071</v>
+        <v>595</v>
       </c>
       <c r="T789" t="n">
         <v>420</v>
@@ -63555,25 +63555,25 @@
       </c>
       <c r="K790" t="inlineStr">
         <is>
-          <t>Garcica</t>
+          <t>Early Diamond</t>
         </is>
       </c>
       <c r="L790" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M790" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N790" t="n">
-        <v>480000</v>
+        <v>350000</v>
       </c>
       <c r="O790" t="n">
-        <v>480000</v>
+        <v>350000</v>
       </c>
       <c r="P790" t="n">
-        <v>480000</v>
+        <v>350000</v>
       </c>
       <c r="Q790" t="inlineStr">
         <is>
@@ -63586,7 +63586,7 @@
         </is>
       </c>
       <c r="S790" t="n">
-        <v>1143</v>
+        <v>833</v>
       </c>
       <c r="T790" t="n">
         <v>420</v>
@@ -63635,25 +63635,25 @@
       </c>
       <c r="K791" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Early Diamond</t>
         </is>
       </c>
       <c r="L791" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M791" t="n">
         <v>14</v>
       </c>
       <c r="N791" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="O791" t="n">
-        <v>310000</v>
+        <v>270000</v>
       </c>
       <c r="P791" t="n">
-        <v>305714</v>
+        <v>270000</v>
       </c>
       <c r="Q791" t="inlineStr">
         <is>
@@ -63666,7 +63666,7 @@
         </is>
       </c>
       <c r="S791" t="n">
-        <v>728</v>
+        <v>643</v>
       </c>
       <c r="T791" t="n">
         <v>420</v>
@@ -63715,25 +63715,25 @@
       </c>
       <c r="K792" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Garcica</t>
         </is>
       </c>
       <c r="L792" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M792" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="N792" t="n">
-        <v>270000</v>
+        <v>450000</v>
       </c>
       <c r="O792" t="n">
-        <v>280000</v>
+        <v>450000</v>
       </c>
       <c r="P792" t="n">
-        <v>275294</v>
+        <v>450000</v>
       </c>
       <c r="Q792" t="inlineStr">
         <is>
@@ -63746,7 +63746,7 @@
         </is>
       </c>
       <c r="S792" t="n">
-        <v>655</v>
+        <v>1071</v>
       </c>
       <c r="T792" t="n">
         <v>420</v>
@@ -63795,25 +63795,25 @@
       </c>
       <c r="K793" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Garcica</t>
         </is>
       </c>
       <c r="L793" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M793" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N793" t="n">
-        <v>240000</v>
+        <v>480000</v>
       </c>
       <c r="O793" t="n">
-        <v>240000</v>
+        <v>480000</v>
       </c>
       <c r="P793" t="n">
-        <v>240000</v>
+        <v>480000</v>
       </c>
       <c r="Q793" t="inlineStr">
         <is>
@@ -63826,7 +63826,7 @@
         </is>
       </c>
       <c r="S793" t="n">
-        <v>571</v>
+        <v>1143</v>
       </c>
       <c r="T793" t="n">
         <v>420</v>
@@ -63847,7 +63847,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E794" t="n">
         <v>13</v>
@@ -63875,7 +63875,7 @@
       </c>
       <c r="K794" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L794" t="inlineStr">
@@ -63884,20 +63884,20 @@
         </is>
       </c>
       <c r="M794" t="n">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="N794" t="n">
-        <v>14000</v>
+        <v>300000</v>
       </c>
       <c r="O794" t="n">
-        <v>14000</v>
+        <v>310000</v>
       </c>
       <c r="P794" t="n">
-        <v>14000</v>
+        <v>305714</v>
       </c>
       <c r="Q794" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R794" t="inlineStr">
@@ -63906,10 +63906,10 @@
         </is>
       </c>
       <c r="S794" t="n">
-        <v>875</v>
+        <v>728</v>
       </c>
       <c r="T794" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="795">
@@ -63927,7 +63927,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E795" t="n">
         <v>13</v>
@@ -63955,29 +63955,29 @@
       </c>
       <c r="K795" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L795" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M795" t="n">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="N795" t="n">
-        <v>16000</v>
+        <v>270000</v>
       </c>
       <c r="O795" t="n">
-        <v>16000</v>
+        <v>280000</v>
       </c>
       <c r="P795" t="n">
-        <v>16000</v>
+        <v>275294</v>
       </c>
       <c r="Q795" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R795" t="inlineStr">
@@ -63986,10 +63986,10 @@
         </is>
       </c>
       <c r="S795" t="n">
-        <v>1000</v>
+        <v>655</v>
       </c>
       <c r="T795" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="796">
@@ -64007,7 +64007,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E796" t="n">
         <v>13</v>
@@ -64035,29 +64035,29 @@
       </c>
       <c r="K796" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L796" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M796" t="n">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="N796" t="n">
-        <v>12000</v>
+        <v>240000</v>
       </c>
       <c r="O796" t="n">
-        <v>12000</v>
+        <v>240000</v>
       </c>
       <c r="P796" t="n">
-        <v>12000</v>
+        <v>240000</v>
       </c>
       <c r="Q796" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R796" t="inlineStr">
@@ -64066,10 +64066,10 @@
         </is>
       </c>
       <c r="S796" t="n">
-        <v>750</v>
+        <v>571</v>
       </c>
       <c r="T796" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="797">
@@ -64120,20 +64120,20 @@
       </c>
       <c r="L797" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M797" t="n">
         <v>150</v>
       </c>
       <c r="N797" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O797" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P797" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q797" t="inlineStr">
         <is>
@@ -64146,7 +64146,7 @@
         </is>
       </c>
       <c r="S797" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T797" t="n">
         <v>16</v>
@@ -64200,24 +64200,24 @@
       </c>
       <c r="L798" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M798" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N798" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O798" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P798" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="Q798" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R798" t="inlineStr">
@@ -64226,7 +64226,7 @@
         </is>
       </c>
       <c r="S798" t="n">
-        <v>469</v>
+        <v>1000</v>
       </c>
       <c r="T798" t="n">
         <v>16</v>
@@ -64275,29 +64275,29 @@
       </c>
       <c r="K799" t="inlineStr">
         <is>
-          <t>Garcica</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L799" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M799" t="n">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="N799" t="n">
-        <v>350000</v>
+        <v>12000</v>
       </c>
       <c r="O799" t="n">
-        <v>350000</v>
+        <v>12000</v>
       </c>
       <c r="P799" t="n">
-        <v>350000</v>
+        <v>12000</v>
       </c>
       <c r="Q799" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R799" t="inlineStr">
@@ -64306,10 +64306,10 @@
         </is>
       </c>
       <c r="S799" t="n">
-        <v>833</v>
+        <v>750</v>
       </c>
       <c r="T799" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="800">
@@ -64355,29 +64355,29 @@
       </c>
       <c r="K800" t="inlineStr">
         <is>
-          <t>Garcica</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L800" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M800" t="n">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="N800" t="n">
-        <v>300000</v>
+        <v>10000</v>
       </c>
       <c r="O800" t="n">
-        <v>300000</v>
+        <v>10000</v>
       </c>
       <c r="P800" t="n">
-        <v>300000</v>
+        <v>10000</v>
       </c>
       <c r="Q800" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R800" t="inlineStr">
@@ -64386,10 +64386,10 @@
         </is>
       </c>
       <c r="S800" t="n">
-        <v>714</v>
+        <v>625</v>
       </c>
       <c r="T800" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="801">
@@ -64435,29 +64435,29 @@
       </c>
       <c r="K801" t="inlineStr">
         <is>
-          <t>Magique</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L801" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M801" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="N801" t="n">
-        <v>280000</v>
+        <v>7000</v>
       </c>
       <c r="O801" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="P801" t="n">
-        <v>280000</v>
+        <v>7500</v>
       </c>
       <c r="Q801" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R801" t="inlineStr">
@@ -64466,10 +64466,10 @@
         </is>
       </c>
       <c r="S801" t="n">
-        <v>667</v>
+        <v>469</v>
       </c>
       <c r="T801" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="802">
@@ -64515,25 +64515,25 @@
       </c>
       <c r="K802" t="inlineStr">
         <is>
-          <t>Magique</t>
+          <t>Garcica</t>
         </is>
       </c>
       <c r="L802" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M802" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N802" t="n">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="O802" t="n">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="P802" t="n">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="Q802" t="inlineStr">
         <is>
@@ -64546,7 +64546,7 @@
         </is>
       </c>
       <c r="S802" t="n">
-        <v>595</v>
+        <v>833</v>
       </c>
       <c r="T802" t="n">
         <v>420</v>
@@ -64595,7 +64595,7 @@
       </c>
       <c r="K803" t="inlineStr">
         <is>
-          <t>Red Diamond</t>
+          <t>Garcica</t>
         </is>
       </c>
       <c r="L803" t="inlineStr">
@@ -64607,13 +64607,13 @@
         <v>18</v>
       </c>
       <c r="N803" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="O803" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="P803" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="Q803" t="inlineStr">
         <is>
@@ -64626,7 +64626,7 @@
         </is>
       </c>
       <c r="S803" t="n">
-        <v>548</v>
+        <v>714</v>
       </c>
       <c r="T803" t="n">
         <v>420</v>
@@ -64675,7 +64675,7 @@
       </c>
       <c r="K804" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Magique</t>
         </is>
       </c>
       <c r="L804" t="inlineStr">
@@ -64684,16 +64684,16 @@
         </is>
       </c>
       <c r="M804" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N804" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="O804" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="P804" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="Q804" t="inlineStr">
         <is>
@@ -64706,7 +64706,7 @@
         </is>
       </c>
       <c r="S804" t="n">
-        <v>524</v>
+        <v>667</v>
       </c>
       <c r="T804" t="n">
         <v>420</v>
@@ -64755,29 +64755,29 @@
       </c>
       <c r="K805" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Magique</t>
         </is>
       </c>
       <c r="L805" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M805" t="n">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="N805" t="n">
-        <v>14000</v>
+        <v>250000</v>
       </c>
       <c r="O805" t="n">
-        <v>14000</v>
+        <v>250000</v>
       </c>
       <c r="P805" t="n">
-        <v>14000</v>
+        <v>250000</v>
       </c>
       <c r="Q805" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R805" t="inlineStr">
@@ -64786,10 +64786,10 @@
         </is>
       </c>
       <c r="S805" t="n">
-        <v>875</v>
+        <v>595</v>
       </c>
       <c r="T805" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="806">
@@ -64835,29 +64835,29 @@
       </c>
       <c r="K806" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Red Diamond</t>
         </is>
       </c>
       <c r="L806" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M806" t="n">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="N806" t="n">
-        <v>16000</v>
+        <v>230000</v>
       </c>
       <c r="O806" t="n">
-        <v>16000</v>
+        <v>230000</v>
       </c>
       <c r="P806" t="n">
-        <v>16000</v>
+        <v>230000</v>
       </c>
       <c r="Q806" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R806" t="inlineStr">
@@ -64866,10 +64866,10 @@
         </is>
       </c>
       <c r="S806" t="n">
-        <v>1000</v>
+        <v>548</v>
       </c>
       <c r="T806" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="807">
@@ -64920,20 +64920,20 @@
       </c>
       <c r="L807" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M807" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N807" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="O807" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P807" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="Q807" t="inlineStr">
         <is>
@@ -64946,7 +64946,7 @@
         </is>
       </c>
       <c r="S807" t="n">
-        <v>476</v>
+        <v>524</v>
       </c>
       <c r="T807" t="n">
         <v>420</v>
@@ -65000,20 +65000,20 @@
       </c>
       <c r="L808" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M808" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N808" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O808" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P808" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q808" t="inlineStr">
         <is>
@@ -65026,7 +65026,7 @@
         </is>
       </c>
       <c r="S808" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T808" t="n">
         <v>16</v>
@@ -65080,24 +65080,24 @@
       </c>
       <c r="L809" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M809" t="n">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="N809" t="n">
-        <v>160000</v>
+        <v>16000</v>
       </c>
       <c r="O809" t="n">
-        <v>160000</v>
+        <v>16000</v>
       </c>
       <c r="P809" t="n">
-        <v>160000</v>
+        <v>16000</v>
       </c>
       <c r="Q809" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R809" t="inlineStr">
@@ -65106,10 +65106,10 @@
         </is>
       </c>
       <c r="S809" t="n">
-        <v>381</v>
+        <v>1000</v>
       </c>
       <c r="T809" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="810">
@@ -65160,24 +65160,24 @@
       </c>
       <c r="L810" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M810" t="n">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="N810" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="O810" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="P810" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="Q810" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R810" t="inlineStr">
@@ -65186,10 +65186,10 @@
         </is>
       </c>
       <c r="S810" t="n">
-        <v>625</v>
+        <v>476</v>
       </c>
       <c r="T810" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="811">
@@ -65240,20 +65240,20 @@
       </c>
       <c r="L811" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M811" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N811" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O811" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P811" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q811" t="inlineStr">
         <is>
@@ -65266,7 +65266,7 @@
         </is>
       </c>
       <c r="S811" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T811" t="n">
         <v>16</v>
@@ -65287,7 +65287,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E812" t="n">
         <v>13</v>
@@ -65315,25 +65315,25 @@
       </c>
       <c r="K812" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L812" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M812" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N812" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="O812" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="P812" t="n">
-        <v>270000</v>
+        <v>160000</v>
       </c>
       <c r="Q812" t="inlineStr">
         <is>
@@ -65346,7 +65346,7 @@
         </is>
       </c>
       <c r="S812" t="n">
-        <v>643</v>
+        <v>381</v>
       </c>
       <c r="T812" t="n">
         <v>420</v>
@@ -65367,7 +65367,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E813" t="n">
         <v>13</v>
@@ -65395,29 +65395,29 @@
       </c>
       <c r="K813" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L813" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M813" t="n">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="N813" t="n">
-        <v>230000</v>
+        <v>10000</v>
       </c>
       <c r="O813" t="n">
-        <v>230000</v>
+        <v>10000</v>
       </c>
       <c r="P813" t="n">
-        <v>230000</v>
+        <v>10000</v>
       </c>
       <c r="Q813" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R813" t="inlineStr">
@@ -65426,10 +65426,10 @@
         </is>
       </c>
       <c r="S813" t="n">
-        <v>548</v>
+        <v>625</v>
       </c>
       <c r="T813" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="814">
@@ -65447,7 +65447,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E814" t="n">
         <v>13</v>
@@ -65475,29 +65475,29 @@
       </c>
       <c r="K814" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L814" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M814" t="n">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="N814" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="O814" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="P814" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="Q814" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R814" t="inlineStr">
@@ -65506,10 +65506,10 @@
         </is>
       </c>
       <c r="S814" t="n">
-        <v>429</v>
+        <v>500</v>
       </c>
       <c r="T814" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="815">
@@ -65555,25 +65555,25 @@
       </c>
       <c r="K815" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L815" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M815" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N815" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O815" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="P815" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="Q815" t="inlineStr">
         <is>
@@ -65586,7 +65586,7 @@
         </is>
       </c>
       <c r="S815" t="n">
-        <v>619</v>
+        <v>643</v>
       </c>
       <c r="T815" t="n">
         <v>420</v>
@@ -65635,16 +65635,16 @@
       </c>
       <c r="K816" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L816" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M816" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N816" t="n">
         <v>230000</v>
@@ -65687,7 +65687,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44201</v>
+        <v>44271</v>
       </c>
       <c r="E817" t="n">
         <v>13</v>
@@ -65715,29 +65715,29 @@
       </c>
       <c r="K817" t="inlineStr">
         <is>
-          <t>Artic Sprite</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L817" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M817" t="n">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="N817" t="n">
-        <v>13000</v>
+        <v>180000</v>
       </c>
       <c r="O817" t="n">
-        <v>13000</v>
+        <v>180000</v>
       </c>
       <c r="P817" t="n">
-        <v>13000</v>
+        <v>180000</v>
       </c>
       <c r="Q817" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R817" t="inlineStr">
@@ -65746,10 +65746,10 @@
         </is>
       </c>
       <c r="S817" t="n">
-        <v>812</v>
+        <v>429</v>
       </c>
       <c r="T817" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="818">
@@ -65767,7 +65767,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44201</v>
+        <v>44271</v>
       </c>
       <c r="E818" t="n">
         <v>13</v>
@@ -65795,7 +65795,7 @@
       </c>
       <c r="K818" t="inlineStr">
         <is>
-          <t>Artic Sprite</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L818" t="inlineStr">
@@ -65804,20 +65804,20 @@
         </is>
       </c>
       <c r="M818" t="n">
-        <v>250</v>
+        <v>13</v>
       </c>
       <c r="N818" t="n">
-        <v>11000</v>
+        <v>260000</v>
       </c>
       <c r="O818" t="n">
-        <v>11000</v>
+        <v>260000</v>
       </c>
       <c r="P818" t="n">
-        <v>11000</v>
+        <v>260000</v>
       </c>
       <c r="Q818" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R818" t="inlineStr">
@@ -65826,10 +65826,10 @@
         </is>
       </c>
       <c r="S818" t="n">
-        <v>688</v>
+        <v>619</v>
       </c>
       <c r="T818" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="819">
@@ -65847,7 +65847,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44201</v>
+        <v>44271</v>
       </c>
       <c r="E819" t="n">
         <v>13</v>
@@ -65875,7 +65875,7 @@
       </c>
       <c r="K819" t="inlineStr">
         <is>
-          <t>Artic Sprite</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L819" t="inlineStr">
@@ -65884,20 +65884,20 @@
         </is>
       </c>
       <c r="M819" t="n">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="N819" t="n">
-        <v>9000</v>
+        <v>230000</v>
       </c>
       <c r="O819" t="n">
-        <v>9000</v>
+        <v>230000</v>
       </c>
       <c r="P819" t="n">
-        <v>9000</v>
+        <v>230000</v>
       </c>
       <c r="Q819" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R819" t="inlineStr">
@@ -65906,10 +65906,10 @@
         </is>
       </c>
       <c r="S819" t="n">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="T819" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="820">
@@ -65955,7 +65955,7 @@
       </c>
       <c r="K820" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>Artic Sprite</t>
         </is>
       </c>
       <c r="L820" t="inlineStr">
@@ -65964,20 +65964,20 @@
         </is>
       </c>
       <c r="M820" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N820" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O820" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P820" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q820" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R820" t="inlineStr">
@@ -65986,10 +65986,10 @@
         </is>
       </c>
       <c r="S820" t="n">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="T820" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="821">
@@ -66035,29 +66035,29 @@
       </c>
       <c r="K821" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>Artic Sprite</t>
         </is>
       </c>
       <c r="L821" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M821" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N821" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O821" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P821" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q821" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R821" t="inlineStr">
@@ -66066,10 +66066,10 @@
         </is>
       </c>
       <c r="S821" t="n">
-        <v>882</v>
+        <v>688</v>
       </c>
       <c r="T821" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="822">
@@ -66115,29 +66115,29 @@
       </c>
       <c r="K822" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>Artic Sprite</t>
         </is>
       </c>
       <c r="L822" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M822" t="n">
         <v>150</v>
       </c>
       <c r="N822" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O822" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P822" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q822" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R822" t="inlineStr">
@@ -66146,10 +66146,10 @@
         </is>
       </c>
       <c r="S822" t="n">
-        <v>706</v>
+        <v>562</v>
       </c>
       <c r="T822" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="823">
@@ -66200,20 +66200,20 @@
       </c>
       <c r="L823" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M823" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N823" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O823" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P823" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q823" t="inlineStr">
         <is>
@@ -66226,7 +66226,7 @@
         </is>
       </c>
       <c r="S823" t="n">
-        <v>588</v>
+        <v>824</v>
       </c>
       <c r="T823" t="n">
         <v>17</v>
@@ -66280,24 +66280,24 @@
       </c>
       <c r="L824" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M824" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N824" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O824" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P824" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q824" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R824" t="inlineStr">
@@ -66306,10 +66306,10 @@
         </is>
       </c>
       <c r="S824" t="n">
-        <v>444</v>
+        <v>882</v>
       </c>
       <c r="T824" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="825">
@@ -66355,7 +66355,7 @@
       </c>
       <c r="K825" t="inlineStr">
         <is>
-          <t>Magique</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L825" t="inlineStr">
@@ -66364,20 +66364,20 @@
         </is>
       </c>
       <c r="M825" t="n">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="N825" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="O825" t="n">
-        <v>260000</v>
+        <v>12000</v>
       </c>
       <c r="P825" t="n">
-        <v>254615</v>
+        <v>12000</v>
       </c>
       <c r="Q825" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R825" t="inlineStr">
@@ -66386,10 +66386,10 @@
         </is>
       </c>
       <c r="S825" t="n">
-        <v>606</v>
+        <v>706</v>
       </c>
       <c r="T825" t="n">
-        <v>420</v>
+        <v>17</v>
       </c>
     </row>
     <row r="826">
@@ -66435,7 +66435,7 @@
       </c>
       <c r="K826" t="inlineStr">
         <is>
-          <t>Magique</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L826" t="inlineStr">
@@ -66444,20 +66444,20 @@
         </is>
       </c>
       <c r="M826" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="N826" t="n">
-        <v>230000</v>
+        <v>10000</v>
       </c>
       <c r="O826" t="n">
-        <v>230000</v>
+        <v>10000</v>
       </c>
       <c r="P826" t="n">
-        <v>230000</v>
+        <v>10000</v>
       </c>
       <c r="Q826" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R826" t="inlineStr">
@@ -66466,10 +66466,10 @@
         </is>
       </c>
       <c r="S826" t="n">
-        <v>548</v>
+        <v>588</v>
       </c>
       <c r="T826" t="n">
-        <v>420</v>
+        <v>17</v>
       </c>
     </row>
     <row r="827">
@@ -66515,29 +66515,29 @@
       </c>
       <c r="K827" t="inlineStr">
         <is>
-          <t>Nectar Crest</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L827" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M827" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="N827" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O827" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P827" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q827" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R827" t="inlineStr">
@@ -66546,10 +66546,10 @@
         </is>
       </c>
       <c r="S827" t="n">
-        <v>765</v>
+        <v>444</v>
       </c>
       <c r="T827" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="828">
@@ -66595,29 +66595,29 @@
       </c>
       <c r="K828" t="inlineStr">
         <is>
-          <t>Nectar Crest</t>
+          <t>Magique</t>
         </is>
       </c>
       <c r="L828" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M828" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="N828" t="n">
-        <v>15000</v>
+        <v>250000</v>
       </c>
       <c r="O828" t="n">
-        <v>15000</v>
+        <v>260000</v>
       </c>
       <c r="P828" t="n">
-        <v>15000</v>
+        <v>254615</v>
       </c>
       <c r="Q828" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R828" t="inlineStr">
@@ -66626,10 +66626,10 @@
         </is>
       </c>
       <c r="S828" t="n">
-        <v>882</v>
+        <v>606</v>
       </c>
       <c r="T828" t="n">
-        <v>17</v>
+        <v>420</v>
       </c>
     </row>
     <row r="829">
@@ -66675,25 +66675,25 @@
       </c>
       <c r="K829" t="inlineStr">
         <is>
-          <t>Nectar Crest</t>
+          <t>Magique</t>
         </is>
       </c>
       <c r="L829" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M829" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="N829" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="O829" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="P829" t="n">
-        <v>255714</v>
+        <v>230000</v>
       </c>
       <c r="Q829" t="inlineStr">
         <is>
@@ -66706,7 +66706,7 @@
         </is>
       </c>
       <c r="S829" t="n">
-        <v>609</v>
+        <v>548</v>
       </c>
       <c r="T829" t="n">
         <v>420</v>
@@ -66760,20 +66760,20 @@
       </c>
       <c r="L830" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M830" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N830" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O830" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P830" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q830" t="inlineStr">
         <is>
@@ -66786,7 +66786,7 @@
         </is>
       </c>
       <c r="S830" t="n">
-        <v>706</v>
+        <v>765</v>
       </c>
       <c r="T830" t="n">
         <v>17</v>
@@ -66840,24 +66840,24 @@
       </c>
       <c r="L831" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M831" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N831" t="n">
-        <v>220000</v>
+        <v>15000</v>
       </c>
       <c r="O831" t="n">
-        <v>220000</v>
+        <v>15000</v>
       </c>
       <c r="P831" t="n">
-        <v>220000</v>
+        <v>15000</v>
       </c>
       <c r="Q831" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R831" t="inlineStr">
@@ -66866,10 +66866,10 @@
         </is>
       </c>
       <c r="S831" t="n">
-        <v>524</v>
+        <v>882</v>
       </c>
       <c r="T831" t="n">
-        <v>420</v>
+        <v>17</v>
       </c>
     </row>
     <row r="832">
@@ -66920,24 +66920,24 @@
       </c>
       <c r="L832" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M832" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="N832" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="O832" t="n">
-        <v>10000</v>
+        <v>260000</v>
       </c>
       <c r="P832" t="n">
-        <v>10000</v>
+        <v>255714</v>
       </c>
       <c r="Q832" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R832" t="inlineStr">
@@ -66946,10 +66946,10 @@
         </is>
       </c>
       <c r="S832" t="n">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="T832" t="n">
-        <v>17</v>
+        <v>420</v>
       </c>
     </row>
     <row r="833">
@@ -67000,24 +67000,24 @@
       </c>
       <c r="L833" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M833" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="N833" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O833" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P833" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q833" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R833" t="inlineStr">
@@ -67026,10 +67026,10 @@
         </is>
       </c>
       <c r="S833" t="n">
-        <v>444</v>
+        <v>706</v>
       </c>
       <c r="T833" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="834">
@@ -67075,25 +67075,25 @@
       </c>
       <c r="K834" t="inlineStr">
         <is>
-          <t>Red Diamond</t>
+          <t>Nectar Crest</t>
         </is>
       </c>
       <c r="L834" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M834" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N834" t="n">
-        <v>320000</v>
+        <v>220000</v>
       </c>
       <c r="O834" t="n">
-        <v>320000</v>
+        <v>220000</v>
       </c>
       <c r="P834" t="n">
-        <v>320000</v>
+        <v>220000</v>
       </c>
       <c r="Q834" t="inlineStr">
         <is>
@@ -67106,7 +67106,7 @@
         </is>
       </c>
       <c r="S834" t="n">
-        <v>762</v>
+        <v>524</v>
       </c>
       <c r="T834" t="n">
         <v>420</v>
@@ -67155,29 +67155,29 @@
       </c>
       <c r="K835" t="inlineStr">
         <is>
-          <t>Red Diamond</t>
+          <t>Nectar Crest</t>
         </is>
       </c>
       <c r="L835" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M835" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="N835" t="n">
-        <v>270000</v>
+        <v>10000</v>
       </c>
       <c r="O835" t="n">
-        <v>270000</v>
+        <v>10000</v>
       </c>
       <c r="P835" t="n">
-        <v>270000</v>
+        <v>10000</v>
       </c>
       <c r="Q835" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R835" t="inlineStr">
@@ -67186,10 +67186,10 @@
         </is>
       </c>
       <c r="S835" t="n">
-        <v>643</v>
+        <v>588</v>
       </c>
       <c r="T835" t="n">
-        <v>420</v>
+        <v>17</v>
       </c>
     </row>
     <row r="836">
@@ -67235,29 +67235,29 @@
       </c>
       <c r="K836" t="inlineStr">
         <is>
-          <t>Red Diamond</t>
+          <t>Nectar Crest</t>
         </is>
       </c>
       <c r="L836" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M836" t="n">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="N836" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O836" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P836" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q836" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R836" t="inlineStr">
@@ -67266,10 +67266,10 @@
         </is>
       </c>
       <c r="S836" t="n">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="T836" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="837">
@@ -67320,20 +67320,20 @@
       </c>
       <c r="L837" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M837" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N837" t="n">
-        <v>220000</v>
+        <v>320000</v>
       </c>
       <c r="O837" t="n">
-        <v>220000</v>
+        <v>320000</v>
       </c>
       <c r="P837" t="n">
-        <v>220000</v>
+        <v>320000</v>
       </c>
       <c r="Q837" t="inlineStr">
         <is>
@@ -67346,7 +67346,7 @@
         </is>
       </c>
       <c r="S837" t="n">
-        <v>524</v>
+        <v>762</v>
       </c>
       <c r="T837" t="n">
         <v>420</v>
@@ -67395,25 +67395,25 @@
       </c>
       <c r="K838" t="inlineStr">
         <is>
-          <t>Red Glen</t>
+          <t>Red Diamond</t>
         </is>
       </c>
       <c r="L838" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M838" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N838" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="O838" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P838" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="Q838" t="inlineStr">
         <is>
@@ -67426,7 +67426,7 @@
         </is>
       </c>
       <c r="S838" t="n">
-        <v>714</v>
+        <v>643</v>
       </c>
       <c r="T838" t="n">
         <v>420</v>
@@ -67475,7 +67475,7 @@
       </c>
       <c r="K839" t="inlineStr">
         <is>
-          <t>Red Glen</t>
+          <t>Red Diamond</t>
         </is>
       </c>
       <c r="L839" t="inlineStr">
@@ -67484,20 +67484,20 @@
         </is>
       </c>
       <c r="M839" t="n">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="N839" t="n">
-        <v>280000</v>
+        <v>12000</v>
       </c>
       <c r="O839" t="n">
-        <v>280000</v>
+        <v>12000</v>
       </c>
       <c r="P839" t="n">
-        <v>280000</v>
+        <v>12000</v>
       </c>
       <c r="Q839" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R839" t="inlineStr">
@@ -67506,10 +67506,10 @@
         </is>
       </c>
       <c r="S839" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T839" t="n">
-        <v>420</v>
+        <v>15</v>
       </c>
     </row>
     <row r="840">
@@ -67555,25 +67555,25 @@
       </c>
       <c r="K840" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Red Diamond</t>
         </is>
       </c>
       <c r="L840" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M840" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N840" t="n">
         <v>220000</v>
       </c>
       <c r="O840" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="P840" t="n">
-        <v>224167</v>
+        <v>220000</v>
       </c>
       <c r="Q840" t="inlineStr">
         <is>
@@ -67586,7 +67586,7 @@
         </is>
       </c>
       <c r="S840" t="n">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="T840" t="n">
         <v>420</v>
@@ -67635,40 +67635,280 @@
       </c>
       <c r="K841" t="inlineStr">
         <is>
+          <t>Red Glen</t>
+        </is>
+      </c>
+      <c r="L841" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M841" t="n">
+        <v>12</v>
+      </c>
+      <c r="N841" t="n">
+        <v>300000</v>
+      </c>
+      <c r="O841" t="n">
+        <v>300000</v>
+      </c>
+      <c r="P841" t="n">
+        <v>300000</v>
+      </c>
+      <c r="Q841" t="inlineStr">
+        <is>
+          <t>$/bins (420 kilos)</t>
+        </is>
+      </c>
+      <c r="R841" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S841" t="n">
+        <v>714</v>
+      </c>
+      <c r="T841" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>6</v>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D842" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E842" t="n">
+        <v>13</v>
+      </c>
+      <c r="F842" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G842" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H842" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I842" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J842" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>Red Glen</t>
+        </is>
+      </c>
+      <c r="L842" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M842" t="n">
+        <v>14</v>
+      </c>
+      <c r="N842" t="n">
+        <v>280000</v>
+      </c>
+      <c r="O842" t="n">
+        <v>280000</v>
+      </c>
+      <c r="P842" t="n">
+        <v>280000</v>
+      </c>
+      <c r="Q842" t="inlineStr">
+        <is>
+          <t>$/bins (420 kilos)</t>
+        </is>
+      </c>
+      <c r="R842" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S842" t="n">
+        <v>667</v>
+      </c>
+      <c r="T842" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>6</v>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D843" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E843" t="n">
+        <v>13</v>
+      </c>
+      <c r="F843" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G843" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H843" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I843" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J843" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K843" t="inlineStr">
+        <is>
           <t>Super Queen</t>
         </is>
       </c>
-      <c r="L841" t="inlineStr">
+      <c r="L843" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M843" t="n">
+        <v>24</v>
+      </c>
+      <c r="N843" t="n">
+        <v>220000</v>
+      </c>
+      <c r="O843" t="n">
+        <v>230000</v>
+      </c>
+      <c r="P843" t="n">
+        <v>224167</v>
+      </c>
+      <c r="Q843" t="inlineStr">
+        <is>
+          <t>$/bins (420 kilos)</t>
+        </is>
+      </c>
+      <c r="R843" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S843" t="n">
+        <v>534</v>
+      </c>
+      <c r="T843" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>6</v>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D844" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E844" t="n">
+        <v>13</v>
+      </c>
+      <c r="F844" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G844" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H844" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I844" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J844" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>Super Queen</t>
+        </is>
+      </c>
+      <c r="L844" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M841" t="n">
+      <c r="M844" t="n">
         <v>10</v>
       </c>
-      <c r="N841" t="n">
+      <c r="N844" t="n">
         <v>180000</v>
       </c>
-      <c r="O841" t="n">
+      <c r="O844" t="n">
         <v>180000</v>
       </c>
-      <c r="P841" t="n">
+      <c r="P844" t="n">
         <v>180000</v>
       </c>
-      <c r="Q841" t="inlineStr">
+      <c r="Q844" t="inlineStr">
         <is>
           <t>$/bins (420 kilos)</t>
         </is>
       </c>
-      <c r="R841" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S841" t="n">
+      <c r="R844" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S844" t="n">
         <v>429</v>
       </c>
-      <c r="T841" t="n">
+      <c r="T844" t="n">
         <v>420</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Nectarín.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Nectarín.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T917"/>
+  <dimension ref="A1:T924"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59287,7 +59287,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44278</v>
+        <v>44543</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -59315,25 +59315,25 @@
       </c>
       <c r="K737" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>Artic Star</t>
         </is>
       </c>
       <c r="L737" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M737" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N737" t="n">
-        <v>240000</v>
+        <v>380000</v>
       </c>
       <c r="O737" t="n">
-        <v>240000</v>
+        <v>380000</v>
       </c>
       <c r="P737" t="n">
-        <v>240000</v>
+        <v>380000</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
@@ -59346,7 +59346,7 @@
         </is>
       </c>
       <c r="S737" t="n">
-        <v>571</v>
+        <v>905</v>
       </c>
       <c r="T737" t="n">
         <v>420</v>
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44278</v>
+        <v>44543</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -59395,25 +59395,25 @@
       </c>
       <c r="K738" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>Artic Star</t>
         </is>
       </c>
       <c r="L738" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M738" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N738" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="O738" t="n">
-        <v>200000</v>
+        <v>350000</v>
       </c>
       <c r="P738" t="n">
-        <v>200000</v>
+        <v>341000</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
@@ -59426,7 +59426,7 @@
         </is>
       </c>
       <c r="S738" t="n">
-        <v>476</v>
+        <v>812</v>
       </c>
       <c r="T738" t="n">
         <v>420</v>
@@ -59447,7 +59447,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44281</v>
+        <v>44543</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -59475,25 +59475,25 @@
       </c>
       <c r="K739" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Star</t>
         </is>
       </c>
       <c r="L739" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M739" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N739" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="O739" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="P739" t="n">
-        <v>250000</v>
+        <v>302500</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
@@ -59506,7 +59506,7 @@
         </is>
       </c>
       <c r="S739" t="n">
-        <v>595</v>
+        <v>720</v>
       </c>
       <c r="T739" t="n">
         <v>420</v>
@@ -59527,7 +59527,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44281</v>
+        <v>44543</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -59555,25 +59555,25 @@
       </c>
       <c r="K740" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L740" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M740" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N740" t="n">
-        <v>220000</v>
+        <v>450000</v>
       </c>
       <c r="O740" t="n">
-        <v>220000</v>
+        <v>450000</v>
       </c>
       <c r="P740" t="n">
-        <v>220000</v>
+        <v>450000</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
@@ -59586,7 +59586,7 @@
         </is>
       </c>
       <c r="S740" t="n">
-        <v>524</v>
+        <v>1071</v>
       </c>
       <c r="T740" t="n">
         <v>420</v>
@@ -59607,7 +59607,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -59635,7 +59635,7 @@
       </c>
       <c r="K741" t="inlineStr">
         <is>
-          <t>Artic Sprite</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L741" t="inlineStr">
@@ -59644,16 +59644,16 @@
         </is>
       </c>
       <c r="M741" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N741" t="n">
-        <v>250000</v>
+        <v>400000</v>
       </c>
       <c r="O741" t="n">
-        <v>250000</v>
+        <v>400000</v>
       </c>
       <c r="P741" t="n">
-        <v>250000</v>
+        <v>400000</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
@@ -59666,7 +59666,7 @@
         </is>
       </c>
       <c r="S741" t="n">
-        <v>595</v>
+        <v>952</v>
       </c>
       <c r="T741" t="n">
         <v>420</v>
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -59715,25 +59715,25 @@
       </c>
       <c r="K742" t="inlineStr">
         <is>
-          <t>Red Diamond</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M742" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N742" t="n">
-        <v>450000</v>
+        <v>350000</v>
       </c>
       <c r="O742" t="n">
-        <v>450000</v>
+        <v>350000</v>
       </c>
       <c r="P742" t="n">
-        <v>450000</v>
+        <v>350000</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
@@ -59746,7 +59746,7 @@
         </is>
       </c>
       <c r="S742" t="n">
-        <v>1071</v>
+        <v>833</v>
       </c>
       <c r="T742" t="n">
         <v>420</v>
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -59795,7 +59795,7 @@
       </c>
       <c r="K743" t="inlineStr">
         <is>
-          <t>Red Diamond</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L743" t="inlineStr">
@@ -59804,16 +59804,16 @@
         </is>
       </c>
       <c r="M743" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="N743" t="n">
-        <v>400000</v>
+        <v>280000</v>
       </c>
       <c r="O743" t="n">
-        <v>400000</v>
+        <v>280000</v>
       </c>
       <c r="P743" t="n">
-        <v>400000</v>
+        <v>280000</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
@@ -59826,7 +59826,7 @@
         </is>
       </c>
       <c r="S743" t="n">
-        <v>952</v>
+        <v>667</v>
       </c>
       <c r="T743" t="n">
         <v>420</v>
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -59875,25 +59875,25 @@
       </c>
       <c r="K744" t="inlineStr">
         <is>
-          <t>Red Diamond</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L744" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M744" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="N744" t="n">
-        <v>350000</v>
+        <v>240000</v>
       </c>
       <c r="O744" t="n">
-        <v>350000</v>
+        <v>240000</v>
       </c>
       <c r="P744" t="n">
-        <v>350000</v>
+        <v>240000</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
@@ -59906,7 +59906,7 @@
         </is>
       </c>
       <c r="S744" t="n">
-        <v>833</v>
+        <v>571</v>
       </c>
       <c r="T744" t="n">
         <v>420</v>
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -59955,25 +59955,25 @@
       </c>
       <c r="K745" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L745" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M745" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N745" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="O745" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="P745" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
@@ -59986,7 +59986,7 @@
         </is>
       </c>
       <c r="S745" t="n">
-        <v>714</v>
+        <v>476</v>
       </c>
       <c r="T745" t="n">
         <v>420</v>
@@ -60007,7 +60007,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -60035,7 +60035,7 @@
       </c>
       <c r="K746" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L746" t="inlineStr">
@@ -60044,16 +60044,16 @@
         </is>
       </c>
       <c r="M746" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N746" t="n">
         <v>250000</v>
       </c>
       <c r="O746" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="P746" t="n">
-        <v>254667</v>
+        <v>250000</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
@@ -60066,7 +60066,7 @@
         </is>
       </c>
       <c r="S746" t="n">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="T746" t="n">
         <v>420</v>
@@ -60087,7 +60087,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -60115,7 +60115,7 @@
       </c>
       <c r="K747" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L747" t="inlineStr">
@@ -60124,7 +60124,7 @@
         </is>
       </c>
       <c r="M747" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N747" t="n">
         <v>220000</v>
@@ -60167,7 +60167,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -60195,7 +60195,7 @@
       </c>
       <c r="K748" t="inlineStr">
         <is>
-          <t>Artic Pride</t>
+          <t>Artic Sprite</t>
         </is>
       </c>
       <c r="L748" t="inlineStr">
@@ -60204,16 +60204,16 @@
         </is>
       </c>
       <c r="M748" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N748" t="n">
-        <v>440000</v>
+        <v>250000</v>
       </c>
       <c r="O748" t="n">
-        <v>450000</v>
+        <v>250000</v>
       </c>
       <c r="P748" t="n">
-        <v>445000</v>
+        <v>250000</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
@@ -60222,11 +60222,11 @@
       </c>
       <c r="R748" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S748" t="n">
-        <v>1060</v>
+        <v>595</v>
       </c>
       <c r="T748" t="n">
         <v>420</v>
@@ -60247,7 +60247,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -60275,25 +60275,25 @@
       </c>
       <c r="K749" t="inlineStr">
         <is>
-          <t>Artic Pride</t>
+          <t>Red Diamond</t>
         </is>
       </c>
       <c r="L749" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M749" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N749" t="n">
-        <v>370000</v>
+        <v>450000</v>
       </c>
       <c r="O749" t="n">
-        <v>370000</v>
+        <v>450000</v>
       </c>
       <c r="P749" t="n">
-        <v>370000</v>
+        <v>450000</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
@@ -60302,11 +60302,11 @@
       </c>
       <c r="R749" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S749" t="n">
-        <v>881</v>
+        <v>1071</v>
       </c>
       <c r="T749" t="n">
         <v>420</v>
@@ -60327,7 +60327,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -60355,7 +60355,7 @@
       </c>
       <c r="K750" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>Red Diamond</t>
         </is>
       </c>
       <c r="L750" t="inlineStr">
@@ -60364,16 +60364,16 @@
         </is>
       </c>
       <c r="M750" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N750" t="n">
-        <v>500000</v>
+        <v>400000</v>
       </c>
       <c r="O750" t="n">
-        <v>510000</v>
+        <v>400000</v>
       </c>
       <c r="P750" t="n">
-        <v>505000</v>
+        <v>400000</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
@@ -60382,11 +60382,11 @@
       </c>
       <c r="R750" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S750" t="n">
-        <v>1202</v>
+        <v>952</v>
       </c>
       <c r="T750" t="n">
         <v>420</v>
@@ -60407,7 +60407,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44238</v>
+        <v>44187</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -60435,25 +60435,25 @@
       </c>
       <c r="K751" t="inlineStr">
         <is>
-          <t>Artic Sprite</t>
+          <t>Red Diamond</t>
         </is>
       </c>
       <c r="L751" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M751" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N751" t="n">
-        <v>280000</v>
+        <v>350000</v>
       </c>
       <c r="O751" t="n">
-        <v>280000</v>
+        <v>350000</v>
       </c>
       <c r="P751" t="n">
-        <v>280000</v>
+        <v>350000</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
@@ -60466,7 +60466,7 @@
         </is>
       </c>
       <c r="S751" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="T751" t="n">
         <v>420</v>
@@ -60487,7 +60487,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44238</v>
+        <v>44187</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -60515,25 +60515,25 @@
       </c>
       <c r="K752" t="inlineStr">
         <is>
-          <t>Artic Sprite</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L752" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M752" t="n">
         <v>18</v>
       </c>
       <c r="N752" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="O752" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="P752" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
@@ -60546,7 +60546,7 @@
         </is>
       </c>
       <c r="S752" t="n">
-        <v>595</v>
+        <v>714</v>
       </c>
       <c r="T752" t="n">
         <v>420</v>
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44238</v>
+        <v>44187</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -60595,25 +60595,25 @@
       </c>
       <c r="K753" t="inlineStr">
         <is>
-          <t>Artic Sprite</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L753" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M753" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N753" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O753" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P753" t="n">
-        <v>200000</v>
+        <v>254667</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
@@ -60626,7 +60626,7 @@
         </is>
       </c>
       <c r="S753" t="n">
-        <v>476</v>
+        <v>606</v>
       </c>
       <c r="T753" t="n">
         <v>420</v>
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44238</v>
+        <v>44187</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -60675,12 +60675,12 @@
       </c>
       <c r="K754" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L754" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M754" t="n">
@@ -60702,7 +60702,7 @@
       </c>
       <c r="R754" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S754" t="n">
@@ -60727,7 +60727,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -60755,7 +60755,7 @@
       </c>
       <c r="K755" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Pride</t>
         </is>
       </c>
       <c r="L755" t="inlineStr">
@@ -60764,16 +60764,16 @@
         </is>
       </c>
       <c r="M755" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N755" t="n">
-        <v>200000</v>
+        <v>440000</v>
       </c>
       <c r="O755" t="n">
-        <v>200000</v>
+        <v>450000</v>
       </c>
       <c r="P755" t="n">
-        <v>200000</v>
+        <v>445000</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
@@ -60786,7 +60786,7 @@
         </is>
       </c>
       <c r="S755" t="n">
-        <v>476</v>
+        <v>1060</v>
       </c>
       <c r="T755" t="n">
         <v>420</v>
@@ -60807,7 +60807,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -60835,7 +60835,7 @@
       </c>
       <c r="K756" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Pride</t>
         </is>
       </c>
       <c r="L756" t="inlineStr">
@@ -60844,16 +60844,16 @@
         </is>
       </c>
       <c r="M756" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="N756" t="n">
-        <v>160000</v>
+        <v>370000</v>
       </c>
       <c r="O756" t="n">
-        <v>160000</v>
+        <v>370000</v>
       </c>
       <c r="P756" t="n">
-        <v>160000</v>
+        <v>370000</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
@@ -60866,7 +60866,7 @@
         </is>
       </c>
       <c r="S756" t="n">
-        <v>381</v>
+        <v>881</v>
       </c>
       <c r="T756" t="n">
         <v>420</v>
@@ -60887,7 +60887,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -60915,7 +60915,7 @@
       </c>
       <c r="K757" t="inlineStr">
         <is>
-          <t>Venus</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L757" t="inlineStr">
@@ -60924,16 +60924,16 @@
         </is>
       </c>
       <c r="M757" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N757" t="n">
-        <v>220000</v>
+        <v>500000</v>
       </c>
       <c r="O757" t="n">
-        <v>220000</v>
+        <v>510000</v>
       </c>
       <c r="P757" t="n">
-        <v>220000</v>
+        <v>505000</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
@@ -60942,11 +60942,11 @@
       </c>
       <c r="R757" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S757" t="n">
-        <v>524</v>
+        <v>1202</v>
       </c>
       <c r="T757" t="n">
         <v>420</v>
@@ -60995,25 +60995,25 @@
       </c>
       <c r="K758" t="inlineStr">
         <is>
-          <t>Venus</t>
+          <t>Artic Sprite</t>
         </is>
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M758" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N758" t="n">
-        <v>180000</v>
+        <v>280000</v>
       </c>
       <c r="O758" t="n">
-        <v>180000</v>
+        <v>280000</v>
       </c>
       <c r="P758" t="n">
-        <v>180000</v>
+        <v>280000</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
@@ -61026,7 +61026,7 @@
         </is>
       </c>
       <c r="S758" t="n">
-        <v>429</v>
+        <v>667</v>
       </c>
       <c r="T758" t="n">
         <v>420</v>
@@ -61047,7 +61047,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E759" t="n">
         <v>13</v>
@@ -61075,29 +61075,29 @@
       </c>
       <c r="K759" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Sprite</t>
         </is>
       </c>
       <c r="L759" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M759" t="n">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="N759" t="n">
-        <v>14000</v>
+        <v>250000</v>
       </c>
       <c r="O759" t="n">
-        <v>14000</v>
+        <v>250000</v>
       </c>
       <c r="P759" t="n">
-        <v>14000</v>
+        <v>250000</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R759" t="inlineStr">
@@ -61106,10 +61106,10 @@
         </is>
       </c>
       <c r="S759" t="n">
-        <v>933</v>
+        <v>595</v>
       </c>
       <c r="T759" t="n">
-        <v>15</v>
+        <v>420</v>
       </c>
     </row>
     <row r="760">
@@ -61127,7 +61127,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E760" t="n">
         <v>13</v>
@@ -61155,25 +61155,25 @@
       </c>
       <c r="K760" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Sprite</t>
         </is>
       </c>
       <c r="L760" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M760" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N760" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="O760" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="P760" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
@@ -61186,7 +61186,7 @@
         </is>
       </c>
       <c r="S760" t="n">
-        <v>643</v>
+        <v>476</v>
       </c>
       <c r="T760" t="n">
         <v>420</v>
@@ -61207,7 +61207,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E761" t="n">
         <v>13</v>
@@ -61240,36 +61240,36 @@
       </c>
       <c r="L761" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M761" t="n">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="N761" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="O761" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="P761" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R761" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S761" t="n">
-        <v>800</v>
+        <v>524</v>
       </c>
       <c r="T761" t="n">
-        <v>15</v>
+        <v>420</v>
       </c>
     </row>
     <row r="762">
@@ -61287,7 +61287,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E762" t="n">
         <v>13</v>
@@ -61327,13 +61327,13 @@
         <v>16</v>
       </c>
       <c r="N762" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="O762" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P762" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
@@ -61342,11 +61342,11 @@
       </c>
       <c r="R762" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S762" t="n">
-        <v>571</v>
+        <v>476</v>
       </c>
       <c r="T762" t="n">
         <v>420</v>
@@ -61367,7 +61367,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E763" t="n">
         <v>13</v>
@@ -61404,32 +61404,32 @@
         </is>
       </c>
       <c r="M763" t="n">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="N763" t="n">
-        <v>10000</v>
+        <v>160000</v>
       </c>
       <c r="O763" t="n">
-        <v>10000</v>
+        <v>160000</v>
       </c>
       <c r="P763" t="n">
-        <v>10000</v>
+        <v>160000</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R763" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S763" t="n">
-        <v>667</v>
+        <v>381</v>
       </c>
       <c r="T763" t="n">
-        <v>15</v>
+        <v>420</v>
       </c>
     </row>
     <row r="764">
@@ -61447,7 +61447,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E764" t="n">
         <v>13</v>
@@ -61475,25 +61475,25 @@
       </c>
       <c r="K764" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L764" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M764" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N764" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="O764" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P764" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
@@ -61506,7 +61506,7 @@
         </is>
       </c>
       <c r="S764" t="n">
-        <v>476</v>
+        <v>524</v>
       </c>
       <c r="T764" t="n">
         <v>420</v>
@@ -61527,7 +61527,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E765" t="n">
         <v>13</v>
@@ -61555,29 +61555,29 @@
       </c>
       <c r="K765" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L765" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M765" t="n">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="N765" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="O765" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="P765" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R765" t="inlineStr">
@@ -61586,10 +61586,10 @@
         </is>
       </c>
       <c r="S765" t="n">
-        <v>750</v>
+        <v>429</v>
       </c>
       <c r="T765" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="766">
@@ -61635,16 +61635,16 @@
       </c>
       <c r="K766" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L766" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M766" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N766" t="n">
         <v>14000</v>
@@ -61657,7 +61657,7 @@
       </c>
       <c r="Q766" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R766" t="inlineStr">
@@ -61666,10 +61666,10 @@
         </is>
       </c>
       <c r="S766" t="n">
-        <v>875</v>
+        <v>933</v>
       </c>
       <c r="T766" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="767">
@@ -61715,29 +61715,29 @@
       </c>
       <c r="K767" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L767" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M767" t="n">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="N767" t="n">
-        <v>10000</v>
+        <v>270000</v>
       </c>
       <c r="O767" t="n">
-        <v>10000</v>
+        <v>270000</v>
       </c>
       <c r="P767" t="n">
-        <v>10000</v>
+        <v>270000</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R767" t="inlineStr">
@@ -61746,10 +61746,10 @@
         </is>
       </c>
       <c r="S767" t="n">
-        <v>625</v>
+        <v>643</v>
       </c>
       <c r="T767" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="768">
@@ -61767,7 +61767,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E768" t="n">
         <v>13</v>
@@ -61795,41 +61795,41 @@
       </c>
       <c r="K768" t="inlineStr">
         <is>
-          <t>Artic Glo</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L768" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M768" t="n">
+        <v>240</v>
+      </c>
+      <c r="N768" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O768" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P768" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q768" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R768" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S768" t="n">
+        <v>800</v>
+      </c>
+      <c r="T768" t="n">
         <v>15</v>
-      </c>
-      <c r="N768" t="n">
-        <v>360000</v>
-      </c>
-      <c r="O768" t="n">
-        <v>360000</v>
-      </c>
-      <c r="P768" t="n">
-        <v>360000</v>
-      </c>
-      <c r="Q768" t="inlineStr">
-        <is>
-          <t>$/bins (420 kilos)</t>
-        </is>
-      </c>
-      <c r="R768" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S768" t="n">
-        <v>857</v>
-      </c>
-      <c r="T768" t="n">
-        <v>420</v>
       </c>
     </row>
     <row r="769">
@@ -61847,7 +61847,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E769" t="n">
         <v>13</v>
@@ -61875,7 +61875,7 @@
       </c>
       <c r="K769" t="inlineStr">
         <is>
-          <t>Artic Glo</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L769" t="inlineStr">
@@ -61884,16 +61884,16 @@
         </is>
       </c>
       <c r="M769" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N769" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="O769" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="P769" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
@@ -61906,7 +61906,7 @@
         </is>
       </c>
       <c r="S769" t="n">
-        <v>786</v>
+        <v>571</v>
       </c>
       <c r="T769" t="n">
         <v>420</v>
@@ -61927,7 +61927,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E770" t="n">
         <v>13</v>
@@ -61955,7 +61955,7 @@
       </c>
       <c r="K770" t="inlineStr">
         <is>
-          <t>Artic Glo</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L770" t="inlineStr">
@@ -61964,20 +61964,20 @@
         </is>
       </c>
       <c r="M770" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N770" t="n">
-        <v>280000</v>
+        <v>10000</v>
       </c>
       <c r="O770" t="n">
-        <v>280000</v>
+        <v>10000</v>
       </c>
       <c r="P770" t="n">
-        <v>280000</v>
+        <v>10000</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R770" t="inlineStr">
@@ -61989,7 +61989,7 @@
         <v>667</v>
       </c>
       <c r="T770" t="n">
-        <v>420</v>
+        <v>15</v>
       </c>
     </row>
     <row r="771">
@@ -62007,7 +62007,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E771" t="n">
         <v>13</v>
@@ -62035,25 +62035,25 @@
       </c>
       <c r="K771" t="inlineStr">
         <is>
-          <t>Early Diamond</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L771" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M771" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N771" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="O771" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="P771" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
@@ -62066,7 +62066,7 @@
         </is>
       </c>
       <c r="S771" t="n">
-        <v>762</v>
+        <v>476</v>
       </c>
       <c r="T771" t="n">
         <v>420</v>
@@ -62087,7 +62087,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E772" t="n">
         <v>13</v>
@@ -62115,7 +62115,7 @@
       </c>
       <c r="K772" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L772" t="inlineStr">
@@ -62124,20 +62124,20 @@
         </is>
       </c>
       <c r="M772" t="n">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="N772" t="n">
-        <v>350000</v>
+        <v>12000</v>
       </c>
       <c r="O772" t="n">
-        <v>350000</v>
+        <v>12000</v>
       </c>
       <c r="P772" t="n">
-        <v>350000</v>
+        <v>12000</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R772" t="inlineStr">
@@ -62146,10 +62146,10 @@
         </is>
       </c>
       <c r="S772" t="n">
-        <v>833</v>
+        <v>750</v>
       </c>
       <c r="T772" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="773">
@@ -62167,7 +62167,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E773" t="n">
         <v>13</v>
@@ -62195,41 +62195,41 @@
       </c>
       <c r="K773" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L773" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M773" t="n">
+        <v>100</v>
+      </c>
+      <c r="N773" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O773" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P773" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q773" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R773" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S773" t="n">
+        <v>875</v>
+      </c>
+      <c r="T773" t="n">
         <v>16</v>
-      </c>
-      <c r="N773" t="n">
-        <v>280000</v>
-      </c>
-      <c r="O773" t="n">
-        <v>280000</v>
-      </c>
-      <c r="P773" t="n">
-        <v>280000</v>
-      </c>
-      <c r="Q773" t="inlineStr">
-        <is>
-          <t>$/bins (420 kilos)</t>
-        </is>
-      </c>
-      <c r="R773" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="S773" t="n">
-        <v>667</v>
-      </c>
-      <c r="T773" t="n">
-        <v>420</v>
       </c>
     </row>
     <row r="774">
@@ -62247,7 +62247,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E774" t="n">
         <v>13</v>
@@ -62275,7 +62275,7 @@
       </c>
       <c r="K774" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L774" t="inlineStr">
@@ -62284,20 +62284,20 @@
         </is>
       </c>
       <c r="M774" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="N774" t="n">
-        <v>300000</v>
+        <v>10000</v>
       </c>
       <c r="O774" t="n">
-        <v>300000</v>
+        <v>10000</v>
       </c>
       <c r="P774" t="n">
-        <v>300000</v>
+        <v>10000</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R774" t="inlineStr">
@@ -62306,10 +62306,10 @@
         </is>
       </c>
       <c r="S774" t="n">
-        <v>714</v>
+        <v>625</v>
       </c>
       <c r="T774" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="775">
@@ -62355,25 +62355,25 @@
       </c>
       <c r="K775" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>Artic Glo</t>
         </is>
       </c>
       <c r="L775" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M775" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N775" t="n">
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="O775" t="n">
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="P775" t="n">
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
@@ -62382,11 +62382,11 @@
       </c>
       <c r="R775" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S775" t="n">
-        <v>571</v>
+        <v>857</v>
       </c>
       <c r="T775" t="n">
         <v>420</v>
@@ -62435,25 +62435,25 @@
       </c>
       <c r="K776" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>Artic Glo</t>
         </is>
       </c>
       <c r="L776" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M776" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N776" t="n">
-        <v>180000</v>
+        <v>330000</v>
       </c>
       <c r="O776" t="n">
-        <v>180000</v>
+        <v>330000</v>
       </c>
       <c r="P776" t="n">
-        <v>180000</v>
+        <v>330000</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
@@ -62462,11 +62462,11 @@
       </c>
       <c r="R776" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S776" t="n">
-        <v>429</v>
+        <v>786</v>
       </c>
       <c r="T776" t="n">
         <v>420</v>
@@ -62487,7 +62487,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E777" t="n">
         <v>13</v>
@@ -62515,29 +62515,29 @@
       </c>
       <c r="K777" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>Artic Glo</t>
         </is>
       </c>
       <c r="L777" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M777" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N777" t="n">
-        <v>14000</v>
+        <v>280000</v>
       </c>
       <c r="O777" t="n">
-        <v>14000</v>
+        <v>280000</v>
       </c>
       <c r="P777" t="n">
-        <v>14000</v>
+        <v>280000</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R777" t="inlineStr">
@@ -62546,10 +62546,10 @@
         </is>
       </c>
       <c r="S777" t="n">
-        <v>824</v>
+        <v>667</v>
       </c>
       <c r="T777" t="n">
-        <v>17</v>
+        <v>420</v>
       </c>
     </row>
     <row r="778">
@@ -62567,7 +62567,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E778" t="n">
         <v>13</v>
@@ -62595,29 +62595,29 @@
       </c>
       <c r="K778" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>Early Diamond</t>
         </is>
       </c>
       <c r="L778" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M778" t="n">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="N778" t="n">
-        <v>16000</v>
+        <v>320000</v>
       </c>
       <c r="O778" t="n">
-        <v>16000</v>
+        <v>320000</v>
       </c>
       <c r="P778" t="n">
-        <v>16000</v>
+        <v>320000</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R778" t="inlineStr">
@@ -62626,10 +62626,10 @@
         </is>
       </c>
       <c r="S778" t="n">
-        <v>941</v>
+        <v>762</v>
       </c>
       <c r="T778" t="n">
-        <v>17</v>
+        <v>420</v>
       </c>
     </row>
     <row r="779">
@@ -62647,7 +62647,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E779" t="n">
         <v>13</v>
@@ -62680,24 +62680,24 @@
       </c>
       <c r="L779" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M779" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N779" t="n">
-        <v>12000</v>
+        <v>350000</v>
       </c>
       <c r="O779" t="n">
-        <v>12000</v>
+        <v>350000</v>
       </c>
       <c r="P779" t="n">
-        <v>12000</v>
+        <v>350000</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R779" t="inlineStr">
@@ -62706,10 +62706,10 @@
         </is>
       </c>
       <c r="S779" t="n">
-        <v>706</v>
+        <v>833</v>
       </c>
       <c r="T779" t="n">
-        <v>17</v>
+        <v>420</v>
       </c>
     </row>
     <row r="780">
@@ -62727,7 +62727,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E780" t="n">
         <v>13</v>
@@ -62760,36 +62760,36 @@
       </c>
       <c r="L780" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M780" t="n">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="N780" t="n">
-        <v>10000</v>
+        <v>280000</v>
       </c>
       <c r="O780" t="n">
-        <v>10000</v>
+        <v>280000</v>
       </c>
       <c r="P780" t="n">
-        <v>10000</v>
+        <v>280000</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R780" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S780" t="n">
-        <v>588</v>
+        <v>667</v>
       </c>
       <c r="T780" t="n">
-        <v>17</v>
+        <v>420</v>
       </c>
     </row>
     <row r="781">
@@ -62807,7 +62807,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -62840,24 +62840,24 @@
       </c>
       <c r="L781" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M781" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N781" t="n">
-        <v>8000</v>
+        <v>300000</v>
       </c>
       <c r="O781" t="n">
-        <v>8000</v>
+        <v>300000</v>
       </c>
       <c r="P781" t="n">
-        <v>8000</v>
+        <v>300000</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R781" t="inlineStr">
@@ -62866,10 +62866,10 @@
         </is>
       </c>
       <c r="S781" t="n">
-        <v>444</v>
+        <v>714</v>
       </c>
       <c r="T781" t="n">
-        <v>18</v>
+        <v>420</v>
       </c>
     </row>
     <row r="782">
@@ -62887,7 +62887,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E782" t="n">
         <v>13</v>
@@ -62915,41 +62915,41 @@
       </c>
       <c r="K782" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L782" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M782" t="n">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="N782" t="n">
-        <v>14000</v>
+        <v>240000</v>
       </c>
       <c r="O782" t="n">
-        <v>14000</v>
+        <v>240000</v>
       </c>
       <c r="P782" t="n">
-        <v>14000</v>
+        <v>240000</v>
       </c>
       <c r="Q782" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R782" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S782" t="n">
-        <v>824</v>
+        <v>571</v>
       </c>
       <c r="T782" t="n">
-        <v>17</v>
+        <v>420</v>
       </c>
     </row>
     <row r="783">
@@ -62967,7 +62967,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E783" t="n">
         <v>13</v>
@@ -62995,41 +62995,41 @@
       </c>
       <c r="K783" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L783" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M783" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="N783" t="n">
-        <v>16000</v>
+        <v>180000</v>
       </c>
       <c r="O783" t="n">
-        <v>16000</v>
+        <v>180000</v>
       </c>
       <c r="P783" t="n">
-        <v>16000</v>
+        <v>180000</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R783" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S783" t="n">
-        <v>941</v>
+        <v>429</v>
       </c>
       <c r="T783" t="n">
-        <v>17</v>
+        <v>420</v>
       </c>
     </row>
     <row r="784">
@@ -63075,25 +63075,25 @@
       </c>
       <c r="K784" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L784" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M784" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N784" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O784" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P784" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
@@ -63106,7 +63106,7 @@
         </is>
       </c>
       <c r="S784" t="n">
-        <v>706</v>
+        <v>824</v>
       </c>
       <c r="T784" t="n">
         <v>17</v>
@@ -63155,25 +63155,25 @@
       </c>
       <c r="K785" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L785" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M785" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N785" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O785" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P785" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
@@ -63186,7 +63186,7 @@
         </is>
       </c>
       <c r="S785" t="n">
-        <v>588</v>
+        <v>941</v>
       </c>
       <c r="T785" t="n">
         <v>17</v>
@@ -63235,29 +63235,29 @@
       </c>
       <c r="K786" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L786" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M786" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N786" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O786" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P786" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q786" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R786" t="inlineStr">
@@ -63266,10 +63266,10 @@
         </is>
       </c>
       <c r="S786" t="n">
-        <v>444</v>
+        <v>706</v>
       </c>
       <c r="T786" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="787">
@@ -63287,7 +63287,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E787" t="n">
         <v>13</v>
@@ -63327,17 +63327,17 @@
         <v>150</v>
       </c>
       <c r="N787" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O787" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P787" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q787" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R787" t="inlineStr">
@@ -63346,10 +63346,10 @@
         </is>
       </c>
       <c r="S787" t="n">
-        <v>875</v>
+        <v>588</v>
       </c>
       <c r="T787" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="788">
@@ -63367,7 +63367,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E788" t="n">
         <v>13</v>
@@ -63395,29 +63395,29 @@
       </c>
       <c r="K788" t="inlineStr">
         <is>
-          <t>Magique</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L788" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M788" t="n">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="N788" t="n">
-        <v>300000</v>
+        <v>8000</v>
       </c>
       <c r="O788" t="n">
-        <v>300000</v>
+        <v>8000</v>
       </c>
       <c r="P788" t="n">
-        <v>300000</v>
+        <v>8000</v>
       </c>
       <c r="Q788" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R788" t="inlineStr">
@@ -63426,10 +63426,10 @@
         </is>
       </c>
       <c r="S788" t="n">
-        <v>714</v>
+        <v>444</v>
       </c>
       <c r="T788" t="n">
-        <v>420</v>
+        <v>18</v>
       </c>
     </row>
     <row r="789">
@@ -63447,7 +63447,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E789" t="n">
         <v>13</v>
@@ -63475,29 +63475,29 @@
       </c>
       <c r="K789" t="inlineStr">
         <is>
-          <t>Magique</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L789" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M789" t="n">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="N789" t="n">
-        <v>250000</v>
+        <v>14000</v>
       </c>
       <c r="O789" t="n">
-        <v>250000</v>
+        <v>14000</v>
       </c>
       <c r="P789" t="n">
-        <v>250000</v>
+        <v>14000</v>
       </c>
       <c r="Q789" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R789" t="inlineStr">
@@ -63506,10 +63506,10 @@
         </is>
       </c>
       <c r="S789" t="n">
-        <v>595</v>
+        <v>824</v>
       </c>
       <c r="T789" t="n">
-        <v>420</v>
+        <v>17</v>
       </c>
     </row>
     <row r="790">
@@ -63527,7 +63527,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E790" t="n">
         <v>13</v>
@@ -63555,29 +63555,29 @@
       </c>
       <c r="K790" t="inlineStr">
         <is>
-          <t>Nectar Crest</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L790" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M790" t="n">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="N790" t="n">
-        <v>330000</v>
+        <v>16000</v>
       </c>
       <c r="O790" t="n">
-        <v>330000</v>
+        <v>16000</v>
       </c>
       <c r="P790" t="n">
-        <v>330000</v>
+        <v>16000</v>
       </c>
       <c r="Q790" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R790" t="inlineStr">
@@ -63586,10 +63586,10 @@
         </is>
       </c>
       <c r="S790" t="n">
-        <v>786</v>
+        <v>941</v>
       </c>
       <c r="T790" t="n">
-        <v>420</v>
+        <v>17</v>
       </c>
     </row>
     <row r="791">
@@ -63607,7 +63607,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E791" t="n">
         <v>13</v>
@@ -63635,7 +63635,7 @@
       </c>
       <c r="K791" t="inlineStr">
         <is>
-          <t>Nectar Crest</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L791" t="inlineStr">
@@ -63644,20 +63644,20 @@
         </is>
       </c>
       <c r="M791" t="n">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="N791" t="n">
-        <v>300000</v>
+        <v>12000</v>
       </c>
       <c r="O791" t="n">
-        <v>300000</v>
+        <v>12000</v>
       </c>
       <c r="P791" t="n">
-        <v>300000</v>
+        <v>12000</v>
       </c>
       <c r="Q791" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R791" t="inlineStr">
@@ -63666,10 +63666,10 @@
         </is>
       </c>
       <c r="S791" t="n">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="T791" t="n">
-        <v>420</v>
+        <v>17</v>
       </c>
     </row>
     <row r="792">
@@ -63687,7 +63687,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E792" t="n">
         <v>13</v>
@@ -63715,7 +63715,7 @@
       </c>
       <c r="K792" t="inlineStr">
         <is>
-          <t>Nectar Crest</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L792" t="inlineStr">
@@ -63724,20 +63724,20 @@
         </is>
       </c>
       <c r="M792" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="N792" t="n">
-        <v>250000</v>
+        <v>10000</v>
       </c>
       <c r="O792" t="n">
-        <v>250000</v>
+        <v>10000</v>
       </c>
       <c r="P792" t="n">
-        <v>250000</v>
+        <v>10000</v>
       </c>
       <c r="Q792" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R792" t="inlineStr">
@@ -63746,10 +63746,10 @@
         </is>
       </c>
       <c r="S792" t="n">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="T792" t="n">
-        <v>420</v>
+        <v>17</v>
       </c>
     </row>
     <row r="793">
@@ -63767,7 +63767,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E793" t="n">
         <v>13</v>
@@ -63795,29 +63795,29 @@
       </c>
       <c r="K793" t="inlineStr">
         <is>
-          <t>Red Diamond</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L793" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M793" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="N793" t="n">
-        <v>340000</v>
+        <v>8000</v>
       </c>
       <c r="O793" t="n">
-        <v>340000</v>
+        <v>8000</v>
       </c>
       <c r="P793" t="n">
-        <v>340000</v>
+        <v>8000</v>
       </c>
       <c r="Q793" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R793" t="inlineStr">
@@ -63826,10 +63826,10 @@
         </is>
       </c>
       <c r="S793" t="n">
-        <v>810</v>
+        <v>444</v>
       </c>
       <c r="T793" t="n">
-        <v>420</v>
+        <v>18</v>
       </c>
     </row>
     <row r="794">
@@ -63875,29 +63875,29 @@
       </c>
       <c r="K794" t="inlineStr">
         <is>
-          <t>Red Diamond</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L794" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M794" t="n">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="N794" t="n">
-        <v>300000</v>
+        <v>14000</v>
       </c>
       <c r="O794" t="n">
-        <v>300000</v>
+        <v>14000</v>
       </c>
       <c r="P794" t="n">
-        <v>300000</v>
+        <v>14000</v>
       </c>
       <c r="Q794" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R794" t="inlineStr">
@@ -63906,10 +63906,10 @@
         </is>
       </c>
       <c r="S794" t="n">
-        <v>714</v>
+        <v>875</v>
       </c>
       <c r="T794" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="795">
@@ -63955,25 +63955,25 @@
       </c>
       <c r="K795" t="inlineStr">
         <is>
-          <t>Red Diamond</t>
+          <t>Magique</t>
         </is>
       </c>
       <c r="L795" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M795" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N795" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="O795" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="P795" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="Q795" t="inlineStr">
         <is>
@@ -63986,7 +63986,7 @@
         </is>
       </c>
       <c r="S795" t="n">
-        <v>595</v>
+        <v>714</v>
       </c>
       <c r="T795" t="n">
         <v>420</v>
@@ -64035,29 +64035,29 @@
       </c>
       <c r="K796" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Magique</t>
         </is>
       </c>
       <c r="L796" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M796" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="N796" t="n">
-        <v>16000</v>
+        <v>250000</v>
       </c>
       <c r="O796" t="n">
-        <v>16000</v>
+        <v>250000</v>
       </c>
       <c r="P796" t="n">
-        <v>16000</v>
+        <v>250000</v>
       </c>
       <c r="Q796" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R796" t="inlineStr">
@@ -64066,10 +64066,10 @@
         </is>
       </c>
       <c r="S796" t="n">
-        <v>941</v>
+        <v>595</v>
       </c>
       <c r="T796" t="n">
-        <v>17</v>
+        <v>420</v>
       </c>
     </row>
     <row r="797">
@@ -64115,25 +64115,25 @@
       </c>
       <c r="K797" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Nectar Crest</t>
         </is>
       </c>
       <c r="L797" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M797" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="N797" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="O797" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="P797" t="n">
-        <v>269412</v>
+        <v>330000</v>
       </c>
       <c r="Q797" t="inlineStr">
         <is>
@@ -64146,7 +64146,7 @@
         </is>
       </c>
       <c r="S797" t="n">
-        <v>641</v>
+        <v>786</v>
       </c>
       <c r="T797" t="n">
         <v>420</v>
@@ -64195,7 +64195,7 @@
       </c>
       <c r="K798" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Nectar Crest</t>
         </is>
       </c>
       <c r="L798" t="inlineStr">
@@ -64204,20 +64204,20 @@
         </is>
       </c>
       <c r="M798" t="n">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="N798" t="n">
-        <v>14000</v>
+        <v>300000</v>
       </c>
       <c r="O798" t="n">
-        <v>14000</v>
+        <v>300000</v>
       </c>
       <c r="P798" t="n">
-        <v>14000</v>
+        <v>300000</v>
       </c>
       <c r="Q798" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R798" t="inlineStr">
@@ -64226,10 +64226,10 @@
         </is>
       </c>
       <c r="S798" t="n">
-        <v>824</v>
+        <v>714</v>
       </c>
       <c r="T798" t="n">
-        <v>17</v>
+        <v>420</v>
       </c>
     </row>
     <row r="799">
@@ -64275,7 +64275,7 @@
       </c>
       <c r="K799" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Nectar Crest</t>
         </is>
       </c>
       <c r="L799" t="inlineStr">
@@ -64284,16 +64284,16 @@
         </is>
       </c>
       <c r="M799" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N799" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="O799" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="P799" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="Q799" t="inlineStr">
         <is>
@@ -64306,7 +64306,7 @@
         </is>
       </c>
       <c r="S799" t="n">
-        <v>524</v>
+        <v>595</v>
       </c>
       <c r="T799" t="n">
         <v>420</v>
@@ -64355,29 +64355,29 @@
       </c>
       <c r="K800" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Red Diamond</t>
         </is>
       </c>
       <c r="L800" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M800" t="n">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="N800" t="n">
-        <v>12000</v>
+        <v>340000</v>
       </c>
       <c r="O800" t="n">
-        <v>12000</v>
+        <v>340000</v>
       </c>
       <c r="P800" t="n">
-        <v>12000</v>
+        <v>340000</v>
       </c>
       <c r="Q800" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R800" t="inlineStr">
@@ -64386,10 +64386,10 @@
         </is>
       </c>
       <c r="S800" t="n">
-        <v>706</v>
+        <v>810</v>
       </c>
       <c r="T800" t="n">
-        <v>17</v>
+        <v>420</v>
       </c>
     </row>
     <row r="801">
@@ -64407,7 +64407,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E801" t="n">
         <v>13</v>
@@ -64444,16 +64444,16 @@
         </is>
       </c>
       <c r="M801" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N801" t="n">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="O801" t="n">
-        <v>420000</v>
+        <v>300000</v>
       </c>
       <c r="P801" t="n">
-        <v>410000</v>
+        <v>300000</v>
       </c>
       <c r="Q801" t="inlineStr">
         <is>
@@ -64466,7 +64466,7 @@
         </is>
       </c>
       <c r="S801" t="n">
-        <v>976</v>
+        <v>714</v>
       </c>
       <c r="T801" t="n">
         <v>420</v>
@@ -64487,7 +64487,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E802" t="n">
         <v>13</v>
@@ -64515,29 +64515,29 @@
       </c>
       <c r="K802" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Red Diamond</t>
         </is>
       </c>
       <c r="L802" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M802" t="n">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="N802" t="n">
-        <v>14000</v>
+        <v>250000</v>
       </c>
       <c r="O802" t="n">
-        <v>14000</v>
+        <v>250000</v>
       </c>
       <c r="P802" t="n">
-        <v>14000</v>
+        <v>250000</v>
       </c>
       <c r="Q802" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R802" t="inlineStr">
@@ -64546,10 +64546,10 @@
         </is>
       </c>
       <c r="S802" t="n">
-        <v>875</v>
+        <v>595</v>
       </c>
       <c r="T802" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="803">
@@ -64567,7 +64567,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E803" t="n">
         <v>13</v>
@@ -64600,24 +64600,24 @@
       </c>
       <c r="L803" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M803" t="n">
         <v>80</v>
       </c>
       <c r="N803" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O803" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P803" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q803" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R803" t="inlineStr">
@@ -64626,10 +64626,10 @@
         </is>
       </c>
       <c r="S803" t="n">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="T803" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="804">
@@ -64647,7 +64647,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E804" t="n">
         <v>13</v>
@@ -64684,16 +64684,16 @@
         </is>
       </c>
       <c r="M804" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N804" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="O804" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="P804" t="n">
-        <v>250000</v>
+        <v>269412</v>
       </c>
       <c r="Q804" t="inlineStr">
         <is>
@@ -64706,7 +64706,7 @@
         </is>
       </c>
       <c r="S804" t="n">
-        <v>595</v>
+        <v>641</v>
       </c>
       <c r="T804" t="n">
         <v>420</v>
@@ -64727,7 +64727,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E805" t="n">
         <v>13</v>
@@ -64764,20 +64764,20 @@
         </is>
       </c>
       <c r="M805" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N805" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O805" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P805" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q805" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R805" t="inlineStr">
@@ -64786,10 +64786,10 @@
         </is>
       </c>
       <c r="S805" t="n">
-        <v>750</v>
+        <v>824</v>
       </c>
       <c r="T805" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="806">
@@ -64807,7 +64807,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E806" t="n">
         <v>13</v>
@@ -64844,16 +64844,16 @@
         </is>
       </c>
       <c r="M806" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N806" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="O806" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P806" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="Q806" t="inlineStr">
         <is>
@@ -64866,7 +64866,7 @@
         </is>
       </c>
       <c r="S806" t="n">
-        <v>476</v>
+        <v>524</v>
       </c>
       <c r="T806" t="n">
         <v>420</v>
@@ -64887,7 +64887,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E807" t="n">
         <v>13</v>
@@ -64924,20 +64924,20 @@
         </is>
       </c>
       <c r="M807" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N807" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O807" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P807" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q807" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R807" t="inlineStr">
@@ -64946,10 +64946,10 @@
         </is>
       </c>
       <c r="S807" t="n">
-        <v>625</v>
+        <v>706</v>
       </c>
       <c r="T807" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="808">
@@ -64967,7 +64967,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E808" t="n">
         <v>13</v>
@@ -64995,25 +64995,25 @@
       </c>
       <c r="K808" t="inlineStr">
         <is>
-          <t>Artic Snow</t>
+          <t>Red Diamond</t>
         </is>
       </c>
       <c r="L808" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M808" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N808" t="n">
-        <v>260000</v>
+        <v>400000</v>
       </c>
       <c r="O808" t="n">
-        <v>270000</v>
+        <v>420000</v>
       </c>
       <c r="P808" t="n">
-        <v>267059</v>
+        <v>410000</v>
       </c>
       <c r="Q808" t="inlineStr">
         <is>
@@ -65026,7 +65026,7 @@
         </is>
       </c>
       <c r="S808" t="n">
-        <v>636</v>
+        <v>976</v>
       </c>
       <c r="T808" t="n">
         <v>420</v>
@@ -65047,7 +65047,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E809" t="n">
         <v>13</v>
@@ -65075,29 +65075,29 @@
       </c>
       <c r="K809" t="inlineStr">
         <is>
-          <t>Artic Snow</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L809" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M809" t="n">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="N809" t="n">
-        <v>220000</v>
+        <v>14000</v>
       </c>
       <c r="O809" t="n">
-        <v>240000</v>
+        <v>14000</v>
       </c>
       <c r="P809" t="n">
-        <v>233438</v>
+        <v>14000</v>
       </c>
       <c r="Q809" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R809" t="inlineStr">
@@ -65106,10 +65106,10 @@
         </is>
       </c>
       <c r="S809" t="n">
-        <v>556</v>
+        <v>875</v>
       </c>
       <c r="T809" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="810">
@@ -65127,7 +65127,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E810" t="n">
         <v>13</v>
@@ -65155,29 +65155,29 @@
       </c>
       <c r="K810" t="inlineStr">
         <is>
-          <t>Artic Snow</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L810" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M810" t="n">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="N810" t="n">
-        <v>200000</v>
+        <v>15000</v>
       </c>
       <c r="O810" t="n">
-        <v>200000</v>
+        <v>15000</v>
       </c>
       <c r="P810" t="n">
-        <v>200000</v>
+        <v>15000</v>
       </c>
       <c r="Q810" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R810" t="inlineStr">
@@ -65186,10 +65186,10 @@
         </is>
       </c>
       <c r="S810" t="n">
-        <v>476</v>
+        <v>938</v>
       </c>
       <c r="T810" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="811">
@@ -65207,7 +65207,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E811" t="n">
         <v>13</v>
@@ -65235,29 +65235,29 @@
       </c>
       <c r="K811" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L811" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M811" t="n">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="N811" t="n">
-        <v>13000</v>
+        <v>240000</v>
       </c>
       <c r="O811" t="n">
-        <v>13000</v>
+        <v>260000</v>
       </c>
       <c r="P811" t="n">
-        <v>13000</v>
+        <v>250000</v>
       </c>
       <c r="Q811" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R811" t="inlineStr">
@@ -65266,10 +65266,10 @@
         </is>
       </c>
       <c r="S811" t="n">
-        <v>867</v>
+        <v>595</v>
       </c>
       <c r="T811" t="n">
-        <v>15</v>
+        <v>420</v>
       </c>
     </row>
     <row r="812">
@@ -65287,7 +65287,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E812" t="n">
         <v>13</v>
@@ -65315,25 +65315,25 @@
       </c>
       <c r="K812" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L812" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M812" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N812" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O812" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P812" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q812" t="inlineStr">
         <is>
@@ -65346,7 +65346,7 @@
         </is>
       </c>
       <c r="S812" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T812" t="n">
         <v>16</v>
@@ -65367,7 +65367,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E813" t="n">
         <v>13</v>
@@ -65395,29 +65395,29 @@
       </c>
       <c r="K813" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L813" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M813" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N813" t="n">
-        <v>15000</v>
+        <v>200000</v>
       </c>
       <c r="O813" t="n">
-        <v>15000</v>
+        <v>200000</v>
       </c>
       <c r="P813" t="n">
-        <v>15000</v>
+        <v>200000</v>
       </c>
       <c r="Q813" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R813" t="inlineStr">
@@ -65426,10 +65426,10 @@
         </is>
       </c>
       <c r="S813" t="n">
-        <v>938</v>
+        <v>476</v>
       </c>
       <c r="T813" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="814">
@@ -65447,7 +65447,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E814" t="n">
         <v>13</v>
@@ -65475,41 +65475,41 @@
       </c>
       <c r="K814" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L814" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M814" t="n">
+        <v>120</v>
+      </c>
+      <c r="N814" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O814" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P814" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q814" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R814" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S814" t="n">
+        <v>625</v>
+      </c>
+      <c r="T814" t="n">
         <v>16</v>
-      </c>
-      <c r="N814" t="n">
-        <v>200000</v>
-      </c>
-      <c r="O814" t="n">
-        <v>200000</v>
-      </c>
-      <c r="P814" t="n">
-        <v>200000</v>
-      </c>
-      <c r="Q814" t="inlineStr">
-        <is>
-          <t>$/bins (420 kilos)</t>
-        </is>
-      </c>
-      <c r="R814" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="S814" t="n">
-        <v>476</v>
-      </c>
-      <c r="T814" t="n">
-        <v>420</v>
       </c>
     </row>
     <row r="815">
@@ -65555,29 +65555,29 @@
       </c>
       <c r="K815" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Snow</t>
         </is>
       </c>
       <c r="L815" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M815" t="n">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="N815" t="n">
-        <v>12000</v>
+        <v>260000</v>
       </c>
       <c r="O815" t="n">
-        <v>12000</v>
+        <v>270000</v>
       </c>
       <c r="P815" t="n">
-        <v>12000</v>
+        <v>267059</v>
       </c>
       <c r="Q815" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R815" t="inlineStr">
@@ -65586,10 +65586,10 @@
         </is>
       </c>
       <c r="S815" t="n">
-        <v>750</v>
+        <v>636</v>
       </c>
       <c r="T815" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="816">
@@ -65635,25 +65635,25 @@
       </c>
       <c r="K816" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Snow</t>
         </is>
       </c>
       <c r="L816" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M816" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N816" t="n">
-        <v>160000</v>
+        <v>220000</v>
       </c>
       <c r="O816" t="n">
-        <v>160000</v>
+        <v>240000</v>
       </c>
       <c r="P816" t="n">
-        <v>160000</v>
+        <v>233438</v>
       </c>
       <c r="Q816" t="inlineStr">
         <is>
@@ -65662,11 +65662,11 @@
       </c>
       <c r="R816" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S816" t="n">
-        <v>381</v>
+        <v>556</v>
       </c>
       <c r="T816" t="n">
         <v>420</v>
@@ -65715,7 +65715,7 @@
       </c>
       <c r="K817" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Snow</t>
         </is>
       </c>
       <c r="L817" t="inlineStr">
@@ -65724,20 +65724,20 @@
         </is>
       </c>
       <c r="M817" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="N817" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="O817" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="P817" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="Q817" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R817" t="inlineStr">
@@ -65746,10 +65746,10 @@
         </is>
       </c>
       <c r="S817" t="n">
-        <v>625</v>
+        <v>476</v>
       </c>
       <c r="T817" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="818">
@@ -65800,36 +65800,36 @@
       </c>
       <c r="L818" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M818" t="n">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="N818" t="n">
-        <v>120000</v>
+        <v>13000</v>
       </c>
       <c r="O818" t="n">
-        <v>120000</v>
+        <v>13000</v>
       </c>
       <c r="P818" t="n">
-        <v>120000</v>
+        <v>13000</v>
       </c>
       <c r="Q818" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R818" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S818" t="n">
-        <v>286</v>
+        <v>867</v>
       </c>
       <c r="T818" t="n">
-        <v>420</v>
+        <v>15</v>
       </c>
     </row>
     <row r="819">
@@ -65875,7 +65875,7 @@
       </c>
       <c r="K819" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L819" t="inlineStr">
@@ -65884,20 +65884,20 @@
         </is>
       </c>
       <c r="M819" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="N819" t="n">
-        <v>270000</v>
+        <v>14000</v>
       </c>
       <c r="O819" t="n">
-        <v>270000</v>
+        <v>14000</v>
       </c>
       <c r="P819" t="n">
-        <v>270000</v>
+        <v>14000</v>
       </c>
       <c r="Q819" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R819" t="inlineStr">
@@ -65906,10 +65906,10 @@
         </is>
       </c>
       <c r="S819" t="n">
-        <v>643</v>
+        <v>875</v>
       </c>
       <c r="T819" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="820">
@@ -65955,25 +65955,25 @@
       </c>
       <c r="K820" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L820" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M820" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="N820" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O820" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P820" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q820" t="inlineStr">
         <is>
@@ -65986,7 +65986,7 @@
         </is>
       </c>
       <c r="S820" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T820" t="n">
         <v>16</v>
@@ -66035,41 +66035,41 @@
       </c>
       <c r="K821" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L821" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M821" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="N821" t="n">
-        <v>15000</v>
+        <v>200000</v>
       </c>
       <c r="O821" t="n">
-        <v>15000</v>
+        <v>200000</v>
       </c>
       <c r="P821" t="n">
-        <v>15000</v>
+        <v>200000</v>
       </c>
       <c r="Q821" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R821" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S821" t="n">
-        <v>938</v>
+        <v>476</v>
       </c>
       <c r="T821" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="822">
@@ -66115,7 +66115,7 @@
       </c>
       <c r="K822" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L822" t="inlineStr">
@@ -66124,20 +66124,20 @@
         </is>
       </c>
       <c r="M822" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="N822" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="O822" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="P822" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="Q822" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R822" t="inlineStr">
@@ -66146,10 +66146,10 @@
         </is>
       </c>
       <c r="S822" t="n">
-        <v>595</v>
+        <v>750</v>
       </c>
       <c r="T822" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="823">
@@ -66195,41 +66195,41 @@
       </c>
       <c r="K823" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L823" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M823" t="n">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="N823" t="n">
-        <v>12000</v>
+        <v>160000</v>
       </c>
       <c r="O823" t="n">
-        <v>12000</v>
+        <v>160000</v>
       </c>
       <c r="P823" t="n">
-        <v>12000</v>
+        <v>160000</v>
       </c>
       <c r="Q823" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R823" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S823" t="n">
-        <v>750</v>
+        <v>381</v>
       </c>
       <c r="T823" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="824">
@@ -66275,7 +66275,7 @@
       </c>
       <c r="K824" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L824" t="inlineStr">
@@ -66284,7 +66284,7 @@
         </is>
       </c>
       <c r="M824" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N824" t="n">
         <v>10000</v>
@@ -66327,7 +66327,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E825" t="n">
         <v>13</v>
@@ -66355,25 +66355,25 @@
       </c>
       <c r="K825" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L825" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M825" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N825" t="n">
-        <v>280000</v>
+        <v>120000</v>
       </c>
       <c r="O825" t="n">
-        <v>280000</v>
+        <v>120000</v>
       </c>
       <c r="P825" t="n">
-        <v>280000</v>
+        <v>120000</v>
       </c>
       <c r="Q825" t="inlineStr">
         <is>
@@ -66382,11 +66382,11 @@
       </c>
       <c r="R825" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S825" t="n">
-        <v>667</v>
+        <v>286</v>
       </c>
       <c r="T825" t="n">
         <v>420</v>
@@ -66407,7 +66407,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E826" t="n">
         <v>13</v>
@@ -66444,20 +66444,20 @@
         </is>
       </c>
       <c r="M826" t="n">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="N826" t="n">
-        <v>15000</v>
+        <v>270000</v>
       </c>
       <c r="O826" t="n">
-        <v>15000</v>
+        <v>270000</v>
       </c>
       <c r="P826" t="n">
-        <v>15000</v>
+        <v>270000</v>
       </c>
       <c r="Q826" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R826" t="inlineStr">
@@ -66466,10 +66466,10 @@
         </is>
       </c>
       <c r="S826" t="n">
-        <v>833</v>
+        <v>643</v>
       </c>
       <c r="T826" t="n">
-        <v>18</v>
+        <v>420</v>
       </c>
     </row>
     <row r="827">
@@ -66487,7 +66487,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E827" t="n">
         <v>13</v>
@@ -66520,24 +66520,24 @@
       </c>
       <c r="L827" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M827" t="n">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="N827" t="n">
-        <v>260000</v>
+        <v>14000</v>
       </c>
       <c r="O827" t="n">
-        <v>260000</v>
+        <v>14000</v>
       </c>
       <c r="P827" t="n">
-        <v>260000</v>
+        <v>14000</v>
       </c>
       <c r="Q827" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R827" t="inlineStr">
@@ -66546,10 +66546,10 @@
         </is>
       </c>
       <c r="S827" t="n">
-        <v>619</v>
+        <v>875</v>
       </c>
       <c r="T827" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="828">
@@ -66567,7 +66567,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E828" t="n">
         <v>13</v>
@@ -66600,24 +66600,24 @@
       </c>
       <c r="L828" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M828" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N828" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O828" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P828" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q828" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R828" t="inlineStr">
@@ -66626,10 +66626,10 @@
         </is>
       </c>
       <c r="S828" t="n">
-        <v>722</v>
+        <v>938</v>
       </c>
       <c r="T828" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="829">
@@ -66647,7 +66647,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E829" t="n">
         <v>13</v>
@@ -66680,20 +66680,20 @@
       </c>
       <c r="L829" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M829" t="n">
         <v>15</v>
       </c>
       <c r="N829" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="O829" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="P829" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="Q829" t="inlineStr">
         <is>
@@ -66706,7 +66706,7 @@
         </is>
       </c>
       <c r="S829" t="n">
-        <v>524</v>
+        <v>595</v>
       </c>
       <c r="T829" t="n">
         <v>420</v>
@@ -66727,7 +66727,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E830" t="n">
         <v>13</v>
@@ -66760,24 +66760,24 @@
       </c>
       <c r="L830" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M830" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N830" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O830" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P830" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q830" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R830" t="inlineStr">
@@ -66786,10 +66786,10 @@
         </is>
       </c>
       <c r="S830" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T830" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="831">
@@ -66807,7 +66807,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E831" t="n">
         <v>13</v>
@@ -66835,25 +66835,25 @@
       </c>
       <c r="K831" t="inlineStr">
         <is>
-          <t>Nectar Crest</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L831" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M831" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="N831" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O831" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P831" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q831" t="inlineStr">
         <is>
@@ -66866,7 +66866,7 @@
         </is>
       </c>
       <c r="S831" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T831" t="n">
         <v>16</v>
@@ -66915,29 +66915,29 @@
       </c>
       <c r="K832" t="inlineStr">
         <is>
-          <t>Nectar Crest</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L832" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M832" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N832" t="n">
-        <v>14000</v>
+        <v>280000</v>
       </c>
       <c r="O832" t="n">
-        <v>14000</v>
+        <v>280000</v>
       </c>
       <c r="P832" t="n">
-        <v>14000</v>
+        <v>280000</v>
       </c>
       <c r="Q832" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R832" t="inlineStr">
@@ -66946,10 +66946,10 @@
         </is>
       </c>
       <c r="S832" t="n">
-        <v>875</v>
+        <v>667</v>
       </c>
       <c r="T832" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="833">
@@ -66995,29 +66995,29 @@
       </c>
       <c r="K833" t="inlineStr">
         <is>
-          <t>Nectar Crest</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L833" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M833" t="n">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="N833" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O833" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P833" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q833" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R833" t="inlineStr">
@@ -67026,10 +67026,10 @@
         </is>
       </c>
       <c r="S833" t="n">
-        <v>625</v>
+        <v>833</v>
       </c>
       <c r="T833" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="834">
@@ -67075,29 +67075,29 @@
       </c>
       <c r="K834" t="inlineStr">
         <is>
-          <t>Nectar Crest</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L834" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M834" t="n">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="N834" t="n">
-        <v>8000</v>
+        <v>260000</v>
       </c>
       <c r="O834" t="n">
-        <v>8000</v>
+        <v>260000</v>
       </c>
       <c r="P834" t="n">
-        <v>8000</v>
+        <v>260000</v>
       </c>
       <c r="Q834" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R834" t="inlineStr">
@@ -67106,10 +67106,10 @@
         </is>
       </c>
       <c r="S834" t="n">
-        <v>500</v>
+        <v>619</v>
       </c>
       <c r="T834" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="835">
@@ -67155,29 +67155,29 @@
       </c>
       <c r="K835" t="inlineStr">
         <is>
-          <t>Venus</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L835" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M835" t="n">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="N835" t="n">
-        <v>280000</v>
+        <v>13000</v>
       </c>
       <c r="O835" t="n">
-        <v>280000</v>
+        <v>13000</v>
       </c>
       <c r="P835" t="n">
-        <v>280000</v>
+        <v>13000</v>
       </c>
       <c r="Q835" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R835" t="inlineStr">
@@ -67186,10 +67186,10 @@
         </is>
       </c>
       <c r="S835" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T835" t="n">
-        <v>420</v>
+        <v>18</v>
       </c>
     </row>
     <row r="836">
@@ -67235,29 +67235,29 @@
       </c>
       <c r="K836" t="inlineStr">
         <is>
-          <t>Venus</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L836" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M836" t="n">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="N836" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="O836" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="P836" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="Q836" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R836" t="inlineStr">
@@ -67266,10 +67266,10 @@
         </is>
       </c>
       <c r="S836" t="n">
-        <v>750</v>
+        <v>524</v>
       </c>
       <c r="T836" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="837">
@@ -67315,29 +67315,29 @@
       </c>
       <c r="K837" t="inlineStr">
         <is>
-          <t>Venus</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L837" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M837" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N837" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O837" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P837" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q837" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R837" t="inlineStr">
@@ -67346,10 +67346,10 @@
         </is>
       </c>
       <c r="S837" t="n">
-        <v>875</v>
+        <v>500</v>
       </c>
       <c r="T837" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="838">
@@ -67395,29 +67395,29 @@
       </c>
       <c r="K838" t="inlineStr">
         <is>
-          <t>Venus</t>
+          <t>Nectar Crest</t>
         </is>
       </c>
       <c r="L838" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M838" t="n">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="N838" t="n">
-        <v>240000</v>
+        <v>12000</v>
       </c>
       <c r="O838" t="n">
-        <v>240000</v>
+        <v>12000</v>
       </c>
       <c r="P838" t="n">
-        <v>240000</v>
+        <v>12000</v>
       </c>
       <c r="Q838" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R838" t="inlineStr">
@@ -67426,10 +67426,10 @@
         </is>
       </c>
       <c r="S838" t="n">
-        <v>571</v>
+        <v>750</v>
       </c>
       <c r="T838" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="839">
@@ -67475,25 +67475,25 @@
       </c>
       <c r="K839" t="inlineStr">
         <is>
-          <t>Venus</t>
+          <t>Nectar Crest</t>
         </is>
       </c>
       <c r="L839" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M839" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N839" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O839" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P839" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q839" t="inlineStr">
         <is>
@@ -67506,7 +67506,7 @@
         </is>
       </c>
       <c r="S839" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T839" t="n">
         <v>16</v>
@@ -67555,29 +67555,29 @@
       </c>
       <c r="K840" t="inlineStr">
         <is>
-          <t>Venus</t>
+          <t>Nectar Crest</t>
         </is>
       </c>
       <c r="L840" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M840" t="n">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="N840" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="O840" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="P840" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="Q840" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R840" t="inlineStr">
@@ -67586,10 +67586,10 @@
         </is>
       </c>
       <c r="S840" t="n">
-        <v>429</v>
+        <v>625</v>
       </c>
       <c r="T840" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="841">
@@ -67635,7 +67635,7 @@
       </c>
       <c r="K841" t="inlineStr">
         <is>
-          <t>Venus</t>
+          <t>Nectar Crest</t>
         </is>
       </c>
       <c r="L841" t="inlineStr">
@@ -67644,7 +67644,7 @@
         </is>
       </c>
       <c r="M841" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="N841" t="n">
         <v>8000</v>
@@ -67720,24 +67720,24 @@
       </c>
       <c r="L842" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M842" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="N842" t="n">
-        <v>6000</v>
+        <v>280000</v>
       </c>
       <c r="O842" t="n">
-        <v>7000</v>
+        <v>280000</v>
       </c>
       <c r="P842" t="n">
-        <v>6500</v>
+        <v>280000</v>
       </c>
       <c r="Q842" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R842" t="inlineStr">
@@ -67746,10 +67746,10 @@
         </is>
       </c>
       <c r="S842" t="n">
-        <v>406</v>
+        <v>667</v>
       </c>
       <c r="T842" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="843">
@@ -67767,7 +67767,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E843" t="n">
         <v>13</v>
@@ -67795,29 +67795,29 @@
       </c>
       <c r="K843" t="inlineStr">
         <is>
-          <t>Artic Snow</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L843" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M843" t="n">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="N843" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="O843" t="n">
-        <v>260000</v>
+        <v>12000</v>
       </c>
       <c r="P843" t="n">
-        <v>255000</v>
+        <v>12000</v>
       </c>
       <c r="Q843" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R843" t="inlineStr">
@@ -67826,10 +67826,10 @@
         </is>
       </c>
       <c r="S843" t="n">
-        <v>607</v>
+        <v>750</v>
       </c>
       <c r="T843" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="844">
@@ -67847,7 +67847,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E844" t="n">
         <v>13</v>
@@ -67875,29 +67875,29 @@
       </c>
       <c r="K844" t="inlineStr">
         <is>
-          <t>Artic Snow</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L844" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M844" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="N844" t="n">
-        <v>220000</v>
+        <v>14000</v>
       </c>
       <c r="O844" t="n">
-        <v>220000</v>
+        <v>14000</v>
       </c>
       <c r="P844" t="n">
-        <v>220000</v>
+        <v>14000</v>
       </c>
       <c r="Q844" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R844" t="inlineStr">
@@ -67906,10 +67906,10 @@
         </is>
       </c>
       <c r="S844" t="n">
-        <v>524</v>
+        <v>875</v>
       </c>
       <c r="T844" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="845">
@@ -67927,7 +67927,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E845" t="n">
         <v>13</v>
@@ -67955,29 +67955,29 @@
       </c>
       <c r="K845" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L845" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M845" t="n">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="N845" t="n">
-        <v>16000</v>
+        <v>240000</v>
       </c>
       <c r="O845" t="n">
-        <v>16000</v>
+        <v>240000</v>
       </c>
       <c r="P845" t="n">
-        <v>16000</v>
+        <v>240000</v>
       </c>
       <c r="Q845" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R845" t="inlineStr">
@@ -67986,10 +67986,10 @@
         </is>
       </c>
       <c r="S845" t="n">
-        <v>1067</v>
+        <v>571</v>
       </c>
       <c r="T845" t="n">
-        <v>15</v>
+        <v>420</v>
       </c>
     </row>
     <row r="846">
@@ -68007,7 +68007,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E846" t="n">
         <v>13</v>
@@ -68035,7 +68035,7 @@
       </c>
       <c r="K846" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L846" t="inlineStr">
@@ -68044,20 +68044,20 @@
         </is>
       </c>
       <c r="M846" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N846" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O846" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P846" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q846" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R846" t="inlineStr">
@@ -68066,10 +68066,10 @@
         </is>
       </c>
       <c r="S846" t="n">
-        <v>933</v>
+        <v>625</v>
       </c>
       <c r="T846" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="847">
@@ -68087,7 +68087,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E847" t="n">
         <v>13</v>
@@ -68115,25 +68115,25 @@
       </c>
       <c r="K847" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L847" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M847" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N847" t="n">
-        <v>240000</v>
+        <v>180000</v>
       </c>
       <c r="O847" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="P847" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="Q847" t="inlineStr">
         <is>
@@ -68146,7 +68146,7 @@
         </is>
       </c>
       <c r="S847" t="n">
-        <v>595</v>
+        <v>429</v>
       </c>
       <c r="T847" t="n">
         <v>420</v>
@@ -68167,7 +68167,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E848" t="n">
         <v>13</v>
@@ -68195,7 +68195,7 @@
       </c>
       <c r="K848" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L848" t="inlineStr">
@@ -68204,20 +68204,20 @@
         </is>
       </c>
       <c r="M848" t="n">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="N848" t="n">
-        <v>210000</v>
+        <v>8000</v>
       </c>
       <c r="O848" t="n">
-        <v>210000</v>
+        <v>8000</v>
       </c>
       <c r="P848" t="n">
-        <v>210000</v>
+        <v>8000</v>
       </c>
       <c r="Q848" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R848" t="inlineStr">
@@ -68229,7 +68229,7 @@
         <v>500</v>
       </c>
       <c r="T848" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="849">
@@ -68247,7 +68247,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E849" t="n">
         <v>13</v>
@@ -68275,29 +68275,29 @@
       </c>
       <c r="K849" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L849" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M849" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N849" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="O849" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="P849" t="n">
-        <v>17000</v>
+        <v>6500</v>
       </c>
       <c r="Q849" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R849" t="inlineStr">
@@ -68306,10 +68306,10 @@
         </is>
       </c>
       <c r="S849" t="n">
-        <v>944</v>
+        <v>406</v>
       </c>
       <c r="T849" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="850">
@@ -68355,7 +68355,7 @@
       </c>
       <c r="K850" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>Artic Snow</t>
         </is>
       </c>
       <c r="L850" t="inlineStr">
@@ -68364,20 +68364,20 @@
         </is>
       </c>
       <c r="M850" t="n">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="N850" t="n">
-        <v>15000</v>
+        <v>250000</v>
       </c>
       <c r="O850" t="n">
-        <v>15000</v>
+        <v>260000</v>
       </c>
       <c r="P850" t="n">
-        <v>15000</v>
+        <v>255000</v>
       </c>
       <c r="Q850" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R850" t="inlineStr">
@@ -68386,10 +68386,10 @@
         </is>
       </c>
       <c r="S850" t="n">
-        <v>833</v>
+        <v>607</v>
       </c>
       <c r="T850" t="n">
-        <v>18</v>
+        <v>420</v>
       </c>
     </row>
     <row r="851">
@@ -68407,7 +68407,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E851" t="n">
         <v>13</v>
@@ -68435,29 +68435,29 @@
       </c>
       <c r="K851" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>Artic Snow</t>
         </is>
       </c>
       <c r="L851" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M851" t="n">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="N851" t="n">
-        <v>14000</v>
+        <v>220000</v>
       </c>
       <c r="O851" t="n">
-        <v>14000</v>
+        <v>220000</v>
       </c>
       <c r="P851" t="n">
-        <v>14000</v>
+        <v>220000</v>
       </c>
       <c r="Q851" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R851" t="inlineStr">
@@ -68466,10 +68466,10 @@
         </is>
       </c>
       <c r="S851" t="n">
-        <v>824</v>
+        <v>524</v>
       </c>
       <c r="T851" t="n">
-        <v>17</v>
+        <v>420</v>
       </c>
     </row>
     <row r="852">
@@ -68487,7 +68487,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E852" t="n">
         <v>13</v>
@@ -68515,29 +68515,29 @@
       </c>
       <c r="K852" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L852" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M852" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N852" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O852" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P852" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q852" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R852" t="inlineStr">
@@ -68546,10 +68546,10 @@
         </is>
       </c>
       <c r="S852" t="n">
-        <v>882</v>
+        <v>1067</v>
       </c>
       <c r="T852" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="853">
@@ -68567,7 +68567,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E853" t="n">
         <v>13</v>
@@ -68595,7 +68595,7 @@
       </c>
       <c r="K853" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L853" t="inlineStr">
@@ -68604,20 +68604,20 @@
         </is>
       </c>
       <c r="M853" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N853" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O853" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P853" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q853" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R853" t="inlineStr">
@@ -68626,10 +68626,10 @@
         </is>
       </c>
       <c r="S853" t="n">
-        <v>706</v>
+        <v>933</v>
       </c>
       <c r="T853" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="854">
@@ -68647,7 +68647,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E854" t="n">
         <v>13</v>
@@ -68675,29 +68675,29 @@
       </c>
       <c r="K854" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L854" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M854" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="N854" t="n">
-        <v>10000</v>
+        <v>240000</v>
       </c>
       <c r="O854" t="n">
-        <v>10000</v>
+        <v>260000</v>
       </c>
       <c r="P854" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="Q854" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R854" t="inlineStr">
@@ -68706,10 +68706,10 @@
         </is>
       </c>
       <c r="S854" t="n">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="T854" t="n">
-        <v>17</v>
+        <v>420</v>
       </c>
     </row>
     <row r="855">
@@ -68727,7 +68727,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E855" t="n">
         <v>13</v>
@@ -68755,29 +68755,29 @@
       </c>
       <c r="K855" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L855" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M855" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="N855" t="n">
-        <v>8000</v>
+        <v>210000</v>
       </c>
       <c r="O855" t="n">
-        <v>8000</v>
+        <v>210000</v>
       </c>
       <c r="P855" t="n">
-        <v>8000</v>
+        <v>210000</v>
       </c>
       <c r="Q855" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R855" t="inlineStr">
@@ -68789,7 +68789,7 @@
         <v>500</v>
       </c>
       <c r="T855" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="856">
@@ -68807,7 +68807,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E856" t="n">
         <v>13</v>
@@ -68835,41 +68835,41 @@
       </c>
       <c r="K856" t="inlineStr">
         <is>
-          <t>Nectar Crest</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L856" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M856" t="n">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="N856" t="n">
-        <v>230000</v>
+        <v>17000</v>
       </c>
       <c r="O856" t="n">
-        <v>230000</v>
+        <v>17000</v>
       </c>
       <c r="P856" t="n">
-        <v>230000</v>
+        <v>17000</v>
       </c>
       <c r="Q856" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R856" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S856" t="n">
-        <v>548</v>
+        <v>944</v>
       </c>
       <c r="T856" t="n">
-        <v>420</v>
+        <v>18</v>
       </c>
     </row>
     <row r="857">
@@ -68887,7 +68887,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E857" t="n">
         <v>13</v>
@@ -68915,41 +68915,41 @@
       </c>
       <c r="K857" t="inlineStr">
         <is>
-          <t>Nectar Crest</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L857" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M857" t="n">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="N857" t="n">
-        <v>200000</v>
+        <v>15000</v>
       </c>
       <c r="O857" t="n">
-        <v>200000</v>
+        <v>15000</v>
       </c>
       <c r="P857" t="n">
-        <v>200000</v>
+        <v>15000</v>
       </c>
       <c r="Q857" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R857" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S857" t="n">
-        <v>476</v>
+        <v>833</v>
       </c>
       <c r="T857" t="n">
-        <v>420</v>
+        <v>18</v>
       </c>
     </row>
     <row r="858">
@@ -68995,41 +68995,41 @@
       </c>
       <c r="K858" t="inlineStr">
         <is>
-          <t>Red Diamond</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L858" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M858" t="n">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="N858" t="n">
-        <v>280000</v>
+        <v>14000</v>
       </c>
       <c r="O858" t="n">
-        <v>280000</v>
+        <v>14000</v>
       </c>
       <c r="P858" t="n">
-        <v>280000</v>
+        <v>14000</v>
       </c>
       <c r="Q858" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R858" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S858" t="n">
-        <v>667</v>
+        <v>824</v>
       </c>
       <c r="T858" t="n">
-        <v>420</v>
+        <v>17</v>
       </c>
     </row>
     <row r="859">
@@ -69075,41 +69075,41 @@
       </c>
       <c r="K859" t="inlineStr">
         <is>
-          <t>Red Diamond</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L859" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M859" t="n">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="N859" t="n">
-        <v>240000</v>
+        <v>15000</v>
       </c>
       <c r="O859" t="n">
-        <v>240000</v>
+        <v>15000</v>
       </c>
       <c r="P859" t="n">
-        <v>240000</v>
+        <v>15000</v>
       </c>
       <c r="Q859" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R859" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S859" t="n">
-        <v>571</v>
+        <v>882</v>
       </c>
       <c r="T859" t="n">
-        <v>420</v>
+        <v>17</v>
       </c>
     </row>
     <row r="860">
@@ -69155,29 +69155,29 @@
       </c>
       <c r="K860" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L860" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M860" t="n">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="N860" t="n">
-        <v>240000</v>
+        <v>12000</v>
       </c>
       <c r="O860" t="n">
-        <v>240000</v>
+        <v>12000</v>
       </c>
       <c r="P860" t="n">
-        <v>240000</v>
+        <v>12000</v>
       </c>
       <c r="Q860" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R860" t="inlineStr">
@@ -69186,10 +69186,10 @@
         </is>
       </c>
       <c r="S860" t="n">
-        <v>571</v>
+        <v>706</v>
       </c>
       <c r="T860" t="n">
-        <v>420</v>
+        <v>17</v>
       </c>
     </row>
     <row r="861">
@@ -69235,25 +69235,25 @@
       </c>
       <c r="K861" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L861" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M861" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N861" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O861" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P861" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q861" t="inlineStr">
         <is>
@@ -69266,7 +69266,7 @@
         </is>
       </c>
       <c r="S861" t="n">
-        <v>824</v>
+        <v>588</v>
       </c>
       <c r="T861" t="n">
         <v>17</v>
@@ -69315,29 +69315,29 @@
       </c>
       <c r="K862" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L862" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M862" t="n">
         <v>150</v>
       </c>
       <c r="N862" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O862" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P862" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q862" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R862" t="inlineStr">
@@ -69346,10 +69346,10 @@
         </is>
       </c>
       <c r="S862" t="n">
-        <v>882</v>
+        <v>500</v>
       </c>
       <c r="T862" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="863">
@@ -69395,7 +69395,7 @@
       </c>
       <c r="K863" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Nectar Crest</t>
         </is>
       </c>
       <c r="L863" t="inlineStr">
@@ -69407,13 +69407,13 @@
         <v>16</v>
       </c>
       <c r="N863" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="O863" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="P863" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="Q863" t="inlineStr">
         <is>
@@ -69422,11 +69422,11 @@
       </c>
       <c r="R863" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S863" t="n">
-        <v>476</v>
+        <v>548</v>
       </c>
       <c r="T863" t="n">
         <v>420</v>
@@ -69475,41 +69475,41 @@
       </c>
       <c r="K864" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Nectar Crest</t>
         </is>
       </c>
       <c r="L864" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M864" t="n">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="N864" t="n">
-        <v>12000</v>
+        <v>200000</v>
       </c>
       <c r="O864" t="n">
-        <v>12000</v>
+        <v>200000</v>
       </c>
       <c r="P864" t="n">
-        <v>12000</v>
+        <v>200000</v>
       </c>
       <c r="Q864" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R864" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S864" t="n">
-        <v>706</v>
+        <v>476</v>
       </c>
       <c r="T864" t="n">
-        <v>17</v>
+        <v>420</v>
       </c>
     </row>
     <row r="865">
@@ -69555,25 +69555,25 @@
       </c>
       <c r="K865" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Red Diamond</t>
         </is>
       </c>
       <c r="L865" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M865" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N865" t="n">
-        <v>170000</v>
+        <v>280000</v>
       </c>
       <c r="O865" t="n">
-        <v>170000</v>
+        <v>280000</v>
       </c>
       <c r="P865" t="n">
-        <v>170000</v>
+        <v>280000</v>
       </c>
       <c r="Q865" t="inlineStr">
         <is>
@@ -69582,11 +69582,11 @@
       </c>
       <c r="R865" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S865" t="n">
-        <v>405</v>
+        <v>667</v>
       </c>
       <c r="T865" t="n">
         <v>420</v>
@@ -69635,7 +69635,7 @@
       </c>
       <c r="K866" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Red Diamond</t>
         </is>
       </c>
       <c r="L866" t="inlineStr">
@@ -69644,32 +69644,32 @@
         </is>
       </c>
       <c r="M866" t="n">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="N866" t="n">
-        <v>10000</v>
+        <v>240000</v>
       </c>
       <c r="O866" t="n">
-        <v>10000</v>
+        <v>240000</v>
       </c>
       <c r="P866" t="n">
-        <v>10000</v>
+        <v>240000</v>
       </c>
       <c r="Q866" t="inlineStr">
         <is>
-          <t>$/caja 17 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R866" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S866" t="n">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="T866" t="n">
-        <v>17</v>
+        <v>420</v>
       </c>
     </row>
     <row r="867">
@@ -69720,24 +69720,24 @@
       </c>
       <c r="L867" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M867" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="N867" t="n">
-        <v>8000</v>
+        <v>240000</v>
       </c>
       <c r="O867" t="n">
-        <v>8000</v>
+        <v>240000</v>
       </c>
       <c r="P867" t="n">
-        <v>8000</v>
+        <v>240000</v>
       </c>
       <c r="Q867" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R867" t="inlineStr">
@@ -69746,10 +69746,10 @@
         </is>
       </c>
       <c r="S867" t="n">
-        <v>500</v>
+        <v>571</v>
       </c>
       <c r="T867" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="868">
@@ -69767,7 +69767,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E868" t="n">
         <v>13</v>
@@ -69795,41 +69795,41 @@
       </c>
       <c r="K868" t="inlineStr">
         <is>
-          <t>Artic Pride</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L868" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M868" t="n">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="N868" t="n">
-        <v>400000</v>
+        <v>14000</v>
       </c>
       <c r="O868" t="n">
-        <v>420000</v>
+        <v>14000</v>
       </c>
       <c r="P868" t="n">
-        <v>410000</v>
+        <v>14000</v>
       </c>
       <c r="Q868" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R868" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S868" t="n">
-        <v>976</v>
+        <v>824</v>
       </c>
       <c r="T868" t="n">
-        <v>420</v>
+        <v>17</v>
       </c>
     </row>
     <row r="869">
@@ -69847,7 +69847,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E869" t="n">
         <v>13</v>
@@ -69875,41 +69875,41 @@
       </c>
       <c r="K869" t="inlineStr">
         <is>
-          <t>Artic Pride</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L869" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M869" t="n">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="N869" t="n">
-        <v>370000</v>
+        <v>15000</v>
       </c>
       <c r="O869" t="n">
-        <v>370000</v>
+        <v>15000</v>
       </c>
       <c r="P869" t="n">
-        <v>370000</v>
+        <v>15000</v>
       </c>
       <c r="Q869" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R869" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S869" t="n">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="T869" t="n">
-        <v>420</v>
+        <v>17</v>
       </c>
     </row>
     <row r="870">
@@ -69927,7 +69927,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E870" t="n">
         <v>13</v>
@@ -69955,25 +69955,25 @@
       </c>
       <c r="K870" t="inlineStr">
         <is>
-          <t>Artic Star</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L870" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M870" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N870" t="n">
-        <v>430000</v>
+        <v>200000</v>
       </c>
       <c r="O870" t="n">
-        <v>430000</v>
+        <v>200000</v>
       </c>
       <c r="P870" t="n">
-        <v>430000</v>
+        <v>200000</v>
       </c>
       <c r="Q870" t="inlineStr">
         <is>
@@ -69986,7 +69986,7 @@
         </is>
       </c>
       <c r="S870" t="n">
-        <v>1024</v>
+        <v>476</v>
       </c>
       <c r="T870" t="n">
         <v>420</v>
@@ -70007,7 +70007,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E871" t="n">
         <v>13</v>
@@ -70035,41 +70035,41 @@
       </c>
       <c r="K871" t="inlineStr">
         <is>
-          <t>Artic Star</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L871" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M871" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="N871" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O871" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P871" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q871" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R871" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S871" t="n">
-        <v>1000</v>
+        <v>706</v>
       </c>
       <c r="T871" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="872">
@@ -70087,7 +70087,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E872" t="n">
         <v>13</v>
@@ -70115,25 +70115,25 @@
       </c>
       <c r="K872" t="inlineStr">
         <is>
-          <t>Artic Star</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L872" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M872" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N872" t="n">
-        <v>400000</v>
+        <v>170000</v>
       </c>
       <c r="O872" t="n">
-        <v>400000</v>
+        <v>170000</v>
       </c>
       <c r="P872" t="n">
-        <v>400000</v>
+        <v>170000</v>
       </c>
       <c r="Q872" t="inlineStr">
         <is>
@@ -70146,7 +70146,7 @@
         </is>
       </c>
       <c r="S872" t="n">
-        <v>952</v>
+        <v>405</v>
       </c>
       <c r="T872" t="n">
         <v>420</v>
@@ -70167,7 +70167,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E873" t="n">
         <v>13</v>
@@ -70195,41 +70195,41 @@
       </c>
       <c r="K873" t="inlineStr">
         <is>
-          <t>Artic Star</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L873" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M873" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N873" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O873" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P873" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q873" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 17 kilos empedrada</t>
         </is>
       </c>
       <c r="R873" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S873" t="n">
-        <v>867</v>
+        <v>588</v>
       </c>
       <c r="T873" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="874">
@@ -70247,7 +70247,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E874" t="n">
         <v>13</v>
@@ -70275,29 +70275,29 @@
       </c>
       <c r="K874" t="inlineStr">
         <is>
-          <t>Artic Star</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L874" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M874" t="n">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="N874" t="n">
-        <v>37000</v>
+        <v>8000</v>
       </c>
       <c r="O874" t="n">
-        <v>37000</v>
+        <v>8000</v>
       </c>
       <c r="P874" t="n">
-        <v>37000</v>
+        <v>8000</v>
       </c>
       <c r="Q874" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R874" t="inlineStr">
@@ -70306,10 +70306,10 @@
         </is>
       </c>
       <c r="S874" t="n">
-        <v>88</v>
+        <v>500</v>
       </c>
       <c r="T874" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="875">
@@ -70355,7 +70355,7 @@
       </c>
       <c r="K875" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>Artic Pride</t>
         </is>
       </c>
       <c r="L875" t="inlineStr">
@@ -70364,16 +70364,16 @@
         </is>
       </c>
       <c r="M875" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N875" t="n">
-        <v>450000</v>
+        <v>400000</v>
       </c>
       <c r="O875" t="n">
-        <v>460000</v>
+        <v>420000</v>
       </c>
       <c r="P875" t="n">
-        <v>455000</v>
+        <v>410000</v>
       </c>
       <c r="Q875" t="inlineStr">
         <is>
@@ -70386,7 +70386,7 @@
         </is>
       </c>
       <c r="S875" t="n">
-        <v>1083</v>
+        <v>976</v>
       </c>
       <c r="T875" t="n">
         <v>420</v>
@@ -70435,7 +70435,7 @@
       </c>
       <c r="K876" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>Artic Pride</t>
         </is>
       </c>
       <c r="L876" t="inlineStr">
@@ -70444,16 +70444,16 @@
         </is>
       </c>
       <c r="M876" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N876" t="n">
-        <v>420000</v>
+        <v>370000</v>
       </c>
       <c r="O876" t="n">
-        <v>420000</v>
+        <v>370000</v>
       </c>
       <c r="P876" t="n">
-        <v>420000</v>
+        <v>370000</v>
       </c>
       <c r="Q876" t="inlineStr">
         <is>
@@ -70466,7 +70466,7 @@
         </is>
       </c>
       <c r="S876" t="n">
-        <v>1000</v>
+        <v>881</v>
       </c>
       <c r="T876" t="n">
         <v>420</v>
@@ -70487,7 +70487,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44239</v>
+        <v>44536</v>
       </c>
       <c r="E877" t="n">
         <v>13</v>
@@ -70515,25 +70515,25 @@
       </c>
       <c r="K877" t="inlineStr">
         <is>
-          <t>Artic Sprite</t>
+          <t>Artic Star</t>
         </is>
       </c>
       <c r="L877" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M877" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N877" t="n">
-        <v>240000</v>
+        <v>430000</v>
       </c>
       <c r="O877" t="n">
-        <v>240000</v>
+        <v>430000</v>
       </c>
       <c r="P877" t="n">
-        <v>240000</v>
+        <v>430000</v>
       </c>
       <c r="Q877" t="inlineStr">
         <is>
@@ -70546,7 +70546,7 @@
         </is>
       </c>
       <c r="S877" t="n">
-        <v>571</v>
+        <v>1024</v>
       </c>
       <c r="T877" t="n">
         <v>420</v>
@@ -70567,7 +70567,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44239</v>
+        <v>44536</v>
       </c>
       <c r="E878" t="n">
         <v>13</v>
@@ -70595,41 +70595,41 @@
       </c>
       <c r="K878" t="inlineStr">
         <is>
-          <t>Artic Sprite</t>
+          <t>Artic Star</t>
         </is>
       </c>
       <c r="L878" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M878" t="n">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="N878" t="n">
-        <v>200000</v>
+        <v>15000</v>
       </c>
       <c r="O878" t="n">
-        <v>200000</v>
+        <v>15000</v>
       </c>
       <c r="P878" t="n">
-        <v>200000</v>
+        <v>15000</v>
       </c>
       <c r="Q878" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R878" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S878" t="n">
-        <v>476</v>
+        <v>1000</v>
       </c>
       <c r="T878" t="n">
-        <v>420</v>
+        <v>15</v>
       </c>
     </row>
     <row r="879">
@@ -70647,7 +70647,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44239</v>
+        <v>44536</v>
       </c>
       <c r="E879" t="n">
         <v>13</v>
@@ -70675,25 +70675,25 @@
       </c>
       <c r="K879" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Star</t>
         </is>
       </c>
       <c r="L879" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M879" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N879" t="n">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="O879" t="n">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="P879" t="n">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="Q879" t="inlineStr">
         <is>
@@ -70706,7 +70706,7 @@
         </is>
       </c>
       <c r="S879" t="n">
-        <v>714</v>
+        <v>952</v>
       </c>
       <c r="T879" t="n">
         <v>420</v>
@@ -70727,7 +70727,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44239</v>
+        <v>44536</v>
       </c>
       <c r="E880" t="n">
         <v>13</v>
@@ -70755,41 +70755,41 @@
       </c>
       <c r="K880" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Star</t>
         </is>
       </c>
       <c r="L880" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M880" t="n">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="N880" t="n">
-        <v>320000</v>
+        <v>13000</v>
       </c>
       <c r="O880" t="n">
-        <v>320000</v>
+        <v>13000</v>
       </c>
       <c r="P880" t="n">
-        <v>320000</v>
+        <v>13000</v>
       </c>
       <c r="Q880" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R880" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S880" t="n">
-        <v>762</v>
+        <v>867</v>
       </c>
       <c r="T880" t="n">
-        <v>420</v>
+        <v>15</v>
       </c>
     </row>
     <row r="881">
@@ -70807,7 +70807,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44239</v>
+        <v>44536</v>
       </c>
       <c r="E881" t="n">
         <v>13</v>
@@ -70835,25 +70835,25 @@
       </c>
       <c r="K881" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Star</t>
         </is>
       </c>
       <c r="L881" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M881" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N881" t="n">
-        <v>270000</v>
+        <v>37000</v>
       </c>
       <c r="O881" t="n">
-        <v>270000</v>
+        <v>37000</v>
       </c>
       <c r="P881" t="n">
-        <v>270000</v>
+        <v>37000</v>
       </c>
       <c r="Q881" t="inlineStr">
         <is>
@@ -70866,7 +70866,7 @@
         </is>
       </c>
       <c r="S881" t="n">
-        <v>643</v>
+        <v>88</v>
       </c>
       <c r="T881" t="n">
         <v>420</v>
@@ -70887,7 +70887,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44239</v>
+        <v>44536</v>
       </c>
       <c r="E882" t="n">
         <v>13</v>
@@ -70915,7 +70915,7 @@
       </c>
       <c r="K882" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L882" t="inlineStr">
@@ -70924,16 +70924,16 @@
         </is>
       </c>
       <c r="M882" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N882" t="n">
-        <v>250000</v>
+        <v>450000</v>
       </c>
       <c r="O882" t="n">
-        <v>250000</v>
+        <v>460000</v>
       </c>
       <c r="P882" t="n">
-        <v>250000</v>
+        <v>455000</v>
       </c>
       <c r="Q882" t="inlineStr">
         <is>
@@ -70942,11 +70942,11 @@
       </c>
       <c r="R882" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S882" t="n">
-        <v>595</v>
+        <v>1083</v>
       </c>
       <c r="T882" t="n">
         <v>420</v>
@@ -70967,7 +70967,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44239</v>
+        <v>44536</v>
       </c>
       <c r="E883" t="n">
         <v>13</v>
@@ -70995,7 +70995,7 @@
       </c>
       <c r="K883" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L883" t="inlineStr">
@@ -71004,16 +71004,16 @@
         </is>
       </c>
       <c r="M883" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N883" t="n">
-        <v>220000</v>
+        <v>420000</v>
       </c>
       <c r="O883" t="n">
-        <v>220000</v>
+        <v>420000</v>
       </c>
       <c r="P883" t="n">
-        <v>220000</v>
+        <v>420000</v>
       </c>
       <c r="Q883" t="inlineStr">
         <is>
@@ -71022,11 +71022,11 @@
       </c>
       <c r="R883" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S883" t="n">
-        <v>524</v>
+        <v>1000</v>
       </c>
       <c r="T883" t="n">
         <v>420</v>
@@ -71075,41 +71075,41 @@
       </c>
       <c r="K884" t="inlineStr">
         <is>
-          <t>Venus</t>
+          <t>Artic Sprite</t>
         </is>
       </c>
       <c r="L884" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M884" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="N884" t="n">
-        <v>12000</v>
+        <v>240000</v>
       </c>
       <c r="O884" t="n">
-        <v>12000</v>
+        <v>240000</v>
       </c>
       <c r="P884" t="n">
-        <v>12000</v>
+        <v>240000</v>
       </c>
       <c r="Q884" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R884" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S884" t="n">
-        <v>750</v>
+        <v>571</v>
       </c>
       <c r="T884" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="885">
@@ -71155,41 +71155,41 @@
       </c>
       <c r="K885" t="inlineStr">
         <is>
-          <t>Venus</t>
+          <t>Artic Sprite</t>
         </is>
       </c>
       <c r="L885" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M885" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="N885" t="n">
-        <v>9000</v>
+        <v>200000</v>
       </c>
       <c r="O885" t="n">
-        <v>9000</v>
+        <v>200000</v>
       </c>
       <c r="P885" t="n">
-        <v>9000</v>
+        <v>200000</v>
       </c>
       <c r="Q885" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R885" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S885" t="n">
-        <v>562</v>
+        <v>476</v>
       </c>
       <c r="T885" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="886">
@@ -71235,41 +71235,41 @@
       </c>
       <c r="K886" t="inlineStr">
         <is>
-          <t>Venus</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L886" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M886" t="n">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="N886" t="n">
-        <v>7000</v>
+        <v>300000</v>
       </c>
       <c r="O886" t="n">
-        <v>7000</v>
+        <v>300000</v>
       </c>
       <c r="P886" t="n">
-        <v>7000</v>
+        <v>300000</v>
       </c>
       <c r="Q886" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R886" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S886" t="n">
-        <v>438</v>
+        <v>714</v>
       </c>
       <c r="T886" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="887">
@@ -71287,7 +71287,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E887" t="n">
         <v>13</v>
@@ -71315,29 +71315,29 @@
       </c>
       <c r="K887" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L887" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M887" t="n">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="N887" t="n">
-        <v>14000</v>
+        <v>320000</v>
       </c>
       <c r="O887" t="n">
-        <v>14000</v>
+        <v>320000</v>
       </c>
       <c r="P887" t="n">
-        <v>14000</v>
+        <v>320000</v>
       </c>
       <c r="Q887" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R887" t="inlineStr">
@@ -71346,10 +71346,10 @@
         </is>
       </c>
       <c r="S887" t="n">
-        <v>875</v>
+        <v>762</v>
       </c>
       <c r="T887" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="888">
@@ -71367,7 +71367,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E888" t="n">
         <v>13</v>
@@ -71395,29 +71395,29 @@
       </c>
       <c r="K888" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L888" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M888" t="n">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="N888" t="n">
-        <v>16000</v>
+        <v>270000</v>
       </c>
       <c r="O888" t="n">
-        <v>16000</v>
+        <v>270000</v>
       </c>
       <c r="P888" t="n">
-        <v>16000</v>
+        <v>270000</v>
       </c>
       <c r="Q888" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R888" t="inlineStr">
@@ -71426,10 +71426,10 @@
         </is>
       </c>
       <c r="S888" t="n">
-        <v>1000</v>
+        <v>643</v>
       </c>
       <c r="T888" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="889">
@@ -71447,7 +71447,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E889" t="n">
         <v>13</v>
@@ -71475,7 +71475,7 @@
       </c>
       <c r="K889" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L889" t="inlineStr">
@@ -71484,20 +71484,20 @@
         </is>
       </c>
       <c r="M889" t="n">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="N889" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="O889" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="P889" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="Q889" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R889" t="inlineStr">
@@ -71506,10 +71506,10 @@
         </is>
       </c>
       <c r="S889" t="n">
-        <v>750</v>
+        <v>595</v>
       </c>
       <c r="T889" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="890">
@@ -71527,7 +71527,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E890" t="n">
         <v>13</v>
@@ -71555,7 +71555,7 @@
       </c>
       <c r="K890" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L890" t="inlineStr">
@@ -71564,20 +71564,20 @@
         </is>
       </c>
       <c r="M890" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="N890" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="O890" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="P890" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="Q890" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R890" t="inlineStr">
@@ -71586,10 +71586,10 @@
         </is>
       </c>
       <c r="S890" t="n">
-        <v>625</v>
+        <v>524</v>
       </c>
       <c r="T890" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="891">
@@ -71607,7 +71607,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E891" t="n">
         <v>13</v>
@@ -71635,38 +71635,38 @@
       </c>
       <c r="K891" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L891" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M891" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N891" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O891" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P891" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="Q891" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R891" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S891" t="n">
-        <v>469</v>
+        <v>750</v>
       </c>
       <c r="T891" t="n">
         <v>16</v>
@@ -71687,7 +71687,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E892" t="n">
         <v>13</v>
@@ -71715,41 +71715,41 @@
       </c>
       <c r="K892" t="inlineStr">
         <is>
-          <t>Garcica</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L892" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M892" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="N892" t="n">
-        <v>350000</v>
+        <v>9000</v>
       </c>
       <c r="O892" t="n">
-        <v>350000</v>
+        <v>9000</v>
       </c>
       <c r="P892" t="n">
-        <v>350000</v>
+        <v>9000</v>
       </c>
       <c r="Q892" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R892" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S892" t="n">
-        <v>833</v>
+        <v>562</v>
       </c>
       <c r="T892" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="893">
@@ -71767,7 +71767,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E893" t="n">
         <v>13</v>
@@ -71795,41 +71795,41 @@
       </c>
       <c r="K893" t="inlineStr">
         <is>
-          <t>Garcica</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L893" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M893" t="n">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="N893" t="n">
-        <v>300000</v>
+        <v>7000</v>
       </c>
       <c r="O893" t="n">
-        <v>300000</v>
+        <v>7000</v>
       </c>
       <c r="P893" t="n">
-        <v>300000</v>
+        <v>7000</v>
       </c>
       <c r="Q893" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R893" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S893" t="n">
-        <v>714</v>
+        <v>438</v>
       </c>
       <c r="T893" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="894">
@@ -71875,7 +71875,7 @@
       </c>
       <c r="K894" t="inlineStr">
         <is>
-          <t>Magique</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L894" t="inlineStr">
@@ -71884,20 +71884,20 @@
         </is>
       </c>
       <c r="M894" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="N894" t="n">
-        <v>280000</v>
+        <v>14000</v>
       </c>
       <c r="O894" t="n">
-        <v>280000</v>
+        <v>14000</v>
       </c>
       <c r="P894" t="n">
-        <v>280000</v>
+        <v>14000</v>
       </c>
       <c r="Q894" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R894" t="inlineStr">
@@ -71906,10 +71906,10 @@
         </is>
       </c>
       <c r="S894" t="n">
-        <v>667</v>
+        <v>875</v>
       </c>
       <c r="T894" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="895">
@@ -71955,29 +71955,29 @@
       </c>
       <c r="K895" t="inlineStr">
         <is>
-          <t>Magique</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L895" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M895" t="n">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="N895" t="n">
-        <v>250000</v>
+        <v>16000</v>
       </c>
       <c r="O895" t="n">
-        <v>250000</v>
+        <v>16000</v>
       </c>
       <c r="P895" t="n">
-        <v>250000</v>
+        <v>16000</v>
       </c>
       <c r="Q895" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R895" t="inlineStr">
@@ -71986,10 +71986,10 @@
         </is>
       </c>
       <c r="S895" t="n">
-        <v>595</v>
+        <v>1000</v>
       </c>
       <c r="T895" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="896">
@@ -72035,7 +72035,7 @@
       </c>
       <c r="K896" t="inlineStr">
         <is>
-          <t>Red Diamond</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L896" t="inlineStr">
@@ -72044,20 +72044,20 @@
         </is>
       </c>
       <c r="M896" t="n">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="N896" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="O896" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="P896" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="Q896" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R896" t="inlineStr">
@@ -72066,10 +72066,10 @@
         </is>
       </c>
       <c r="S896" t="n">
-        <v>548</v>
+        <v>750</v>
       </c>
       <c r="T896" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="897">
@@ -72115,29 +72115,29 @@
       </c>
       <c r="K897" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L897" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M897" t="n">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="N897" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="O897" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="P897" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="Q897" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R897" t="inlineStr">
@@ -72146,10 +72146,10 @@
         </is>
       </c>
       <c r="S897" t="n">
-        <v>524</v>
+        <v>625</v>
       </c>
       <c r="T897" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="898">
@@ -72195,29 +72195,29 @@
       </c>
       <c r="K898" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L898" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M898" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N898" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O898" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P898" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="Q898" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R898" t="inlineStr">
@@ -72226,7 +72226,7 @@
         </is>
       </c>
       <c r="S898" t="n">
-        <v>875</v>
+        <v>469</v>
       </c>
       <c r="T898" t="n">
         <v>16</v>
@@ -72275,29 +72275,29 @@
       </c>
       <c r="K899" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Garcica</t>
         </is>
       </c>
       <c r="L899" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M899" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="N899" t="n">
-        <v>16000</v>
+        <v>350000</v>
       </c>
       <c r="O899" t="n">
-        <v>16000</v>
+        <v>350000</v>
       </c>
       <c r="P899" t="n">
-        <v>16000</v>
+        <v>350000</v>
       </c>
       <c r="Q899" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R899" t="inlineStr">
@@ -72306,10 +72306,10 @@
         </is>
       </c>
       <c r="S899" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T899" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="900">
@@ -72355,7 +72355,7 @@
       </c>
       <c r="K900" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Garcica</t>
         </is>
       </c>
       <c r="L900" t="inlineStr">
@@ -72364,16 +72364,16 @@
         </is>
       </c>
       <c r="M900" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N900" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="O900" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="P900" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="Q900" t="inlineStr">
         <is>
@@ -72386,7 +72386,7 @@
         </is>
       </c>
       <c r="S900" t="n">
-        <v>476</v>
+        <v>714</v>
       </c>
       <c r="T900" t="n">
         <v>420</v>
@@ -72435,29 +72435,29 @@
       </c>
       <c r="K901" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Magique</t>
         </is>
       </c>
       <c r="L901" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M901" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="N901" t="n">
-        <v>12000</v>
+        <v>280000</v>
       </c>
       <c r="O901" t="n">
-        <v>12000</v>
+        <v>280000</v>
       </c>
       <c r="P901" t="n">
-        <v>12000</v>
+        <v>280000</v>
       </c>
       <c r="Q901" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R901" t="inlineStr">
@@ -72466,10 +72466,10 @@
         </is>
       </c>
       <c r="S901" t="n">
-        <v>750</v>
+        <v>667</v>
       </c>
       <c r="T901" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="902">
@@ -72515,25 +72515,25 @@
       </c>
       <c r="K902" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Magique</t>
         </is>
       </c>
       <c r="L902" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M902" t="n">
         <v>14</v>
       </c>
       <c r="N902" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="O902" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="P902" t="n">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="Q902" t="inlineStr">
         <is>
@@ -72546,7 +72546,7 @@
         </is>
       </c>
       <c r="S902" t="n">
-        <v>381</v>
+        <v>595</v>
       </c>
       <c r="T902" t="n">
         <v>420</v>
@@ -72595,29 +72595,29 @@
       </c>
       <c r="K903" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Red Diamond</t>
         </is>
       </c>
       <c r="L903" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M903" t="n">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="N903" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="O903" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="P903" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="Q903" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R903" t="inlineStr">
@@ -72626,10 +72626,10 @@
         </is>
       </c>
       <c r="S903" t="n">
-        <v>625</v>
+        <v>548</v>
       </c>
       <c r="T903" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="904">
@@ -72680,24 +72680,24 @@
       </c>
       <c r="L904" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M904" t="n">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="N904" t="n">
-        <v>8000</v>
+        <v>220000</v>
       </c>
       <c r="O904" t="n">
-        <v>8000</v>
+        <v>220000</v>
       </c>
       <c r="P904" t="n">
-        <v>8000</v>
+        <v>220000</v>
       </c>
       <c r="Q904" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R904" t="inlineStr">
@@ -72706,10 +72706,10 @@
         </is>
       </c>
       <c r="S904" t="n">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="T904" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="905">
@@ -72727,7 +72727,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E905" t="n">
         <v>13</v>
@@ -72755,29 +72755,29 @@
       </c>
       <c r="K905" t="inlineStr">
         <is>
-          <t>Artic Pride</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L905" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M905" t="n">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="N905" t="n">
-        <v>650000</v>
+        <v>14000</v>
       </c>
       <c r="O905" t="n">
-        <v>650000</v>
+        <v>14000</v>
       </c>
       <c r="P905" t="n">
-        <v>650000</v>
+        <v>14000</v>
       </c>
       <c r="Q905" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R905" t="inlineStr">
@@ -72786,10 +72786,10 @@
         </is>
       </c>
       <c r="S905" t="n">
-        <v>1548</v>
+        <v>875</v>
       </c>
       <c r="T905" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="906">
@@ -72807,7 +72807,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E906" t="n">
         <v>13</v>
@@ -72835,29 +72835,29 @@
       </c>
       <c r="K906" t="inlineStr">
         <is>
-          <t>Artic Star</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L906" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M906" t="n">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="N906" t="n">
-        <v>430000</v>
+        <v>16000</v>
       </c>
       <c r="O906" t="n">
-        <v>430000</v>
+        <v>16000</v>
       </c>
       <c r="P906" t="n">
-        <v>430000</v>
+        <v>16000</v>
       </c>
       <c r="Q906" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R906" t="inlineStr">
@@ -72866,10 +72866,10 @@
         </is>
       </c>
       <c r="S906" t="n">
-        <v>1024</v>
+        <v>1000</v>
       </c>
       <c r="T906" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="907">
@@ -72887,7 +72887,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E907" t="n">
         <v>13</v>
@@ -72915,7 +72915,7 @@
       </c>
       <c r="K907" t="inlineStr">
         <is>
-          <t>Artic Star</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L907" t="inlineStr">
@@ -72924,16 +72924,16 @@
         </is>
       </c>
       <c r="M907" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="N907" t="n">
-        <v>380000</v>
+        <v>200000</v>
       </c>
       <c r="O907" t="n">
-        <v>380000</v>
+        <v>200000</v>
       </c>
       <c r="P907" t="n">
-        <v>380000</v>
+        <v>200000</v>
       </c>
       <c r="Q907" t="inlineStr">
         <is>
@@ -72946,7 +72946,7 @@
         </is>
       </c>
       <c r="S907" t="n">
-        <v>905</v>
+        <v>476</v>
       </c>
       <c r="T907" t="n">
         <v>420</v>
@@ -72967,7 +72967,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E908" t="n">
         <v>13</v>
@@ -72995,29 +72995,29 @@
       </c>
       <c r="K908" t="inlineStr">
         <is>
-          <t>Artic Star</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L908" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M908" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="N908" t="n">
-        <v>350000</v>
+        <v>12000</v>
       </c>
       <c r="O908" t="n">
-        <v>350000</v>
+        <v>12000</v>
       </c>
       <c r="P908" t="n">
-        <v>350000</v>
+        <v>12000</v>
       </c>
       <c r="Q908" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R908" t="inlineStr">
@@ -73026,10 +73026,10 @@
         </is>
       </c>
       <c r="S908" t="n">
-        <v>833</v>
+        <v>750</v>
       </c>
       <c r="T908" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="909">
@@ -73047,7 +73047,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E909" t="n">
         <v>13</v>
@@ -73075,29 +73075,29 @@
       </c>
       <c r="K909" t="inlineStr">
         <is>
-          <t>Artic Snow</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L909" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M909" t="n">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="N909" t="n">
-        <v>15000</v>
+        <v>160000</v>
       </c>
       <c r="O909" t="n">
-        <v>15000</v>
+        <v>160000</v>
       </c>
       <c r="P909" t="n">
-        <v>15000</v>
+        <v>160000</v>
       </c>
       <c r="Q909" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R909" t="inlineStr">
@@ -73106,10 +73106,10 @@
         </is>
       </c>
       <c r="S909" t="n">
-        <v>1000</v>
+        <v>381</v>
       </c>
       <c r="T909" t="n">
-        <v>15</v>
+        <v>420</v>
       </c>
     </row>
     <row r="910">
@@ -73127,7 +73127,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E910" t="n">
         <v>13</v>
@@ -73155,29 +73155,29 @@
       </c>
       <c r="K910" t="inlineStr">
         <is>
-          <t>Artic Snow</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L910" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M910" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N910" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O910" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P910" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q910" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R910" t="inlineStr">
@@ -73186,10 +73186,10 @@
         </is>
       </c>
       <c r="S910" t="n">
-        <v>944</v>
+        <v>625</v>
       </c>
       <c r="T910" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="911">
@@ -73207,7 +73207,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E911" t="n">
         <v>13</v>
@@ -73235,29 +73235,29 @@
       </c>
       <c r="K911" t="inlineStr">
         <is>
-          <t>Artic Snow</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L911" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M911" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N911" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O911" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P911" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q911" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R911" t="inlineStr">
@@ -73266,10 +73266,10 @@
         </is>
       </c>
       <c r="S911" t="n">
-        <v>867</v>
+        <v>500</v>
       </c>
       <c r="T911" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="912">
@@ -73287,7 +73287,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44272</v>
+        <v>44518</v>
       </c>
       <c r="E912" t="n">
         <v>13</v>
@@ -73315,7 +73315,7 @@
       </c>
       <c r="K912" t="inlineStr">
         <is>
-          <t>Artic Snow</t>
+          <t>Artic Pride</t>
         </is>
       </c>
       <c r="L912" t="inlineStr">
@@ -73324,20 +73324,20 @@
         </is>
       </c>
       <c r="M912" t="n">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="N912" t="n">
-        <v>15000</v>
+        <v>650000</v>
       </c>
       <c r="O912" t="n">
-        <v>15000</v>
+        <v>650000</v>
       </c>
       <c r="P912" t="n">
-        <v>15000</v>
+        <v>650000</v>
       </c>
       <c r="Q912" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R912" t="inlineStr">
@@ -73346,10 +73346,10 @@
         </is>
       </c>
       <c r="S912" t="n">
-        <v>833</v>
+        <v>1548</v>
       </c>
       <c r="T912" t="n">
-        <v>18</v>
+        <v>420</v>
       </c>
     </row>
     <row r="913">
@@ -73367,7 +73367,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -73395,7 +73395,7 @@
       </c>
       <c r="K913" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Star</t>
         </is>
       </c>
       <c r="L913" t="inlineStr">
@@ -73404,20 +73404,20 @@
         </is>
       </c>
       <c r="M913" t="n">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="N913" t="n">
-        <v>15000</v>
+        <v>430000</v>
       </c>
       <c r="O913" t="n">
-        <v>15000</v>
+        <v>430000</v>
       </c>
       <c r="P913" t="n">
-        <v>15000</v>
+        <v>430000</v>
       </c>
       <c r="Q913" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R913" t="inlineStr">
@@ -73426,10 +73426,10 @@
         </is>
       </c>
       <c r="S913" t="n">
-        <v>1000</v>
+        <v>1024</v>
       </c>
       <c r="T913" t="n">
-        <v>15</v>
+        <v>420</v>
       </c>
     </row>
     <row r="914">
@@ -73447,7 +73447,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -73475,25 +73475,25 @@
       </c>
       <c r="K914" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Star</t>
         </is>
       </c>
       <c r="L914" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M914" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N914" t="n">
-        <v>250000</v>
+        <v>380000</v>
       </c>
       <c r="O914" t="n">
-        <v>250000</v>
+        <v>380000</v>
       </c>
       <c r="P914" t="n">
-        <v>250000</v>
+        <v>380000</v>
       </c>
       <c r="Q914" t="inlineStr">
         <is>
@@ -73506,7 +73506,7 @@
         </is>
       </c>
       <c r="S914" t="n">
-        <v>595</v>
+        <v>905</v>
       </c>
       <c r="T914" t="n">
         <v>420</v>
@@ -73527,7 +73527,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -73555,29 +73555,29 @@
       </c>
       <c r="K915" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Star</t>
         </is>
       </c>
       <c r="L915" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M915" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="N915" t="n">
-        <v>13000</v>
+        <v>350000</v>
       </c>
       <c r="O915" t="n">
-        <v>13000</v>
+        <v>350000</v>
       </c>
       <c r="P915" t="n">
-        <v>13000</v>
+        <v>350000</v>
       </c>
       <c r="Q915" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R915" t="inlineStr">
@@ -73586,10 +73586,10 @@
         </is>
       </c>
       <c r="S915" t="n">
-        <v>867</v>
+        <v>833</v>
       </c>
       <c r="T915" t="n">
-        <v>15</v>
+        <v>420</v>
       </c>
     </row>
     <row r="916">
@@ -73635,41 +73635,41 @@
       </c>
       <c r="K916" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Snow</t>
         </is>
       </c>
       <c r="L916" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M916" t="n">
+        <v>150</v>
+      </c>
+      <c r="N916" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O916" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P916" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q916" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R916" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S916" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T916" t="n">
         <v>15</v>
-      </c>
-      <c r="N916" t="n">
-        <v>220000</v>
-      </c>
-      <c r="O916" t="n">
-        <v>220000</v>
-      </c>
-      <c r="P916" t="n">
-        <v>220000</v>
-      </c>
-      <c r="Q916" t="inlineStr">
-        <is>
-          <t>$/bins (420 kilos)</t>
-        </is>
-      </c>
-      <c r="R916" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S916" t="n">
-        <v>524</v>
-      </c>
-      <c r="T916" t="n">
-        <v>420</v>
       </c>
     </row>
     <row r="917">
@@ -73715,40 +73715,600 @@
       </c>
       <c r="K917" t="inlineStr">
         <is>
+          <t>Artic Snow</t>
+        </is>
+      </c>
+      <c r="L917" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M917" t="n">
+        <v>100</v>
+      </c>
+      <c r="N917" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O917" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P917" t="n">
+        <v>17000</v>
+      </c>
+      <c r="Q917" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R917" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S917" t="n">
+        <v>944</v>
+      </c>
+      <c r="T917" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>6</v>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D918" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E918" t="n">
+        <v>13</v>
+      </c>
+      <c r="F918" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G918" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H918" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I918" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J918" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>Artic Snow</t>
+        </is>
+      </c>
+      <c r="L918" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M918" t="n">
+        <v>150</v>
+      </c>
+      <c r="N918" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O918" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P918" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q918" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R918" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S918" t="n">
+        <v>867</v>
+      </c>
+      <c r="T918" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>6</v>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D919" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E919" t="n">
+        <v>13</v>
+      </c>
+      <c r="F919" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G919" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H919" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I919" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J919" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>Artic Snow</t>
+        </is>
+      </c>
+      <c r="L919" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M919" t="n">
+        <v>120</v>
+      </c>
+      <c r="N919" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O919" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P919" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q919" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R919" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S919" t="n">
+        <v>833</v>
+      </c>
+      <c r="T919" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>6</v>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D920" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E920" t="n">
+        <v>13</v>
+      </c>
+      <c r="F920" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G920" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H920" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I920" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J920" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K920" t="inlineStr">
+        <is>
           <t>August Red</t>
         </is>
       </c>
-      <c r="L917" t="inlineStr">
+      <c r="L920" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M920" t="n">
+        <v>180</v>
+      </c>
+      <c r="N920" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O920" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P920" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q920" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R920" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S920" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T920" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>6</v>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D921" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E921" t="n">
+        <v>13</v>
+      </c>
+      <c r="F921" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G921" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H921" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I921" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J921" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>August Red</t>
+        </is>
+      </c>
+      <c r="L921" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M921" t="n">
+        <v>8</v>
+      </c>
+      <c r="N921" t="n">
+        <v>250000</v>
+      </c>
+      <c r="O921" t="n">
+        <v>250000</v>
+      </c>
+      <c r="P921" t="n">
+        <v>250000</v>
+      </c>
+      <c r="Q921" t="inlineStr">
+        <is>
+          <t>$/bins (420 kilos)</t>
+        </is>
+      </c>
+      <c r="R921" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S921" t="n">
+        <v>595</v>
+      </c>
+      <c r="T921" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>6</v>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D922" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E922" t="n">
+        <v>13</v>
+      </c>
+      <c r="F922" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G922" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H922" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I922" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J922" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>August Red</t>
+        </is>
+      </c>
+      <c r="L922" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M922" t="n">
+        <v>150</v>
+      </c>
+      <c r="N922" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O922" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P922" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q922" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R922" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S922" t="n">
+        <v>867</v>
+      </c>
+      <c r="T922" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>6</v>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D923" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E923" t="n">
+        <v>13</v>
+      </c>
+      <c r="F923" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G923" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H923" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I923" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J923" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>August Red</t>
+        </is>
+      </c>
+      <c r="L923" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M923" t="n">
+        <v>15</v>
+      </c>
+      <c r="N923" t="n">
+        <v>220000</v>
+      </c>
+      <c r="O923" t="n">
+        <v>220000</v>
+      </c>
+      <c r="P923" t="n">
+        <v>220000</v>
+      </c>
+      <c r="Q923" t="inlineStr">
+        <is>
+          <t>$/bins (420 kilos)</t>
+        </is>
+      </c>
+      <c r="R923" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S923" t="n">
+        <v>524</v>
+      </c>
+      <c r="T923" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>6</v>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D924" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E924" t="n">
+        <v>13</v>
+      </c>
+      <c r="F924" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G924" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H924" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I924" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J924" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>August Red</t>
+        </is>
+      </c>
+      <c r="L924" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M917" t="n">
+      <c r="M924" t="n">
         <v>15</v>
       </c>
-      <c r="N917" t="n">
+      <c r="N924" t="n">
         <v>200000</v>
       </c>
-      <c r="O917" t="n">
+      <c r="O924" t="n">
         <v>200000</v>
       </c>
-      <c r="P917" t="n">
+      <c r="P924" t="n">
         <v>200000</v>
       </c>
-      <c r="Q917" t="inlineStr">
+      <c r="Q924" t="inlineStr">
         <is>
           <t>$/bins (420 kilos)</t>
         </is>
       </c>
-      <c r="R917" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S917" t="n">
+      <c r="R924" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S924" t="n">
         <v>476</v>
       </c>
-      <c r="T917" t="n">
+      <c r="T924" t="n">
         <v>420</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Nectarín.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Nectarín.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1074"/>
+  <dimension ref="A1:T1079"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83127,7 +83127,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -83155,7 +83155,7 @@
       </c>
       <c r="K1035" t="inlineStr">
         <is>
-          <t>Artic Snow</t>
+          <t>Candy White</t>
         </is>
       </c>
       <c r="L1035" t="inlineStr">
@@ -83164,20 +83164,20 @@
         </is>
       </c>
       <c r="M1035" t="n">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="N1035" t="n">
-        <v>10000</v>
+        <v>270000</v>
       </c>
       <c r="O1035" t="n">
-        <v>10000</v>
+        <v>270000</v>
       </c>
       <c r="P1035" t="n">
-        <v>10000</v>
+        <v>270000</v>
       </c>
       <c r="Q1035" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R1035" t="inlineStr">
@@ -83186,10 +83186,10 @@
         </is>
       </c>
       <c r="S1035" t="n">
-        <v>667</v>
+        <v>643</v>
       </c>
       <c r="T1035" t="n">
-        <v>15</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1036">
@@ -83207,7 +83207,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -83235,29 +83235,29 @@
       </c>
       <c r="K1036" t="inlineStr">
         <is>
-          <t>Artic Snow</t>
+          <t>Ruby Diamond</t>
         </is>
       </c>
       <c r="L1036" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1036" t="n">
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="N1036" t="n">
-        <v>9000</v>
+        <v>330000</v>
       </c>
       <c r="O1036" t="n">
-        <v>9000</v>
+        <v>330000</v>
       </c>
       <c r="P1036" t="n">
-        <v>9000</v>
+        <v>330000</v>
       </c>
       <c r="Q1036" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R1036" t="inlineStr">
@@ -83266,10 +83266,10 @@
         </is>
       </c>
       <c r="S1036" t="n">
-        <v>600</v>
+        <v>786</v>
       </c>
       <c r="T1036" t="n">
-        <v>15</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1037">
@@ -83287,7 +83287,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -83315,29 +83315,29 @@
       </c>
       <c r="K1037" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Ruby Diamond</t>
         </is>
       </c>
       <c r="L1037" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1037" t="n">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="N1037" t="n">
-        <v>14000</v>
+        <v>270000</v>
       </c>
       <c r="O1037" t="n">
-        <v>14000</v>
+        <v>270000</v>
       </c>
       <c r="P1037" t="n">
-        <v>14000</v>
+        <v>270000</v>
       </c>
       <c r="Q1037" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R1037" t="inlineStr">
@@ -83346,10 +83346,10 @@
         </is>
       </c>
       <c r="S1037" t="n">
-        <v>875</v>
+        <v>643</v>
       </c>
       <c r="T1037" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1038">
@@ -83367,7 +83367,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -83395,7 +83395,7 @@
       </c>
       <c r="K1038" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L1038" t="inlineStr">
@@ -83404,20 +83404,20 @@
         </is>
       </c>
       <c r="M1038" t="n">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="N1038" t="n">
-        <v>14000</v>
+        <v>400000</v>
       </c>
       <c r="O1038" t="n">
-        <v>14000</v>
+        <v>400000</v>
       </c>
       <c r="P1038" t="n">
-        <v>14000</v>
+        <v>400000</v>
       </c>
       <c r="Q1038" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R1038" t="inlineStr">
@@ -83426,10 +83426,10 @@
         </is>
       </c>
       <c r="S1038" t="n">
-        <v>875</v>
+        <v>952</v>
       </c>
       <c r="T1038" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1039">
@@ -83447,7 +83447,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -83475,29 +83475,29 @@
       </c>
       <c r="K1039" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L1039" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1039" t="n">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="N1039" t="n">
-        <v>15000</v>
+        <v>350000</v>
       </c>
       <c r="O1039" t="n">
-        <v>15000</v>
+        <v>360000</v>
       </c>
       <c r="P1039" t="n">
-        <v>15000</v>
+        <v>355000</v>
       </c>
       <c r="Q1039" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R1039" t="inlineStr">
@@ -83506,10 +83506,10 @@
         </is>
       </c>
       <c r="S1039" t="n">
-        <v>938</v>
+        <v>845</v>
       </c>
       <c r="T1039" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1040">
@@ -83555,7 +83555,7 @@
       </c>
       <c r="K1040" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Snow</t>
         </is>
       </c>
       <c r="L1040" t="inlineStr">
@@ -83564,20 +83564,20 @@
         </is>
       </c>
       <c r="M1040" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="N1040" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O1040" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P1040" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q1040" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1040" t="inlineStr">
@@ -83586,10 +83586,10 @@
         </is>
       </c>
       <c r="S1040" t="n">
-        <v>750</v>
+        <v>667</v>
       </c>
       <c r="T1040" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1041">
@@ -83635,7 +83635,7 @@
       </c>
       <c r="K1041" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Snow</t>
         </is>
       </c>
       <c r="L1041" t="inlineStr">
@@ -83644,20 +83644,20 @@
         </is>
       </c>
       <c r="M1041" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N1041" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O1041" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P1041" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q1041" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1041" t="inlineStr">
@@ -83666,10 +83666,10 @@
         </is>
       </c>
       <c r="S1041" t="n">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="T1041" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1042">
@@ -83715,29 +83715,29 @@
       </c>
       <c r="K1042" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L1042" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1042" t="n">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="N1042" t="n">
-        <v>220000</v>
+        <v>14000</v>
       </c>
       <c r="O1042" t="n">
-        <v>220000</v>
+        <v>14000</v>
       </c>
       <c r="P1042" t="n">
-        <v>220000</v>
+        <v>14000</v>
       </c>
       <c r="Q1042" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1042" t="inlineStr">
@@ -83746,10 +83746,10 @@
         </is>
       </c>
       <c r="S1042" t="n">
-        <v>524</v>
+        <v>875</v>
       </c>
       <c r="T1042" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1043">
@@ -83795,29 +83795,29 @@
       </c>
       <c r="K1043" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L1043" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1043" t="n">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="N1043" t="n">
-        <v>170000</v>
+        <v>14000</v>
       </c>
       <c r="O1043" t="n">
-        <v>170000</v>
+        <v>14000</v>
       </c>
       <c r="P1043" t="n">
-        <v>170000</v>
+        <v>14000</v>
       </c>
       <c r="Q1043" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R1043" t="inlineStr">
@@ -83826,10 +83826,10 @@
         </is>
       </c>
       <c r="S1043" t="n">
-        <v>405</v>
+        <v>875</v>
       </c>
       <c r="T1043" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1044">
@@ -83847,7 +83847,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1044" t="n">
         <v>13</v>
@@ -83875,29 +83875,29 @@
       </c>
       <c r="K1044" t="inlineStr">
         <is>
-          <t>Artic Star</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L1044" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M1044" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="N1044" t="n">
-        <v>450000</v>
+        <v>15000</v>
       </c>
       <c r="O1044" t="n">
-        <v>450000</v>
+        <v>15000</v>
       </c>
       <c r="P1044" t="n">
-        <v>450000</v>
+        <v>15000</v>
       </c>
       <c r="Q1044" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1044" t="inlineStr">
@@ -83906,10 +83906,10 @@
         </is>
       </c>
       <c r="S1044" t="n">
-        <v>1071</v>
+        <v>938</v>
       </c>
       <c r="T1044" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1045">
@@ -83927,7 +83927,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1045" t="n">
         <v>13</v>
@@ -83955,7 +83955,7 @@
       </c>
       <c r="K1045" t="inlineStr">
         <is>
-          <t>Artic Star</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L1045" t="inlineStr">
@@ -83964,20 +83964,20 @@
         </is>
       </c>
       <c r="M1045" t="n">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="N1045" t="n">
-        <v>410000</v>
+        <v>12000</v>
       </c>
       <c r="O1045" t="n">
-        <v>410000</v>
+        <v>12000</v>
       </c>
       <c r="P1045" t="n">
-        <v>410000</v>
+        <v>12000</v>
       </c>
       <c r="Q1045" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1045" t="inlineStr">
@@ -83986,10 +83986,10 @@
         </is>
       </c>
       <c r="S1045" t="n">
-        <v>976</v>
+        <v>750</v>
       </c>
       <c r="T1045" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1046">
@@ -84007,7 +84007,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1046" t="n">
         <v>13</v>
@@ -84035,7 +84035,7 @@
       </c>
       <c r="K1046" t="inlineStr">
         <is>
-          <t>Artic Star</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L1046" t="inlineStr">
@@ -84044,20 +84044,20 @@
         </is>
       </c>
       <c r="M1046" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="N1046" t="n">
-        <v>350000</v>
+        <v>10000</v>
       </c>
       <c r="O1046" t="n">
-        <v>350000</v>
+        <v>10000</v>
       </c>
       <c r="P1046" t="n">
-        <v>350000</v>
+        <v>10000</v>
       </c>
       <c r="Q1046" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1046" t="inlineStr">
@@ -84066,10 +84066,10 @@
         </is>
       </c>
       <c r="S1046" t="n">
-        <v>833</v>
+        <v>625</v>
       </c>
       <c r="T1046" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1047">
@@ -84087,7 +84087,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1047" t="n">
         <v>13</v>
@@ -84115,25 +84115,25 @@
       </c>
       <c r="K1047" t="inlineStr">
         <is>
-          <t>Big John</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L1047" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1047" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N1047" t="n">
-        <v>500000</v>
+        <v>220000</v>
       </c>
       <c r="O1047" t="n">
-        <v>500000</v>
+        <v>220000</v>
       </c>
       <c r="P1047" t="n">
-        <v>500000</v>
+        <v>220000</v>
       </c>
       <c r="Q1047" t="inlineStr">
         <is>
@@ -84146,7 +84146,7 @@
         </is>
       </c>
       <c r="S1047" t="n">
-        <v>1190</v>
+        <v>524</v>
       </c>
       <c r="T1047" t="n">
         <v>420</v>
@@ -84167,7 +84167,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -84195,25 +84195,25 @@
       </c>
       <c r="K1048" t="inlineStr">
         <is>
-          <t>Big John</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L1048" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1048" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N1048" t="n">
-        <v>450000</v>
+        <v>170000</v>
       </c>
       <c r="O1048" t="n">
-        <v>450000</v>
+        <v>170000</v>
       </c>
       <c r="P1048" t="n">
-        <v>450000</v>
+        <v>170000</v>
       </c>
       <c r="Q1048" t="inlineStr">
         <is>
@@ -84226,7 +84226,7 @@
         </is>
       </c>
       <c r="S1048" t="n">
-        <v>1071</v>
+        <v>405</v>
       </c>
       <c r="T1048" t="n">
         <v>420</v>
@@ -84275,25 +84275,25 @@
       </c>
       <c r="K1049" t="inlineStr">
         <is>
-          <t>Big John</t>
+          <t>Artic Star</t>
         </is>
       </c>
       <c r="L1049" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1049" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N1049" t="n">
-        <v>400000</v>
+        <v>450000</v>
       </c>
       <c r="O1049" t="n">
-        <v>400000</v>
+        <v>450000</v>
       </c>
       <c r="P1049" t="n">
-        <v>400000</v>
+        <v>450000</v>
       </c>
       <c r="Q1049" t="inlineStr">
         <is>
@@ -84306,7 +84306,7 @@
         </is>
       </c>
       <c r="S1049" t="n">
-        <v>952</v>
+        <v>1071</v>
       </c>
       <c r="T1049" t="n">
         <v>420</v>
@@ -84327,7 +84327,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E1050" t="n">
         <v>13</v>
@@ -84355,29 +84355,29 @@
       </c>
       <c r="K1050" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Star</t>
         </is>
       </c>
       <c r="L1050" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1050" t="n">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="N1050" t="n">
-        <v>14000</v>
+        <v>410000</v>
       </c>
       <c r="O1050" t="n">
-        <v>14000</v>
+        <v>410000</v>
       </c>
       <c r="P1050" t="n">
-        <v>14000</v>
+        <v>410000</v>
       </c>
       <c r="Q1050" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R1050" t="inlineStr">
@@ -84386,10 +84386,10 @@
         </is>
       </c>
       <c r="S1050" t="n">
-        <v>875</v>
+        <v>976</v>
       </c>
       <c r="T1050" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1051">
@@ -84407,7 +84407,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E1051" t="n">
         <v>13</v>
@@ -84435,29 +84435,29 @@
       </c>
       <c r="K1051" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Star</t>
         </is>
       </c>
       <c r="L1051" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1051" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="N1051" t="n">
-        <v>15000</v>
+        <v>350000</v>
       </c>
       <c r="O1051" t="n">
-        <v>15000</v>
+        <v>350000</v>
       </c>
       <c r="P1051" t="n">
-        <v>15000</v>
+        <v>350000</v>
       </c>
       <c r="Q1051" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R1051" t="inlineStr">
@@ -84466,10 +84466,10 @@
         </is>
       </c>
       <c r="S1051" t="n">
-        <v>938</v>
+        <v>833</v>
       </c>
       <c r="T1051" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1052">
@@ -84487,7 +84487,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E1052" t="n">
         <v>13</v>
@@ -84515,29 +84515,29 @@
       </c>
       <c r="K1052" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Big John</t>
         </is>
       </c>
       <c r="L1052" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1052" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="N1052" t="n">
-        <v>12000</v>
+        <v>500000</v>
       </c>
       <c r="O1052" t="n">
-        <v>12000</v>
+        <v>500000</v>
       </c>
       <c r="P1052" t="n">
-        <v>12000</v>
+        <v>500000</v>
       </c>
       <c r="Q1052" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R1052" t="inlineStr">
@@ -84546,10 +84546,10 @@
         </is>
       </c>
       <c r="S1052" t="n">
-        <v>750</v>
+        <v>1190</v>
       </c>
       <c r="T1052" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1053">
@@ -84567,7 +84567,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -84595,25 +84595,25 @@
       </c>
       <c r="K1053" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Big John</t>
         </is>
       </c>
       <c r="L1053" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1053" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N1053" t="n">
-        <v>150000</v>
+        <v>450000</v>
       </c>
       <c r="O1053" t="n">
-        <v>150000</v>
+        <v>450000</v>
       </c>
       <c r="P1053" t="n">
-        <v>150000</v>
+        <v>450000</v>
       </c>
       <c r="Q1053" t="inlineStr">
         <is>
@@ -84626,7 +84626,7 @@
         </is>
       </c>
       <c r="S1053" t="n">
-        <v>357</v>
+        <v>1071</v>
       </c>
       <c r="T1053" t="n">
         <v>420</v>
@@ -84647,7 +84647,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -84675,7 +84675,7 @@
       </c>
       <c r="K1054" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Big John</t>
         </is>
       </c>
       <c r="L1054" t="inlineStr">
@@ -84684,20 +84684,20 @@
         </is>
       </c>
       <c r="M1054" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="N1054" t="n">
-        <v>10000</v>
+        <v>400000</v>
       </c>
       <c r="O1054" t="n">
-        <v>10000</v>
+        <v>400000</v>
       </c>
       <c r="P1054" t="n">
-        <v>10000</v>
+        <v>400000</v>
       </c>
       <c r="Q1054" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R1054" t="inlineStr">
@@ -84706,10 +84706,10 @@
         </is>
       </c>
       <c r="S1054" t="n">
-        <v>625</v>
+        <v>952</v>
       </c>
       <c r="T1054" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1055">
@@ -84755,7 +84755,7 @@
       </c>
       <c r="K1055" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L1055" t="inlineStr">
@@ -84764,7 +84764,7 @@
         </is>
       </c>
       <c r="M1055" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N1055" t="n">
         <v>14000</v>
@@ -84835,7 +84835,7 @@
       </c>
       <c r="K1056" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L1056" t="inlineStr">
@@ -84844,7 +84844,7 @@
         </is>
       </c>
       <c r="M1056" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N1056" t="n">
         <v>15000</v>
@@ -84915,7 +84915,7 @@
       </c>
       <c r="K1057" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L1057" t="inlineStr">
@@ -84924,20 +84924,20 @@
         </is>
       </c>
       <c r="M1057" t="n">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="N1057" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="O1057" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="P1057" t="n">
-        <v>200000</v>
+        <v>12000</v>
       </c>
       <c r="Q1057" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1057" t="inlineStr">
@@ -84946,10 +84946,10 @@
         </is>
       </c>
       <c r="S1057" t="n">
-        <v>476</v>
+        <v>750</v>
       </c>
       <c r="T1057" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1058">
@@ -84995,29 +84995,29 @@
       </c>
       <c r="K1058" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1058" t="n">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="N1058" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="O1058" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="P1058" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="Q1058" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R1058" t="inlineStr">
@@ -85026,10 +85026,10 @@
         </is>
       </c>
       <c r="S1058" t="n">
-        <v>750</v>
+        <v>357</v>
       </c>
       <c r="T1058" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1059">
@@ -85075,7 +85075,7 @@
       </c>
       <c r="K1059" t="inlineStr">
         <is>
-          <t>June Pearl</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L1059" t="inlineStr">
@@ -85084,20 +85084,20 @@
         </is>
       </c>
       <c r="M1059" t="n">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="N1059" t="n">
-        <v>160000</v>
+        <v>10000</v>
       </c>
       <c r="O1059" t="n">
-        <v>160000</v>
+        <v>10000</v>
       </c>
       <c r="P1059" t="n">
-        <v>160000</v>
+        <v>10000</v>
       </c>
       <c r="Q1059" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1059" t="inlineStr">
@@ -85106,10 +85106,10 @@
         </is>
       </c>
       <c r="S1059" t="n">
-        <v>381</v>
+        <v>625</v>
       </c>
       <c r="T1059" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1060">
@@ -85127,7 +85127,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -85155,29 +85155,29 @@
       </c>
       <c r="K1060" t="inlineStr">
         <is>
-          <t>Candy White</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L1060" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1060" t="n">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="N1060" t="n">
-        <v>280000</v>
+        <v>14000</v>
       </c>
       <c r="O1060" t="n">
-        <v>300000</v>
+        <v>14000</v>
       </c>
       <c r="P1060" t="n">
-        <v>290000</v>
+        <v>14000</v>
       </c>
       <c r="Q1060" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1060" t="inlineStr">
@@ -85186,10 +85186,10 @@
         </is>
       </c>
       <c r="S1060" t="n">
-        <v>690</v>
+        <v>875</v>
       </c>
       <c r="T1060" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1061">
@@ -85207,7 +85207,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -85235,29 +85235,29 @@
       </c>
       <c r="K1061" t="inlineStr">
         <is>
-          <t>Early Diamond</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L1061" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M1061" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="N1061" t="n">
-        <v>400000</v>
+        <v>15000</v>
       </c>
       <c r="O1061" t="n">
-        <v>400000</v>
+        <v>15000</v>
       </c>
       <c r="P1061" t="n">
-        <v>400000</v>
+        <v>15000</v>
       </c>
       <c r="Q1061" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1061" t="inlineStr">
@@ -85266,10 +85266,10 @@
         </is>
       </c>
       <c r="S1061" t="n">
-        <v>952</v>
+        <v>938</v>
       </c>
       <c r="T1061" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1062">
@@ -85287,7 +85287,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -85315,7 +85315,7 @@
       </c>
       <c r="K1062" t="inlineStr">
         <is>
-          <t>Early Diamond</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L1062" t="inlineStr">
@@ -85324,16 +85324,16 @@
         </is>
       </c>
       <c r="M1062" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N1062" t="n">
-        <v>370000</v>
+        <v>180000</v>
       </c>
       <c r="O1062" t="n">
-        <v>370000</v>
+        <v>220000</v>
       </c>
       <c r="P1062" t="n">
-        <v>370000</v>
+        <v>200000</v>
       </c>
       <c r="Q1062" t="inlineStr">
         <is>
@@ -85346,7 +85346,7 @@
         </is>
       </c>
       <c r="S1062" t="n">
-        <v>881</v>
+        <v>476</v>
       </c>
       <c r="T1062" t="n">
         <v>420</v>
@@ -85367,7 +85367,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -85395,7 +85395,7 @@
       </c>
       <c r="K1063" t="inlineStr">
         <is>
-          <t>Magique</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L1063" t="inlineStr">
@@ -85404,20 +85404,20 @@
         </is>
       </c>
       <c r="M1063" t="n">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="N1063" t="n">
-        <v>320000</v>
+        <v>12000</v>
       </c>
       <c r="O1063" t="n">
-        <v>320000</v>
+        <v>12000</v>
       </c>
       <c r="P1063" t="n">
-        <v>320000</v>
+        <v>12000</v>
       </c>
       <c r="Q1063" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1063" t="inlineStr">
@@ -85426,10 +85426,10 @@
         </is>
       </c>
       <c r="S1063" t="n">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="T1063" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1064">
@@ -85447,7 +85447,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -85475,7 +85475,7 @@
       </c>
       <c r="K1064" t="inlineStr">
         <is>
-          <t>Magique</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L1064" t="inlineStr">
@@ -85484,16 +85484,16 @@
         </is>
       </c>
       <c r="M1064" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N1064" t="n">
-        <v>290000</v>
+        <v>160000</v>
       </c>
       <c r="O1064" t="n">
-        <v>290000</v>
+        <v>160000</v>
       </c>
       <c r="P1064" t="n">
-        <v>290000</v>
+        <v>160000</v>
       </c>
       <c r="Q1064" t="inlineStr">
         <is>
@@ -85506,7 +85506,7 @@
         </is>
       </c>
       <c r="S1064" t="n">
-        <v>690</v>
+        <v>381</v>
       </c>
       <c r="T1064" t="n">
         <v>420</v>
@@ -85527,7 +85527,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44277</v>
+        <v>44571</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -85555,25 +85555,25 @@
       </c>
       <c r="K1065" t="inlineStr">
         <is>
-          <t>Artic Snow</t>
+          <t>Candy White</t>
         </is>
       </c>
       <c r="L1065" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1065" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="N1065" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="O1065" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="P1065" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="Q1065" t="inlineStr">
         <is>
@@ -85586,7 +85586,7 @@
         </is>
       </c>
       <c r="S1065" t="n">
-        <v>619</v>
+        <v>690</v>
       </c>
       <c r="T1065" t="n">
         <v>420</v>
@@ -85607,7 +85607,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44277</v>
+        <v>44571</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -85635,25 +85635,25 @@
       </c>
       <c r="K1066" t="inlineStr">
         <is>
-          <t>Artic Snow</t>
+          <t>Early Diamond</t>
         </is>
       </c>
       <c r="L1066" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1066" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N1066" t="n">
-        <v>230000</v>
+        <v>400000</v>
       </c>
       <c r="O1066" t="n">
-        <v>230000</v>
+        <v>400000</v>
       </c>
       <c r="P1066" t="n">
-        <v>230000</v>
+        <v>400000</v>
       </c>
       <c r="Q1066" t="inlineStr">
         <is>
@@ -85666,7 +85666,7 @@
         </is>
       </c>
       <c r="S1066" t="n">
-        <v>548</v>
+        <v>952</v>
       </c>
       <c r="T1066" t="n">
         <v>420</v>
@@ -85687,7 +85687,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44277</v>
+        <v>44571</v>
       </c>
       <c r="E1067" t="n">
         <v>13</v>
@@ -85715,25 +85715,25 @@
       </c>
       <c r="K1067" t="inlineStr">
         <is>
-          <t>Artic Snow</t>
+          <t>Early Diamond</t>
         </is>
       </c>
       <c r="L1067" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1067" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N1067" t="n">
-        <v>200000</v>
+        <v>370000</v>
       </c>
       <c r="O1067" t="n">
-        <v>200000</v>
+        <v>370000</v>
       </c>
       <c r="P1067" t="n">
-        <v>200000</v>
+        <v>370000</v>
       </c>
       <c r="Q1067" t="inlineStr">
         <is>
@@ -85746,7 +85746,7 @@
         </is>
       </c>
       <c r="S1067" t="n">
-        <v>476</v>
+        <v>881</v>
       </c>
       <c r="T1067" t="n">
         <v>420</v>
@@ -85767,7 +85767,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44277</v>
+        <v>44571</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -85795,25 +85795,25 @@
       </c>
       <c r="K1068" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Magique</t>
         </is>
       </c>
       <c r="L1068" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1068" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N1068" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="O1068" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="P1068" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="Q1068" t="inlineStr">
         <is>
@@ -85826,7 +85826,7 @@
         </is>
       </c>
       <c r="S1068" t="n">
-        <v>643</v>
+        <v>762</v>
       </c>
       <c r="T1068" t="n">
         <v>420</v>
@@ -85847,7 +85847,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44277</v>
+        <v>44571</v>
       </c>
       <c r="E1069" t="n">
         <v>13</v>
@@ -85875,25 +85875,25 @@
       </c>
       <c r="K1069" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Magique</t>
         </is>
       </c>
       <c r="L1069" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1069" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N1069" t="n">
-        <v>250000</v>
+        <v>290000</v>
       </c>
       <c r="O1069" t="n">
-        <v>250000</v>
+        <v>290000</v>
       </c>
       <c r="P1069" t="n">
-        <v>250000</v>
+        <v>290000</v>
       </c>
       <c r="Q1069" t="inlineStr">
         <is>
@@ -85906,7 +85906,7 @@
         </is>
       </c>
       <c r="S1069" t="n">
-        <v>595</v>
+        <v>690</v>
       </c>
       <c r="T1069" t="n">
         <v>420</v>
@@ -85955,25 +85955,25 @@
       </c>
       <c r="K1070" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Snow</t>
         </is>
       </c>
       <c r="L1070" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1070" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N1070" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="O1070" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P1070" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="Q1070" t="inlineStr">
         <is>
@@ -85986,7 +85986,7 @@
         </is>
       </c>
       <c r="S1070" t="n">
-        <v>548</v>
+        <v>619</v>
       </c>
       <c r="T1070" t="n">
         <v>420</v>
@@ -86007,7 +86007,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -86035,25 +86035,25 @@
       </c>
       <c r="K1071" t="inlineStr">
         <is>
-          <t>Artic Pride</t>
+          <t>Artic Snow</t>
         </is>
       </c>
       <c r="L1071" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1071" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N1071" t="n">
-        <v>550000</v>
+        <v>230000</v>
       </c>
       <c r="O1071" t="n">
-        <v>550000</v>
+        <v>230000</v>
       </c>
       <c r="P1071" t="n">
-        <v>550000</v>
+        <v>230000</v>
       </c>
       <c r="Q1071" t="inlineStr">
         <is>
@@ -86066,7 +86066,7 @@
         </is>
       </c>
       <c r="S1071" t="n">
-        <v>1310</v>
+        <v>548</v>
       </c>
       <c r="T1071" t="n">
         <v>420</v>
@@ -86087,7 +86087,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -86115,25 +86115,25 @@
       </c>
       <c r="K1072" t="inlineStr">
         <is>
-          <t>Artic Pride</t>
+          <t>Artic Snow</t>
         </is>
       </c>
       <c r="L1072" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1072" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="N1072" t="n">
-        <v>460000</v>
+        <v>200000</v>
       </c>
       <c r="O1072" t="n">
-        <v>480000</v>
+        <v>200000</v>
       </c>
       <c r="P1072" t="n">
-        <v>466957</v>
+        <v>200000</v>
       </c>
       <c r="Q1072" t="inlineStr">
         <is>
@@ -86146,7 +86146,7 @@
         </is>
       </c>
       <c r="S1072" t="n">
-        <v>1112</v>
+        <v>476</v>
       </c>
       <c r="T1072" t="n">
         <v>420</v>
@@ -86167,7 +86167,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -86195,25 +86195,25 @@
       </c>
       <c r="K1073" t="inlineStr">
         <is>
-          <t>Artic Pride</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L1073" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1073" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N1073" t="n">
-        <v>380000</v>
+        <v>270000</v>
       </c>
       <c r="O1073" t="n">
-        <v>380000</v>
+        <v>270000</v>
       </c>
       <c r="P1073" t="n">
-        <v>380000</v>
+        <v>270000</v>
       </c>
       <c r="Q1073" t="inlineStr">
         <is>
@@ -86226,7 +86226,7 @@
         </is>
       </c>
       <c r="S1073" t="n">
-        <v>905</v>
+        <v>643</v>
       </c>
       <c r="T1073" t="n">
         <v>420</v>
@@ -86247,68 +86247,468 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1074" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1074" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1074" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1074" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J1074" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K1074" t="inlineStr">
+        <is>
+          <t>August Red</t>
+        </is>
+      </c>
+      <c r="L1074" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1074" t="n">
+        <v>18</v>
+      </c>
+      <c r="N1074" t="n">
+        <v>250000</v>
+      </c>
+      <c r="O1074" t="n">
+        <v>250000</v>
+      </c>
+      <c r="P1074" t="n">
+        <v>250000</v>
+      </c>
+      <c r="Q1074" t="inlineStr">
+        <is>
+          <t>$/bins (420 kilos)</t>
+        </is>
+      </c>
+      <c r="R1074" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1074" t="n">
+        <v>595</v>
+      </c>
+      <c r="T1074" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1075" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1075" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1075" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1075" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1075" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1075" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J1075" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K1075" t="inlineStr">
+        <is>
+          <t>August Red</t>
+        </is>
+      </c>
+      <c r="L1075" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1075" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1075" t="n">
+        <v>230000</v>
+      </c>
+      <c r="O1075" t="n">
+        <v>230000</v>
+      </c>
+      <c r="P1075" t="n">
+        <v>230000</v>
+      </c>
+      <c r="Q1075" t="inlineStr">
+        <is>
+          <t>$/bins (420 kilos)</t>
+        </is>
+      </c>
+      <c r="R1075" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1075" t="n">
+        <v>548</v>
+      </c>
+      <c r="T1075" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1076" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1076" s="2" t="n">
         <v>44525</v>
       </c>
-      <c r="E1074" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1074" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G1074" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H1074" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I1074" t="n">
-        <v>100103006</v>
-      </c>
-      <c r="J1074" t="inlineStr">
-        <is>
-          <t>Nectarín</t>
-        </is>
-      </c>
-      <c r="K1074" t="inlineStr">
+      <c r="E1076" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1076" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1076" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1076" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1076" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J1076" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K1076" t="inlineStr">
+        <is>
+          <t>Artic Pride</t>
+        </is>
+      </c>
+      <c r="L1076" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1076" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1076" t="n">
+        <v>550000</v>
+      </c>
+      <c r="O1076" t="n">
+        <v>550000</v>
+      </c>
+      <c r="P1076" t="n">
+        <v>550000</v>
+      </c>
+      <c r="Q1076" t="inlineStr">
+        <is>
+          <t>$/bins (420 kilos)</t>
+        </is>
+      </c>
+      <c r="R1076" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1076" t="n">
+        <v>1310</v>
+      </c>
+      <c r="T1076" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1077" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1077" s="2" t="n">
+        <v>44525</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1077" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1077" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1077" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1077" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J1077" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K1077" t="inlineStr">
+        <is>
+          <t>Artic Pride</t>
+        </is>
+      </c>
+      <c r="L1077" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1077" t="n">
+        <v>23</v>
+      </c>
+      <c r="N1077" t="n">
+        <v>460000</v>
+      </c>
+      <c r="O1077" t="n">
+        <v>480000</v>
+      </c>
+      <c r="P1077" t="n">
+        <v>466957</v>
+      </c>
+      <c r="Q1077" t="inlineStr">
+        <is>
+          <t>$/bins (420 kilos)</t>
+        </is>
+      </c>
+      <c r="R1077" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1077" t="n">
+        <v>1112</v>
+      </c>
+      <c r="T1077" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1078" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1078" s="2" t="n">
+        <v>44525</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1078" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1078" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1078" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1078" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J1078" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K1078" t="inlineStr">
+        <is>
+          <t>Artic Pride</t>
+        </is>
+      </c>
+      <c r="L1078" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1078" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1078" t="n">
+        <v>380000</v>
+      </c>
+      <c r="O1078" t="n">
+        <v>380000</v>
+      </c>
+      <c r="P1078" t="n">
+        <v>380000</v>
+      </c>
+      <c r="Q1078" t="inlineStr">
+        <is>
+          <t>$/bins (420 kilos)</t>
+        </is>
+      </c>
+      <c r="R1078" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1078" t="n">
+        <v>905</v>
+      </c>
+      <c r="T1078" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1079" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1079" s="2" t="n">
+        <v>44525</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1079" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1079" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1079" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1079" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J1079" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K1079" t="inlineStr">
         <is>
           <t>Early John</t>
         </is>
       </c>
-      <c r="L1074" t="inlineStr">
+      <c r="L1079" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M1074" t="n">
+      <c r="M1079" t="n">
         <v>8</v>
       </c>
-      <c r="N1074" t="n">
+      <c r="N1079" t="n">
         <v>500000</v>
       </c>
-      <c r="O1074" t="n">
+      <c r="O1079" t="n">
         <v>500000</v>
       </c>
-      <c r="P1074" t="n">
+      <c r="P1079" t="n">
         <v>500000</v>
       </c>
-      <c r="Q1074" t="inlineStr">
+      <c r="Q1079" t="inlineStr">
         <is>
           <t>$/bins (420 kilos)</t>
         </is>
       </c>
-      <c r="R1074" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S1074" t="n">
+      <c r="R1079" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1079" t="n">
         <v>1190</v>
       </c>
-      <c r="T1074" t="n">
+      <c r="T1079" t="n">
         <v>420</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Nectarín.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Nectarín.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1109"/>
+  <dimension ref="A1:T1117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84967,7 +84967,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E1058" t="n">
         <v>13</v>
@@ -85004,16 +85004,16 @@
         </is>
       </c>
       <c r="M1058" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="N1058" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="O1058" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="P1058" t="n">
-        <v>280000</v>
+        <v>255000</v>
       </c>
       <c r="Q1058" t="inlineStr">
         <is>
@@ -85026,7 +85026,7 @@
         </is>
       </c>
       <c r="S1058" t="n">
-        <v>667</v>
+        <v>607</v>
       </c>
       <c r="T1058" t="n">
         <v>420</v>
@@ -85047,7 +85047,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -85075,25 +85075,25 @@
       </c>
       <c r="K1059" t="inlineStr">
         <is>
-          <t>Candy White</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L1059" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1059" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N1059" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="O1059" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="P1059" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="Q1059" t="inlineStr">
         <is>
@@ -85106,7 +85106,7 @@
         </is>
       </c>
       <c r="S1059" t="n">
-        <v>595</v>
+        <v>714</v>
       </c>
       <c r="T1059" t="n">
         <v>420</v>
@@ -85127,7 +85127,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -85155,7 +85155,7 @@
       </c>
       <c r="K1060" t="inlineStr">
         <is>
-          <t>Early Diamond</t>
+          <t>Sun Rise</t>
         </is>
       </c>
       <c r="L1060" t="inlineStr">
@@ -85164,16 +85164,16 @@
         </is>
       </c>
       <c r="M1060" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N1060" t="n">
-        <v>350000</v>
+        <v>280000</v>
       </c>
       <c r="O1060" t="n">
-        <v>370000</v>
+        <v>280000</v>
       </c>
       <c r="P1060" t="n">
-        <v>358000</v>
+        <v>280000</v>
       </c>
       <c r="Q1060" t="inlineStr">
         <is>
@@ -85186,7 +85186,7 @@
         </is>
       </c>
       <c r="S1060" t="n">
-        <v>852</v>
+        <v>667</v>
       </c>
       <c r="T1060" t="n">
         <v>420</v>
@@ -85207,7 +85207,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44272</v>
+        <v>44585</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -85235,29 +85235,29 @@
       </c>
       <c r="K1061" t="inlineStr">
         <is>
-          <t>Artic Snow</t>
+          <t>Sun Rise</t>
         </is>
       </c>
       <c r="L1061" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1061" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="N1061" t="n">
-        <v>15000</v>
+        <v>250000</v>
       </c>
       <c r="O1061" t="n">
-        <v>15000</v>
+        <v>250000</v>
       </c>
       <c r="P1061" t="n">
-        <v>15000</v>
+        <v>250000</v>
       </c>
       <c r="Q1061" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R1061" t="inlineStr">
@@ -85266,10 +85266,10 @@
         </is>
       </c>
       <c r="S1061" t="n">
-        <v>1000</v>
+        <v>595</v>
       </c>
       <c r="T1061" t="n">
-        <v>15</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1062">
@@ -85287,7 +85287,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44272</v>
+        <v>44585</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -85315,7 +85315,7 @@
       </c>
       <c r="K1062" t="inlineStr">
         <is>
-          <t>Artic Snow</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L1062" t="inlineStr">
@@ -85324,20 +85324,20 @@
         </is>
       </c>
       <c r="M1062" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N1062" t="n">
-        <v>17000</v>
+        <v>340000</v>
       </c>
       <c r="O1062" t="n">
-        <v>17000</v>
+        <v>340000</v>
       </c>
       <c r="P1062" t="n">
-        <v>17000</v>
+        <v>340000</v>
       </c>
       <c r="Q1062" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R1062" t="inlineStr">
@@ -85346,10 +85346,10 @@
         </is>
       </c>
       <c r="S1062" t="n">
-        <v>944</v>
+        <v>810</v>
       </c>
       <c r="T1062" t="n">
-        <v>18</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1063">
@@ -85367,7 +85367,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44272</v>
+        <v>44585</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -85395,29 +85395,29 @@
       </c>
       <c r="K1063" t="inlineStr">
         <is>
-          <t>Artic Snow</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L1063" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M1063" t="n">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="N1063" t="n">
-        <v>13000</v>
+        <v>400000</v>
       </c>
       <c r="O1063" t="n">
-        <v>13000</v>
+        <v>400000</v>
       </c>
       <c r="P1063" t="n">
-        <v>13000</v>
+        <v>400000</v>
       </c>
       <c r="Q1063" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R1063" t="inlineStr">
@@ -85426,10 +85426,10 @@
         </is>
       </c>
       <c r="S1063" t="n">
-        <v>867</v>
+        <v>952</v>
       </c>
       <c r="T1063" t="n">
-        <v>15</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1064">
@@ -85447,7 +85447,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44272</v>
+        <v>44585</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -85475,7 +85475,7 @@
       </c>
       <c r="K1064" t="inlineStr">
         <is>
-          <t>Artic Snow</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L1064" t="inlineStr">
@@ -85484,20 +85484,20 @@
         </is>
       </c>
       <c r="M1064" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="N1064" t="n">
-        <v>15000</v>
+        <v>270000</v>
       </c>
       <c r="O1064" t="n">
-        <v>15000</v>
+        <v>300000</v>
       </c>
       <c r="P1064" t="n">
-        <v>15000</v>
+        <v>285000</v>
       </c>
       <c r="Q1064" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R1064" t="inlineStr">
@@ -85506,10 +85506,10 @@
         </is>
       </c>
       <c r="S1064" t="n">
-        <v>833</v>
+        <v>679</v>
       </c>
       <c r="T1064" t="n">
-        <v>18</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1065">
@@ -85527,7 +85527,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44272</v>
+        <v>44585</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -85555,29 +85555,29 @@
       </c>
       <c r="K1065" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L1065" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1065" t="n">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="N1065" t="n">
-        <v>15000</v>
+        <v>250000</v>
       </c>
       <c r="O1065" t="n">
-        <v>15000</v>
+        <v>250000</v>
       </c>
       <c r="P1065" t="n">
-        <v>15000</v>
+        <v>250000</v>
       </c>
       <c r="Q1065" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R1065" t="inlineStr">
@@ -85586,10 +85586,10 @@
         </is>
       </c>
       <c r="S1065" t="n">
-        <v>1000</v>
+        <v>595</v>
       </c>
       <c r="T1065" t="n">
-        <v>15</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1066">
@@ -85607,7 +85607,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -85635,25 +85635,25 @@
       </c>
       <c r="K1066" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Candy White</t>
         </is>
       </c>
       <c r="L1066" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1066" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N1066" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="O1066" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="P1066" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="Q1066" t="inlineStr">
         <is>
@@ -85666,7 +85666,7 @@
         </is>
       </c>
       <c r="S1066" t="n">
-        <v>595</v>
+        <v>667</v>
       </c>
       <c r="T1066" t="n">
         <v>420</v>
@@ -85687,7 +85687,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E1067" t="n">
         <v>13</v>
@@ -85715,29 +85715,29 @@
       </c>
       <c r="K1067" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Candy White</t>
         </is>
       </c>
       <c r="L1067" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1067" t="n">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="N1067" t="n">
-        <v>13000</v>
+        <v>250000</v>
       </c>
       <c r="O1067" t="n">
-        <v>13000</v>
+        <v>250000</v>
       </c>
       <c r="P1067" t="n">
-        <v>13000</v>
+        <v>250000</v>
       </c>
       <c r="Q1067" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R1067" t="inlineStr">
@@ -85746,10 +85746,10 @@
         </is>
       </c>
       <c r="S1067" t="n">
-        <v>867</v>
+        <v>595</v>
       </c>
       <c r="T1067" t="n">
-        <v>15</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1068">
@@ -85767,7 +85767,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -85795,7 +85795,7 @@
       </c>
       <c r="K1068" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Early Diamond</t>
         </is>
       </c>
       <c r="L1068" t="inlineStr">
@@ -85804,16 +85804,16 @@
         </is>
       </c>
       <c r="M1068" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N1068" t="n">
-        <v>220000</v>
+        <v>350000</v>
       </c>
       <c r="O1068" t="n">
-        <v>220000</v>
+        <v>370000</v>
       </c>
       <c r="P1068" t="n">
-        <v>220000</v>
+        <v>358000</v>
       </c>
       <c r="Q1068" t="inlineStr">
         <is>
@@ -85826,7 +85826,7 @@
         </is>
       </c>
       <c r="S1068" t="n">
-        <v>524</v>
+        <v>852</v>
       </c>
       <c r="T1068" t="n">
         <v>420</v>
@@ -85875,41 +85875,41 @@
       </c>
       <c r="K1069" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Artic Snow</t>
         </is>
       </c>
       <c r="L1069" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1069" t="n">
+        <v>150</v>
+      </c>
+      <c r="N1069" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O1069" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P1069" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q1069" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1069" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1069" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T1069" t="n">
         <v>15</v>
-      </c>
-      <c r="N1069" t="n">
-        <v>200000</v>
-      </c>
-      <c r="O1069" t="n">
-        <v>200000</v>
-      </c>
-      <c r="P1069" t="n">
-        <v>200000</v>
-      </c>
-      <c r="Q1069" t="inlineStr">
-        <is>
-          <t>$/bins (420 kilos)</t>
-        </is>
-      </c>
-      <c r="R1069" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S1069" t="n">
-        <v>476</v>
-      </c>
-      <c r="T1069" t="n">
-        <v>420</v>
       </c>
     </row>
     <row r="1070">
@@ -85927,7 +85927,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44162</v>
+        <v>44272</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -85955,7 +85955,7 @@
       </c>
       <c r="K1070" t="inlineStr">
         <is>
-          <t>August Glo</t>
+          <t>Artic Snow</t>
         </is>
       </c>
       <c r="L1070" t="inlineStr">
@@ -85964,20 +85964,20 @@
         </is>
       </c>
       <c r="M1070" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N1070" t="n">
-        <v>400000</v>
+        <v>17000</v>
       </c>
       <c r="O1070" t="n">
-        <v>400000</v>
+        <v>17000</v>
       </c>
       <c r="P1070" t="n">
-        <v>400000</v>
+        <v>17000</v>
       </c>
       <c r="Q1070" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R1070" t="inlineStr">
@@ -85986,10 +85986,10 @@
         </is>
       </c>
       <c r="S1070" t="n">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="T1070" t="n">
-        <v>420</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1071">
@@ -86007,7 +86007,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44162</v>
+        <v>44272</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -86035,7 +86035,7 @@
       </c>
       <c r="K1071" t="inlineStr">
         <is>
-          <t>August Glo</t>
+          <t>Artic Snow</t>
         </is>
       </c>
       <c r="L1071" t="inlineStr">
@@ -86044,20 +86044,20 @@
         </is>
       </c>
       <c r="M1071" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N1071" t="n">
-        <v>330000</v>
+        <v>13000</v>
       </c>
       <c r="O1071" t="n">
-        <v>350000</v>
+        <v>13000</v>
       </c>
       <c r="P1071" t="n">
-        <v>340000</v>
+        <v>13000</v>
       </c>
       <c r="Q1071" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1071" t="inlineStr">
@@ -86066,10 +86066,10 @@
         </is>
       </c>
       <c r="S1071" t="n">
-        <v>810</v>
+        <v>867</v>
       </c>
       <c r="T1071" t="n">
-        <v>420</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1072">
@@ -86087,7 +86087,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44162</v>
+        <v>44272</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -86115,29 +86115,29 @@
       </c>
       <c r="K1072" t="inlineStr">
         <is>
-          <t>August Glo</t>
+          <t>Artic Snow</t>
         </is>
       </c>
       <c r="L1072" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1072" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N1072" t="n">
-        <v>260000</v>
+        <v>15000</v>
       </c>
       <c r="O1072" t="n">
-        <v>260000</v>
+        <v>15000</v>
       </c>
       <c r="P1072" t="n">
-        <v>260000</v>
+        <v>15000</v>
       </c>
       <c r="Q1072" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R1072" t="inlineStr">
@@ -86146,10 +86146,10 @@
         </is>
       </c>
       <c r="S1072" t="n">
-        <v>619</v>
+        <v>833</v>
       </c>
       <c r="T1072" t="n">
-        <v>420</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1073">
@@ -86167,7 +86167,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44162</v>
+        <v>44272</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -86195,29 +86195,29 @@
       </c>
       <c r="K1073" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L1073" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1073" t="n">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="N1073" t="n">
-        <v>340000</v>
+        <v>15000</v>
       </c>
       <c r="O1073" t="n">
-        <v>340000</v>
+        <v>15000</v>
       </c>
       <c r="P1073" t="n">
-        <v>340000</v>
+        <v>15000</v>
       </c>
       <c r="Q1073" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1073" t="inlineStr">
@@ -86226,10 +86226,10 @@
         </is>
       </c>
       <c r="S1073" t="n">
-        <v>810</v>
+        <v>1000</v>
       </c>
       <c r="T1073" t="n">
-        <v>420</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1074">
@@ -86247,7 +86247,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44162</v>
+        <v>44272</v>
       </c>
       <c r="E1074" t="n">
         <v>13</v>
@@ -86275,25 +86275,25 @@
       </c>
       <c r="K1074" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L1074" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1074" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="N1074" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="O1074" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="P1074" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="Q1074" t="inlineStr">
         <is>
@@ -86306,7 +86306,7 @@
         </is>
       </c>
       <c r="S1074" t="n">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="T1074" t="n">
         <v>420</v>
@@ -86327,7 +86327,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44162</v>
+        <v>44272</v>
       </c>
       <c r="E1075" t="n">
         <v>13</v>
@@ -86355,41 +86355,41 @@
       </c>
       <c r="K1075" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L1075" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1075" t="n">
+        <v>150</v>
+      </c>
+      <c r="N1075" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O1075" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P1075" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q1075" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1075" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1075" t="n">
+        <v>867</v>
+      </c>
+      <c r="T1075" t="n">
         <v>15</v>
-      </c>
-      <c r="N1075" t="n">
-        <v>200000</v>
-      </c>
-      <c r="O1075" t="n">
-        <v>200000</v>
-      </c>
-      <c r="P1075" t="n">
-        <v>200000</v>
-      </c>
-      <c r="Q1075" t="inlineStr">
-        <is>
-          <t>$/bins (420 kilos)</t>
-        </is>
-      </c>
-      <c r="R1075" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S1075" t="n">
-        <v>476</v>
-      </c>
-      <c r="T1075" t="n">
-        <v>420</v>
       </c>
     </row>
     <row r="1076">
@@ -86407,7 +86407,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44529</v>
+        <v>44272</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -86435,7 +86435,7 @@
       </c>
       <c r="K1076" t="inlineStr">
         <is>
-          <t>Artic Pride</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L1076" t="inlineStr">
@@ -86444,16 +86444,16 @@
         </is>
       </c>
       <c r="M1076" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N1076" t="n">
-        <v>440000</v>
+        <v>220000</v>
       </c>
       <c r="O1076" t="n">
-        <v>450000</v>
+        <v>220000</v>
       </c>
       <c r="P1076" t="n">
-        <v>445000</v>
+        <v>220000</v>
       </c>
       <c r="Q1076" t="inlineStr">
         <is>
@@ -86462,11 +86462,11 @@
       </c>
       <c r="R1076" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1076" t="n">
-        <v>1060</v>
+        <v>524</v>
       </c>
       <c r="T1076" t="n">
         <v>420</v>
@@ -86487,7 +86487,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44529</v>
+        <v>44272</v>
       </c>
       <c r="E1077" t="n">
         <v>13</v>
@@ -86515,7 +86515,7 @@
       </c>
       <c r="K1077" t="inlineStr">
         <is>
-          <t>Artic Pride</t>
+          <t>August Red</t>
         </is>
       </c>
       <c r="L1077" t="inlineStr">
@@ -86524,16 +86524,16 @@
         </is>
       </c>
       <c r="M1077" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N1077" t="n">
-        <v>370000</v>
+        <v>200000</v>
       </c>
       <c r="O1077" t="n">
-        <v>370000</v>
+        <v>200000</v>
       </c>
       <c r="P1077" t="n">
-        <v>370000</v>
+        <v>200000</v>
       </c>
       <c r="Q1077" t="inlineStr">
         <is>
@@ -86542,11 +86542,11 @@
       </c>
       <c r="R1077" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1077" t="n">
-        <v>881</v>
+        <v>476</v>
       </c>
       <c r="T1077" t="n">
         <v>420</v>
@@ -86567,7 +86567,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E1078" t="n">
         <v>13</v>
@@ -86595,25 +86595,25 @@
       </c>
       <c r="K1078" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>August Glo</t>
         </is>
       </c>
       <c r="L1078" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1078" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N1078" t="n">
-        <v>500000</v>
+        <v>400000</v>
       </c>
       <c r="O1078" t="n">
-        <v>510000</v>
+        <v>400000</v>
       </c>
       <c r="P1078" t="n">
-        <v>505000</v>
+        <v>400000</v>
       </c>
       <c r="Q1078" t="inlineStr">
         <is>
@@ -86622,11 +86622,11 @@
       </c>
       <c r="R1078" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1078" t="n">
-        <v>1202</v>
+        <v>952</v>
       </c>
       <c r="T1078" t="n">
         <v>420</v>
@@ -86647,7 +86647,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44189</v>
+        <v>44162</v>
       </c>
       <c r="E1079" t="n">
         <v>13</v>
@@ -86675,29 +86675,29 @@
       </c>
       <c r="K1079" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>August Glo</t>
         </is>
       </c>
       <c r="L1079" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1079" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N1079" t="n">
-        <v>15000</v>
+        <v>330000</v>
       </c>
       <c r="O1079" t="n">
-        <v>15000</v>
+        <v>350000</v>
       </c>
       <c r="P1079" t="n">
-        <v>15000</v>
+        <v>340000</v>
       </c>
       <c r="Q1079" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R1079" t="inlineStr">
@@ -86706,10 +86706,10 @@
         </is>
       </c>
       <c r="S1079" t="n">
-        <v>938</v>
+        <v>810</v>
       </c>
       <c r="T1079" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1080">
@@ -86727,7 +86727,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44189</v>
+        <v>44162</v>
       </c>
       <c r="E1080" t="n">
         <v>13</v>
@@ -86755,29 +86755,29 @@
       </c>
       <c r="K1080" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>August Glo</t>
         </is>
       </c>
       <c r="L1080" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1080" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N1080" t="n">
-        <v>16000</v>
+        <v>260000</v>
       </c>
       <c r="O1080" t="n">
-        <v>16000</v>
+        <v>260000</v>
       </c>
       <c r="P1080" t="n">
-        <v>16000</v>
+        <v>260000</v>
       </c>
       <c r="Q1080" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R1080" t="inlineStr">
@@ -86786,10 +86786,10 @@
         </is>
       </c>
       <c r="S1080" t="n">
-        <v>1000</v>
+        <v>619</v>
       </c>
       <c r="T1080" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1081">
@@ -86807,7 +86807,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44189</v>
+        <v>44162</v>
       </c>
       <c r="E1081" t="n">
         <v>13</v>
@@ -86844,20 +86844,20 @@
         </is>
       </c>
       <c r="M1081" t="n">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="N1081" t="n">
-        <v>13000</v>
+        <v>340000</v>
       </c>
       <c r="O1081" t="n">
-        <v>13000</v>
+        <v>340000</v>
       </c>
       <c r="P1081" t="n">
-        <v>13000</v>
+        <v>340000</v>
       </c>
       <c r="Q1081" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R1081" t="inlineStr">
@@ -86866,10 +86866,10 @@
         </is>
       </c>
       <c r="S1081" t="n">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="T1081" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1082">
@@ -86887,7 +86887,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44189</v>
+        <v>44162</v>
       </c>
       <c r="E1082" t="n">
         <v>13</v>
@@ -86924,20 +86924,20 @@
         </is>
       </c>
       <c r="M1082" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N1082" t="n">
-        <v>9000</v>
+        <v>260000</v>
       </c>
       <c r="O1082" t="n">
-        <v>9000</v>
+        <v>260000</v>
       </c>
       <c r="P1082" t="n">
-        <v>9000</v>
+        <v>260000</v>
       </c>
       <c r="Q1082" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R1082" t="inlineStr">
@@ -86946,10 +86946,10 @@
         </is>
       </c>
       <c r="S1082" t="n">
-        <v>562</v>
+        <v>619</v>
       </c>
       <c r="T1082" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1083">
@@ -86967,7 +86967,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44189</v>
+        <v>44162</v>
       </c>
       <c r="E1083" t="n">
         <v>13</v>
@@ -86995,29 +86995,29 @@
       </c>
       <c r="K1083" t="inlineStr">
         <is>
-          <t>Ruby Diamond</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L1083" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1083" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N1083" t="n">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="O1083" t="n">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="P1083" t="n">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="Q1083" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R1083" t="inlineStr">
@@ -87026,10 +87026,10 @@
         </is>
       </c>
       <c r="S1083" t="n">
-        <v>1000</v>
+        <v>476</v>
       </c>
       <c r="T1083" t="n">
-        <v>400</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1084">
@@ -87047,7 +87047,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44189</v>
+        <v>44529</v>
       </c>
       <c r="E1084" t="n">
         <v>13</v>
@@ -87075,41 +87075,41 @@
       </c>
       <c r="K1084" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Artic Pride</t>
         </is>
       </c>
       <c r="L1084" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1084" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N1084" t="n">
-        <v>14000</v>
+        <v>440000</v>
       </c>
       <c r="O1084" t="n">
-        <v>14000</v>
+        <v>450000</v>
       </c>
       <c r="P1084" t="n">
-        <v>14000</v>
+        <v>445000</v>
       </c>
       <c r="Q1084" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R1084" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1084" t="n">
-        <v>875</v>
+        <v>1060</v>
       </c>
       <c r="T1084" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1085">
@@ -87127,7 +87127,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44189</v>
+        <v>44529</v>
       </c>
       <c r="E1085" t="n">
         <v>13</v>
@@ -87155,41 +87155,41 @@
       </c>
       <c r="K1085" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Artic Pride</t>
         </is>
       </c>
       <c r="L1085" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1085" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N1085" t="n">
-        <v>16000</v>
+        <v>370000</v>
       </c>
       <c r="O1085" t="n">
-        <v>16000</v>
+        <v>370000</v>
       </c>
       <c r="P1085" t="n">
-        <v>16000</v>
+        <v>370000</v>
       </c>
       <c r="Q1085" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R1085" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1085" t="n">
-        <v>1000</v>
+        <v>881</v>
       </c>
       <c r="T1085" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1086">
@@ -87207,7 +87207,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44189</v>
+        <v>44529</v>
       </c>
       <c r="E1086" t="n">
         <v>13</v>
@@ -87235,7 +87235,7 @@
       </c>
       <c r="K1086" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L1086" t="inlineStr">
@@ -87244,32 +87244,32 @@
         </is>
       </c>
       <c r="M1086" t="n">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="N1086" t="n">
-        <v>12000</v>
+        <v>500000</v>
       </c>
       <c r="O1086" t="n">
-        <v>12000</v>
+        <v>510000</v>
       </c>
       <c r="P1086" t="n">
-        <v>12000</v>
+        <v>505000</v>
       </c>
       <c r="Q1086" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R1086" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1086" t="n">
-        <v>750</v>
+        <v>1202</v>
       </c>
       <c r="T1086" t="n">
-        <v>16</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1087">
@@ -87315,25 +87315,25 @@
       </c>
       <c r="K1087" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L1087" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1087" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N1087" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O1087" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P1087" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q1087" t="inlineStr">
         <is>
@@ -87346,7 +87346,7 @@
         </is>
       </c>
       <c r="S1087" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T1087" t="n">
         <v>16</v>
@@ -87395,29 +87395,29 @@
       </c>
       <c r="K1088" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L1088" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M1088" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N1088" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="O1088" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P1088" t="n">
-        <v>7167</v>
+        <v>16000</v>
       </c>
       <c r="Q1088" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1088" t="inlineStr">
@@ -87426,7 +87426,7 @@
         </is>
       </c>
       <c r="S1088" t="n">
-        <v>448</v>
+        <v>1000</v>
       </c>
       <c r="T1088" t="n">
         <v>16</v>
@@ -87447,7 +87447,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E1089" t="n">
         <v>13</v>
@@ -87475,29 +87475,29 @@
       </c>
       <c r="K1089" t="inlineStr">
         <is>
-          <t>Flavortop</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L1089" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1089" t="n">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="N1089" t="n">
-        <v>320000</v>
+        <v>13000</v>
       </c>
       <c r="O1089" t="n">
-        <v>320000</v>
+        <v>13000</v>
       </c>
       <c r="P1089" t="n">
-        <v>320000</v>
+        <v>13000</v>
       </c>
       <c r="Q1089" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1089" t="inlineStr">
@@ -87506,10 +87506,10 @@
         </is>
       </c>
       <c r="S1089" t="n">
-        <v>762</v>
+        <v>812</v>
       </c>
       <c r="T1089" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1090">
@@ -87527,7 +87527,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E1090" t="n">
         <v>13</v>
@@ -87555,41 +87555,41 @@
       </c>
       <c r="K1090" t="inlineStr">
         <is>
-          <t>Flavortop</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L1090" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1090" t="n">
+        <v>80</v>
+      </c>
+      <c r="N1090" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O1090" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P1090" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q1090" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R1090" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1090" t="n">
+        <v>562</v>
+      </c>
+      <c r="T1090" t="n">
         <v>16</v>
-      </c>
-      <c r="N1090" t="n">
-        <v>280000</v>
-      </c>
-      <c r="O1090" t="n">
-        <v>280000</v>
-      </c>
-      <c r="P1090" t="n">
-        <v>280000</v>
-      </c>
-      <c r="Q1090" t="inlineStr">
-        <is>
-          <t>$/bins (420 kilos)</t>
-        </is>
-      </c>
-      <c r="R1090" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S1090" t="n">
-        <v>667</v>
-      </c>
-      <c r="T1090" t="n">
-        <v>420</v>
       </c>
     </row>
     <row r="1091">
@@ -87607,7 +87607,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E1091" t="n">
         <v>13</v>
@@ -87635,29 +87635,29 @@
       </c>
       <c r="K1091" t="inlineStr">
         <is>
-          <t>NE 269</t>
+          <t>Ruby Diamond</t>
         </is>
       </c>
       <c r="L1091" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1091" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N1091" t="n">
-        <v>340000</v>
+        <v>400000</v>
       </c>
       <c r="O1091" t="n">
-        <v>340000</v>
+        <v>400000</v>
       </c>
       <c r="P1091" t="n">
-        <v>340000</v>
+        <v>400000</v>
       </c>
       <c r="Q1091" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1091" t="inlineStr">
@@ -87666,10 +87666,10 @@
         </is>
       </c>
       <c r="S1091" t="n">
-        <v>810</v>
+        <v>1000</v>
       </c>
       <c r="T1091" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1092">
@@ -87687,7 +87687,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E1092" t="n">
         <v>13</v>
@@ -87715,29 +87715,29 @@
       </c>
       <c r="K1092" t="inlineStr">
         <is>
-          <t>NE 269</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L1092" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1092" t="n">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="N1092" t="n">
-        <v>320000</v>
+        <v>14000</v>
       </c>
       <c r="O1092" t="n">
-        <v>320000</v>
+        <v>14000</v>
       </c>
       <c r="P1092" t="n">
-        <v>320000</v>
+        <v>14000</v>
       </c>
       <c r="Q1092" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1092" t="inlineStr">
@@ -87746,10 +87746,10 @@
         </is>
       </c>
       <c r="S1092" t="n">
-        <v>762</v>
+        <v>875</v>
       </c>
       <c r="T1092" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1093">
@@ -87767,7 +87767,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E1093" t="n">
         <v>13</v>
@@ -87795,29 +87795,29 @@
       </c>
       <c r="K1093" t="inlineStr">
         <is>
-          <t>Nectar Crest</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L1093" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M1093" t="n">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="N1093" t="n">
-        <v>250000</v>
+        <v>16000</v>
       </c>
       <c r="O1093" t="n">
-        <v>250000</v>
+        <v>16000</v>
       </c>
       <c r="P1093" t="n">
-        <v>250000</v>
+        <v>16000</v>
       </c>
       <c r="Q1093" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1093" t="inlineStr">
@@ -87826,10 +87826,10 @@
         </is>
       </c>
       <c r="S1093" t="n">
-        <v>595</v>
+        <v>1000</v>
       </c>
       <c r="T1093" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1094">
@@ -87847,7 +87847,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E1094" t="n">
         <v>13</v>
@@ -87875,7 +87875,7 @@
       </c>
       <c r="K1094" t="inlineStr">
         <is>
-          <t>Nectar Crest</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L1094" t="inlineStr">
@@ -87884,20 +87884,20 @@
         </is>
       </c>
       <c r="M1094" t="n">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="N1094" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="O1094" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="P1094" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="Q1094" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1094" t="inlineStr">
@@ -87906,10 +87906,10 @@
         </is>
       </c>
       <c r="S1094" t="n">
-        <v>524</v>
+        <v>750</v>
       </c>
       <c r="T1094" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1095">
@@ -87927,7 +87927,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E1095" t="n">
         <v>13</v>
@@ -87955,29 +87955,29 @@
       </c>
       <c r="K1095" t="inlineStr">
         <is>
-          <t>Sun Rise</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L1095" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1095" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="N1095" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="O1095" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="P1095" t="n">
-        <v>213684</v>
+        <v>10000</v>
       </c>
       <c r="Q1095" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R1095" t="inlineStr">
@@ -87986,10 +87986,10 @@
         </is>
       </c>
       <c r="S1095" t="n">
-        <v>509</v>
+        <v>625</v>
       </c>
       <c r="T1095" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1096">
@@ -88007,7 +88007,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E1096" t="n">
         <v>13</v>
@@ -88035,29 +88035,29 @@
       </c>
       <c r="K1096" t="inlineStr">
         <is>
-          <t>Sun Rise</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L1096" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1096" t="n">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="N1096" t="n">
-        <v>180000</v>
+        <v>6000</v>
       </c>
       <c r="O1096" t="n">
-        <v>180000</v>
+        <v>8000</v>
       </c>
       <c r="P1096" t="n">
-        <v>180000</v>
+        <v>7167</v>
       </c>
       <c r="Q1096" t="inlineStr">
         <is>
-          <t>$/bins (420 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R1096" t="inlineStr">
@@ -88066,10 +88066,10 @@
         </is>
       </c>
       <c r="S1096" t="n">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="T1096" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1097">
@@ -88115,7 +88115,7 @@
       </c>
       <c r="K1097" t="inlineStr">
         <is>
-          <t>Venus</t>
+          <t>Flavortop</t>
         </is>
       </c>
       <c r="L1097" t="inlineStr">
@@ -88124,16 +88124,16 @@
         </is>
       </c>
       <c r="M1097" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N1097" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="O1097" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="P1097" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="Q1097" t="inlineStr">
         <is>
@@ -88146,7 +88146,7 @@
         </is>
       </c>
       <c r="S1097" t="n">
-        <v>786</v>
+        <v>762</v>
       </c>
       <c r="T1097" t="n">
         <v>420</v>
@@ -88195,25 +88195,25 @@
       </c>
       <c r="K1098" t="inlineStr">
         <is>
-          <t>Venus</t>
+          <t>Flavortop</t>
         </is>
       </c>
       <c r="L1098" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1098" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N1098" t="n">
-        <v>350000</v>
+        <v>280000</v>
       </c>
       <c r="O1098" t="n">
-        <v>350000</v>
+        <v>280000</v>
       </c>
       <c r="P1098" t="n">
-        <v>350000</v>
+        <v>280000</v>
       </c>
       <c r="Q1098" t="inlineStr">
         <is>
@@ -88226,7 +88226,7 @@
         </is>
       </c>
       <c r="S1098" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="T1098" t="n">
         <v>420</v>
@@ -88275,25 +88275,25 @@
       </c>
       <c r="K1099" t="inlineStr">
         <is>
-          <t>Venus</t>
+          <t>NE 269</t>
         </is>
       </c>
       <c r="L1099" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1099" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N1099" t="n">
-        <v>300000</v>
+        <v>340000</v>
       </c>
       <c r="O1099" t="n">
-        <v>300000</v>
+        <v>340000</v>
       </c>
       <c r="P1099" t="n">
-        <v>300000</v>
+        <v>340000</v>
       </c>
       <c r="Q1099" t="inlineStr">
         <is>
@@ -88306,7 +88306,7 @@
         </is>
       </c>
       <c r="S1099" t="n">
-        <v>714</v>
+        <v>810</v>
       </c>
       <c r="T1099" t="n">
         <v>420</v>
@@ -88327,7 +88327,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1100" t="n">
         <v>13</v>
@@ -88355,7 +88355,7 @@
       </c>
       <c r="K1100" t="inlineStr">
         <is>
-          <t>Artic Snow</t>
+          <t>NE 269</t>
         </is>
       </c>
       <c r="L1100" t="inlineStr">
@@ -88364,16 +88364,16 @@
         </is>
       </c>
       <c r="M1100" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N1100" t="n">
-        <v>220000</v>
+        <v>320000</v>
       </c>
       <c r="O1100" t="n">
-        <v>220000</v>
+        <v>320000</v>
       </c>
       <c r="P1100" t="n">
-        <v>220000</v>
+        <v>320000</v>
       </c>
       <c r="Q1100" t="inlineStr">
         <is>
@@ -88386,7 +88386,7 @@
         </is>
       </c>
       <c r="S1100" t="n">
-        <v>524</v>
+        <v>762</v>
       </c>
       <c r="T1100" t="n">
         <v>420</v>
@@ -88407,7 +88407,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1101" t="n">
         <v>13</v>
@@ -88435,25 +88435,25 @@
       </c>
       <c r="K1101" t="inlineStr">
         <is>
-          <t>Artic Snow</t>
+          <t>Nectar Crest</t>
         </is>
       </c>
       <c r="L1101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1101" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N1101" t="n">
-        <v>20000</v>
+        <v>250000</v>
       </c>
       <c r="O1101" t="n">
-        <v>20000</v>
+        <v>250000</v>
       </c>
       <c r="P1101" t="n">
-        <v>20000</v>
+        <v>250000</v>
       </c>
       <c r="Q1101" t="inlineStr">
         <is>
@@ -88466,7 +88466,7 @@
         </is>
       </c>
       <c r="S1101" t="n">
-        <v>48</v>
+        <v>595</v>
       </c>
       <c r="T1101" t="n">
         <v>420</v>
@@ -88487,7 +88487,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1102" t="n">
         <v>13</v>
@@ -88515,25 +88515,25 @@
       </c>
       <c r="K1102" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Nectar Crest</t>
         </is>
       </c>
       <c r="L1102" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1102" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N1102" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="O1102" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="P1102" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="Q1102" t="inlineStr">
         <is>
@@ -88546,7 +88546,7 @@
         </is>
       </c>
       <c r="S1102" t="n">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="T1102" t="n">
         <v>420</v>
@@ -88567,7 +88567,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1103" t="n">
         <v>13</v>
@@ -88595,7 +88595,7 @@
       </c>
       <c r="K1103" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Sun Rise</t>
         </is>
       </c>
       <c r="L1103" t="inlineStr">
@@ -88604,20 +88604,20 @@
         </is>
       </c>
       <c r="M1103" t="n">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="N1103" t="n">
-        <v>14000</v>
+        <v>200000</v>
       </c>
       <c r="O1103" t="n">
-        <v>14000</v>
+        <v>220000</v>
       </c>
       <c r="P1103" t="n">
-        <v>14000</v>
+        <v>213684</v>
       </c>
       <c r="Q1103" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R1103" t="inlineStr">
@@ -88626,10 +88626,10 @@
         </is>
       </c>
       <c r="S1103" t="n">
-        <v>933</v>
+        <v>509</v>
       </c>
       <c r="T1103" t="n">
-        <v>15</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1104">
@@ -88647,7 +88647,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1104" t="n">
         <v>13</v>
@@ -88675,25 +88675,25 @@
       </c>
       <c r="K1104" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Sun Rise</t>
         </is>
       </c>
       <c r="L1104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1104" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N1104" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="O1104" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="P1104" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="Q1104" t="inlineStr">
         <is>
@@ -88706,7 +88706,7 @@
         </is>
       </c>
       <c r="S1104" t="n">
-        <v>524</v>
+        <v>429</v>
       </c>
       <c r="T1104" t="n">
         <v>420</v>
@@ -88727,7 +88727,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1105" t="n">
         <v>13</v>
@@ -88755,29 +88755,29 @@
       </c>
       <c r="K1105" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L1105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1105" t="n">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="N1105" t="n">
-        <v>12000</v>
+        <v>330000</v>
       </c>
       <c r="O1105" t="n">
-        <v>12000</v>
+        <v>330000</v>
       </c>
       <c r="P1105" t="n">
-        <v>12000</v>
+        <v>330000</v>
       </c>
       <c r="Q1105" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (420 kilos)</t>
         </is>
       </c>
       <c r="R1105" t="inlineStr">
@@ -88786,10 +88786,10 @@
         </is>
       </c>
       <c r="S1105" t="n">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="T1105" t="n">
-        <v>15</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1106">
@@ -88807,7 +88807,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1106" t="n">
         <v>13</v>
@@ -88835,25 +88835,25 @@
       </c>
       <c r="K1106" t="inlineStr">
         <is>
-          <t>August Red</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L1106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M1106" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N1106" t="n">
-        <v>190000</v>
+        <v>350000</v>
       </c>
       <c r="O1106" t="n">
-        <v>190000</v>
+        <v>350000</v>
       </c>
       <c r="P1106" t="n">
-        <v>190000</v>
+        <v>350000</v>
       </c>
       <c r="Q1106" t="inlineStr">
         <is>
@@ -88866,7 +88866,7 @@
         </is>
       </c>
       <c r="S1106" t="n">
-        <v>452</v>
+        <v>833</v>
       </c>
       <c r="T1106" t="n">
         <v>420</v>
@@ -88887,7 +88887,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44554</v>
+        <v>44209</v>
       </c>
       <c r="E1107" t="n">
         <v>13</v>
@@ -88915,25 +88915,25 @@
       </c>
       <c r="K1107" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L1107" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1107" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N1107" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="O1107" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P1107" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="Q1107" t="inlineStr">
         <is>
@@ -88946,7 +88946,7 @@
         </is>
       </c>
       <c r="S1107" t="n">
-        <v>643</v>
+        <v>714</v>
       </c>
       <c r="T1107" t="n">
         <v>420</v>
@@ -88967,7 +88967,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E1108" t="n">
         <v>13</v>
@@ -88995,7 +88995,7 @@
       </c>
       <c r="K1108" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Artic Snow</t>
         </is>
       </c>
       <c r="L1108" t="inlineStr">
@@ -89004,16 +89004,16 @@
         </is>
       </c>
       <c r="M1108" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N1108" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="O1108" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="P1108" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="Q1108" t="inlineStr">
         <is>
@@ -89026,7 +89026,7 @@
         </is>
       </c>
       <c r="S1108" t="n">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="T1108" t="n">
         <v>420</v>
@@ -89047,68 +89047,708 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1109" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1109" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1109" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1109" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J1109" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K1109" t="inlineStr">
+        <is>
+          <t>Artic Snow</t>
+        </is>
+      </c>
+      <c r="L1109" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1109" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1109" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O1109" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P1109" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q1109" t="inlineStr">
+        <is>
+          <t>$/bins (420 kilos)</t>
+        </is>
+      </c>
+      <c r="R1109" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1109" t="n">
+        <v>48</v>
+      </c>
+      <c r="T1109" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1110" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1110" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1110" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1110" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1110" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1110" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J1110" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K1110" t="inlineStr">
+        <is>
+          <t>August Red</t>
+        </is>
+      </c>
+      <c r="L1110" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1110" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1110" t="n">
+        <v>240000</v>
+      </c>
+      <c r="O1110" t="n">
+        <v>240000</v>
+      </c>
+      <c r="P1110" t="n">
+        <v>240000</v>
+      </c>
+      <c r="Q1110" t="inlineStr">
+        <is>
+          <t>$/bins (420 kilos)</t>
+        </is>
+      </c>
+      <c r="R1110" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1110" t="n">
+        <v>571</v>
+      </c>
+      <c r="T1110" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1111" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1111" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1111" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1111" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1111" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1111" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J1111" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K1111" t="inlineStr">
+        <is>
+          <t>August Red</t>
+        </is>
+      </c>
+      <c r="L1111" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1111" t="n">
+        <v>180</v>
+      </c>
+      <c r="N1111" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O1111" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P1111" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q1111" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1111" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1111" t="n">
+        <v>933</v>
+      </c>
+      <c r="T1111" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1112" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1112" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1112" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1112" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1112" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1112" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J1112" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K1112" t="inlineStr">
+        <is>
+          <t>August Red</t>
+        </is>
+      </c>
+      <c r="L1112" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1112" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1112" t="n">
+        <v>220000</v>
+      </c>
+      <c r="O1112" t="n">
+        <v>220000</v>
+      </c>
+      <c r="P1112" t="n">
+        <v>220000</v>
+      </c>
+      <c r="Q1112" t="inlineStr">
+        <is>
+          <t>$/bins (420 kilos)</t>
+        </is>
+      </c>
+      <c r="R1112" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1112" t="n">
+        <v>524</v>
+      </c>
+      <c r="T1112" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1113" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1113" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1113" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1113" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1113" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1113" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J1113" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K1113" t="inlineStr">
+        <is>
+          <t>August Red</t>
+        </is>
+      </c>
+      <c r="L1113" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1113" t="n">
+        <v>150</v>
+      </c>
+      <c r="N1113" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O1113" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P1113" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q1113" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1113" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1113" t="n">
+        <v>800</v>
+      </c>
+      <c r="T1113" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1114" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1114" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1114" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1114" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1114" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1114" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J1114" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K1114" t="inlineStr">
+        <is>
+          <t>August Red</t>
+        </is>
+      </c>
+      <c r="L1114" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1114" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1114" t="n">
+        <v>190000</v>
+      </c>
+      <c r="O1114" t="n">
+        <v>190000</v>
+      </c>
+      <c r="P1114" t="n">
+        <v>190000</v>
+      </c>
+      <c r="Q1114" t="inlineStr">
+        <is>
+          <t>$/bins (420 kilos)</t>
+        </is>
+      </c>
+      <c r="R1114" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1114" t="n">
+        <v>452</v>
+      </c>
+      <c r="T1114" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1115" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1115" s="2" t="n">
         <v>44554</v>
       </c>
-      <c r="E1109" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1109" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G1109" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H1109" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I1109" t="n">
-        <v>100103006</v>
-      </c>
-      <c r="J1109" t="inlineStr">
-        <is>
-          <t>Nectarín</t>
-        </is>
-      </c>
-      <c r="K1109" t="inlineStr">
+      <c r="E1115" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1115" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1115" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1115" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1115" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J1115" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K1115" t="inlineStr">
         <is>
           <t>Super Queen</t>
         </is>
       </c>
-      <c r="L1109" t="inlineStr">
+      <c r="L1115" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1115" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1115" t="n">
+        <v>270000</v>
+      </c>
+      <c r="O1115" t="n">
+        <v>270000</v>
+      </c>
+      <c r="P1115" t="n">
+        <v>270000</v>
+      </c>
+      <c r="Q1115" t="inlineStr">
+        <is>
+          <t>$/bins (420 kilos)</t>
+        </is>
+      </c>
+      <c r="R1115" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1115" t="n">
+        <v>643</v>
+      </c>
+      <c r="T1115" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1116" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1116" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1116" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1116" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1116" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1116" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J1116" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K1116" t="inlineStr">
+        <is>
+          <t>Super Queen</t>
+        </is>
+      </c>
+      <c r="L1116" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1116" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1116" t="n">
+        <v>230000</v>
+      </c>
+      <c r="O1116" t="n">
+        <v>230000</v>
+      </c>
+      <c r="P1116" t="n">
+        <v>230000</v>
+      </c>
+      <c r="Q1116" t="inlineStr">
+        <is>
+          <t>$/bins (420 kilos)</t>
+        </is>
+      </c>
+      <c r="R1116" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1116" t="n">
+        <v>548</v>
+      </c>
+      <c r="T1116" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1117" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1117" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1117" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1117" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1117" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1117" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J1117" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K1117" t="inlineStr">
+        <is>
+          <t>Super Queen</t>
+        </is>
+      </c>
+      <c r="L1117" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M1109" t="n">
+      <c r="M1117" t="n">
         <v>12</v>
       </c>
-      <c r="N1109" t="n">
+      <c r="N1117" t="n">
         <v>180000</v>
       </c>
-      <c r="O1109" t="n">
+      <c r="O1117" t="n">
         <v>180000</v>
       </c>
-      <c r="P1109" t="n">
+      <c r="P1117" t="n">
         <v>180000</v>
       </c>
-      <c r="Q1109" t="inlineStr">
+      <c r="Q1117" t="inlineStr">
         <is>
           <t>$/bins (420 kilos)</t>
         </is>
       </c>
-      <c r="R1109" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S1109" t="n">
+      <c r="R1117" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1117" t="n">
         <v>429</v>
       </c>
-      <c r="T1109" t="n">
+      <c r="T1117" t="n">
         <v>420</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Nectarín.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Nectarín.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1145"/>
+  <dimension ref="A1:T1150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90487,7 +90487,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E1127" t="n">
         <v>13</v>
@@ -90515,25 +90515,25 @@
       </c>
       <c r="K1127" t="inlineStr">
         <is>
-          <t>Artic Star</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L1127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1127" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="N1127" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="O1127" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="P1127" t="n">
-        <v>250000</v>
+        <v>330000</v>
       </c>
       <c r="Q1127" t="inlineStr">
         <is>
@@ -90542,11 +90542,11 @@
       </c>
       <c r="R1127" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1127" t="n">
-        <v>595</v>
+        <v>786</v>
       </c>
       <c r="T1127" t="n">
         <v>420</v>
@@ -90567,7 +90567,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E1128" t="n">
         <v>13</v>
@@ -90595,25 +90595,25 @@
       </c>
       <c r="K1128" t="inlineStr">
         <is>
-          <t>Artic Star</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L1128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1128" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="N1128" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="O1128" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="P1128" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="Q1128" t="inlineStr">
         <is>
@@ -90622,11 +90622,11 @@
       </c>
       <c r="R1128" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1128" t="n">
-        <v>476</v>
+        <v>714</v>
       </c>
       <c r="T1128" t="n">
         <v>420</v>
@@ -90647,7 +90647,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E1129" t="n">
         <v>13</v>
@@ -90675,25 +90675,25 @@
       </c>
       <c r="K1129" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>June Pearl</t>
         </is>
       </c>
       <c r="L1129" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1129" t="n">
         <v>10</v>
       </c>
       <c r="N1129" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O1129" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="P1129" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="Q1129" t="inlineStr">
         <is>
@@ -90706,7 +90706,7 @@
         </is>
       </c>
       <c r="S1129" t="n">
-        <v>667</v>
+        <v>643</v>
       </c>
       <c r="T1129" t="n">
         <v>420</v>
@@ -90727,7 +90727,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E1130" t="n">
         <v>13</v>
@@ -90755,25 +90755,25 @@
       </c>
       <c r="K1130" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L1130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1130" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N1130" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="O1130" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="P1130" t="n">
-        <v>240000</v>
+        <v>320769</v>
       </c>
       <c r="Q1130" t="inlineStr">
         <is>
@@ -90786,7 +90786,7 @@
         </is>
       </c>
       <c r="S1130" t="n">
-        <v>571</v>
+        <v>764</v>
       </c>
       <c r="T1130" t="n">
         <v>420</v>
@@ -90807,7 +90807,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E1131" t="n">
         <v>13</v>
@@ -90835,25 +90835,25 @@
       </c>
       <c r="K1131" t="inlineStr">
         <is>
-          <t>Super Queen</t>
+          <t>Venus</t>
         </is>
       </c>
       <c r="L1131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1131" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="N1131" t="n">
-        <v>180000</v>
+        <v>270000</v>
       </c>
       <c r="O1131" t="n">
-        <v>180000</v>
+        <v>290000</v>
       </c>
       <c r="P1131" t="n">
-        <v>180000</v>
+        <v>280857</v>
       </c>
       <c r="Q1131" t="inlineStr">
         <is>
@@ -90866,7 +90866,7 @@
         </is>
       </c>
       <c r="S1131" t="n">
-        <v>429</v>
+        <v>669</v>
       </c>
       <c r="T1131" t="n">
         <v>420</v>
@@ -90887,7 +90887,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1132" t="n">
         <v>13</v>
@@ -90920,20 +90920,20 @@
       </c>
       <c r="L1132" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1132" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N1132" t="n">
-        <v>360000</v>
+        <v>240000</v>
       </c>
       <c r="O1132" t="n">
-        <v>360000</v>
+        <v>260000</v>
       </c>
       <c r="P1132" t="n">
-        <v>360000</v>
+        <v>250000</v>
       </c>
       <c r="Q1132" t="inlineStr">
         <is>
@@ -90942,11 +90942,11 @@
       </c>
       <c r="R1132" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1132" t="n">
-        <v>857</v>
+        <v>595</v>
       </c>
       <c r="T1132" t="n">
         <v>420</v>
@@ -90967,7 +90967,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1133" t="n">
         <v>13</v>
@@ -91000,20 +91000,20 @@
       </c>
       <c r="L1133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1133" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N1133" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="O1133" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="P1133" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="Q1133" t="inlineStr">
         <is>
@@ -91022,11 +91022,11 @@
       </c>
       <c r="R1133" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1133" t="n">
-        <v>786</v>
+        <v>476</v>
       </c>
       <c r="T1133" t="n">
         <v>420</v>
@@ -91047,7 +91047,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1134" t="n">
         <v>13</v>
@@ -91075,16 +91075,16 @@
       </c>
       <c r="K1134" t="inlineStr">
         <is>
-          <t>Artic Star</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L1134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1134" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="N1134" t="n">
         <v>280000</v>
@@ -91127,7 +91127,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1135" t="n">
         <v>13</v>
@@ -91155,25 +91155,25 @@
       </c>
       <c r="K1135" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L1135" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1135" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N1135" t="n">
-        <v>430000</v>
+        <v>240000</v>
       </c>
       <c r="O1135" t="n">
-        <v>430000</v>
+        <v>240000</v>
       </c>
       <c r="P1135" t="n">
-        <v>430000</v>
+        <v>240000</v>
       </c>
       <c r="Q1135" t="inlineStr">
         <is>
@@ -91186,7 +91186,7 @@
         </is>
       </c>
       <c r="S1135" t="n">
-        <v>1024</v>
+        <v>571</v>
       </c>
       <c r="T1135" t="n">
         <v>420</v>
@@ -91207,7 +91207,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1136" t="n">
         <v>13</v>
@@ -91235,25 +91235,25 @@
       </c>
       <c r="K1136" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>Super Queen</t>
         </is>
       </c>
       <c r="L1136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1136" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N1136" t="n">
-        <v>380000</v>
+        <v>180000</v>
       </c>
       <c r="O1136" t="n">
-        <v>380000</v>
+        <v>180000</v>
       </c>
       <c r="P1136" t="n">
-        <v>380000</v>
+        <v>180000</v>
       </c>
       <c r="Q1136" t="inlineStr">
         <is>
@@ -91266,7 +91266,7 @@
         </is>
       </c>
       <c r="S1136" t="n">
-        <v>905</v>
+        <v>429</v>
       </c>
       <c r="T1136" t="n">
         <v>420</v>
@@ -91315,25 +91315,25 @@
       </c>
       <c r="K1137" t="inlineStr">
         <is>
-          <t>Early John</t>
+          <t>Artic Star</t>
         </is>
       </c>
       <c r="L1137" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1137" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N1137" t="n">
-        <v>350000</v>
+        <v>360000</v>
       </c>
       <c r="O1137" t="n">
-        <v>350000</v>
+        <v>360000</v>
       </c>
       <c r="P1137" t="n">
-        <v>350000</v>
+        <v>360000</v>
       </c>
       <c r="Q1137" t="inlineStr">
         <is>
@@ -91346,7 +91346,7 @@
         </is>
       </c>
       <c r="S1137" t="n">
-        <v>833</v>
+        <v>857</v>
       </c>
       <c r="T1137" t="n">
         <v>420</v>
@@ -91367,7 +91367,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1138" t="n">
         <v>13</v>
@@ -91395,25 +91395,25 @@
       </c>
       <c r="K1138" t="inlineStr">
         <is>
-          <t>Artic Glo</t>
+          <t>Artic Star</t>
         </is>
       </c>
       <c r="L1138" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1138" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1138" t="n">
-        <v>450000</v>
+        <v>330000</v>
       </c>
       <c r="O1138" t="n">
-        <v>500000</v>
+        <v>330000</v>
       </c>
       <c r="P1138" t="n">
-        <v>475000</v>
+        <v>330000</v>
       </c>
       <c r="Q1138" t="inlineStr">
         <is>
@@ -91426,7 +91426,7 @@
         </is>
       </c>
       <c r="S1138" t="n">
-        <v>1131</v>
+        <v>786</v>
       </c>
       <c r="T1138" t="n">
         <v>420</v>
@@ -91447,7 +91447,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1139" t="n">
         <v>13</v>
@@ -91475,25 +91475,25 @@
       </c>
       <c r="K1139" t="inlineStr">
         <is>
-          <t>Artic Glo</t>
+          <t>Artic Star</t>
         </is>
       </c>
       <c r="L1139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1139" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N1139" t="n">
-        <v>350000</v>
+        <v>280000</v>
       </c>
       <c r="O1139" t="n">
-        <v>400000</v>
+        <v>280000</v>
       </c>
       <c r="P1139" t="n">
-        <v>375000</v>
+        <v>280000</v>
       </c>
       <c r="Q1139" t="inlineStr">
         <is>
@@ -91506,7 +91506,7 @@
         </is>
       </c>
       <c r="S1139" t="n">
-        <v>893</v>
+        <v>667</v>
       </c>
       <c r="T1139" t="n">
         <v>420</v>
@@ -91527,7 +91527,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1140" t="n">
         <v>13</v>
@@ -91555,25 +91555,25 @@
       </c>
       <c r="K1140" t="inlineStr">
         <is>
-          <t>Artic Glo</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L1140" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1140" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N1140" t="n">
-        <v>300000</v>
+        <v>430000</v>
       </c>
       <c r="O1140" t="n">
-        <v>300000</v>
+        <v>430000</v>
       </c>
       <c r="P1140" t="n">
-        <v>300000</v>
+        <v>430000</v>
       </c>
       <c r="Q1140" t="inlineStr">
         <is>
@@ -91586,7 +91586,7 @@
         </is>
       </c>
       <c r="S1140" t="n">
-        <v>714</v>
+        <v>1024</v>
       </c>
       <c r="T1140" t="n">
         <v>420</v>
@@ -91607,7 +91607,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1141" t="n">
         <v>13</v>
@@ -91635,25 +91635,25 @@
       </c>
       <c r="K1141" t="inlineStr">
         <is>
-          <t>Artic Glo</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L1141" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1141" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="N1141" t="n">
-        <v>250000</v>
+        <v>380000</v>
       </c>
       <c r="O1141" t="n">
-        <v>250000</v>
+        <v>380000</v>
       </c>
       <c r="P1141" t="n">
-        <v>250000</v>
+        <v>380000</v>
       </c>
       <c r="Q1141" t="inlineStr">
         <is>
@@ -91666,7 +91666,7 @@
         </is>
       </c>
       <c r="S1141" t="n">
-        <v>595</v>
+        <v>905</v>
       </c>
       <c r="T1141" t="n">
         <v>420</v>
@@ -91687,7 +91687,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1142" t="n">
         <v>13</v>
@@ -91715,16 +91715,16 @@
       </c>
       <c r="K1142" t="inlineStr">
         <is>
-          <t>Artic Pride</t>
+          <t>Early John</t>
         </is>
       </c>
       <c r="L1142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1142" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N1142" t="n">
         <v>350000</v>
@@ -91795,7 +91795,7 @@
       </c>
       <c r="K1143" t="inlineStr">
         <is>
-          <t>Early Glo</t>
+          <t>Artic Glo</t>
         </is>
       </c>
       <c r="L1143" t="inlineStr">
@@ -91804,16 +91804,16 @@
         </is>
       </c>
       <c r="M1143" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N1143" t="n">
         <v>450000</v>
       </c>
       <c r="O1143" t="n">
-        <v>450000</v>
+        <v>500000</v>
       </c>
       <c r="P1143" t="n">
-        <v>450000</v>
+        <v>475000</v>
       </c>
       <c r="Q1143" t="inlineStr">
         <is>
@@ -91826,7 +91826,7 @@
         </is>
       </c>
       <c r="S1143" t="n">
-        <v>1071</v>
+        <v>1131</v>
       </c>
       <c r="T1143" t="n">
         <v>420</v>
@@ -91875,7 +91875,7 @@
       </c>
       <c r="K1144" t="inlineStr">
         <is>
-          <t>Early Glo</t>
+          <t>Artic Glo</t>
         </is>
       </c>
       <c r="L1144" t="inlineStr">
@@ -91884,7 +91884,7 @@
         </is>
       </c>
       <c r="M1144" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="N1144" t="n">
         <v>350000</v>
@@ -91893,7 +91893,7 @@
         <v>400000</v>
       </c>
       <c r="P1144" t="n">
-        <v>369231</v>
+        <v>375000</v>
       </c>
       <c r="Q1144" t="inlineStr">
         <is>
@@ -91906,7 +91906,7 @@
         </is>
       </c>
       <c r="S1144" t="n">
-        <v>879</v>
+        <v>893</v>
       </c>
       <c r="T1144" t="n">
         <v>420</v>
@@ -91955,40 +91955,440 @@
       </c>
       <c r="K1145" t="inlineStr">
         <is>
+          <t>Artic Glo</t>
+        </is>
+      </c>
+      <c r="L1145" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1145" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1145" t="n">
+        <v>300000</v>
+      </c>
+      <c r="O1145" t="n">
+        <v>300000</v>
+      </c>
+      <c r="P1145" t="n">
+        <v>300000</v>
+      </c>
+      <c r="Q1145" t="inlineStr">
+        <is>
+          <t>$/bins (420 kilos)</t>
+        </is>
+      </c>
+      <c r="R1145" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1145" t="n">
+        <v>714</v>
+      </c>
+      <c r="T1145" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1146" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1146" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1146" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1146" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1146" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1146" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J1146" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K1146" t="inlineStr">
+        <is>
+          <t>Artic Glo</t>
+        </is>
+      </c>
+      <c r="L1146" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M1146" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1146" t="n">
+        <v>250000</v>
+      </c>
+      <c r="O1146" t="n">
+        <v>250000</v>
+      </c>
+      <c r="P1146" t="n">
+        <v>250000</v>
+      </c>
+      <c r="Q1146" t="inlineStr">
+        <is>
+          <t>$/bins (420 kilos)</t>
+        </is>
+      </c>
+      <c r="R1146" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1146" t="n">
+        <v>595</v>
+      </c>
+      <c r="T1146" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1147" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1147" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1147" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1147" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1147" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1147" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J1147" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K1147" t="inlineStr">
+        <is>
+          <t>Artic Pride</t>
+        </is>
+      </c>
+      <c r="L1147" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1147" t="n">
+        <v>18</v>
+      </c>
+      <c r="N1147" t="n">
+        <v>350000</v>
+      </c>
+      <c r="O1147" t="n">
+        <v>350000</v>
+      </c>
+      <c r="P1147" t="n">
+        <v>350000</v>
+      </c>
+      <c r="Q1147" t="inlineStr">
+        <is>
+          <t>$/bins (420 kilos)</t>
+        </is>
+      </c>
+      <c r="R1147" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1147" t="n">
+        <v>833</v>
+      </c>
+      <c r="T1147" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1148" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1148" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1148" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1148" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1148" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1148" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J1148" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K1148" t="inlineStr">
+        <is>
+          <t>Early Glo</t>
+        </is>
+      </c>
+      <c r="L1148" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1148" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>450000</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>450000</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>450000</v>
+      </c>
+      <c r="Q1148" t="inlineStr">
+        <is>
+          <t>$/bins (420 kilos)</t>
+        </is>
+      </c>
+      <c r="R1148" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1148" t="n">
+        <v>1071</v>
+      </c>
+      <c r="T1148" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1149" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1149" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1149" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1149" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1149" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1149" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J1149" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K1149" t="inlineStr">
+        <is>
+          <t>Early Glo</t>
+        </is>
+      </c>
+      <c r="L1149" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1149" t="n">
+        <v>52</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>350000</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>400000</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>369231</v>
+      </c>
+      <c r="Q1149" t="inlineStr">
+        <is>
+          <t>$/bins (420 kilos)</t>
+        </is>
+      </c>
+      <c r="R1149" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1149" t="n">
+        <v>879</v>
+      </c>
+      <c r="T1149" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1150" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1150" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1150" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1150" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1150" t="n">
+        <v>100103006</v>
+      </c>
+      <c r="J1150" t="inlineStr">
+        <is>
+          <t>Nectarín</t>
+        </is>
+      </c>
+      <c r="K1150" t="inlineStr">
+        <is>
           <t>Early John</t>
         </is>
       </c>
-      <c r="L1145" t="inlineStr">
+      <c r="L1150" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M1145" t="n">
+      <c r="M1150" t="n">
         <v>50</v>
       </c>
-      <c r="N1145" t="n">
+      <c r="N1150" t="n">
         <v>360000</v>
       </c>
-      <c r="O1145" t="n">
+      <c r="O1150" t="n">
         <v>420000</v>
       </c>
-      <c r="P1145" t="n">
+      <c r="P1150" t="n">
         <v>390000</v>
       </c>
-      <c r="Q1145" t="inlineStr">
+      <c r="Q1150" t="inlineStr">
         <is>
           <t>$/bins (420 kilos)</t>
         </is>
       </c>
-      <c r="R1145" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S1145" t="n">
+      <c r="R1150" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1150" t="n">
         <v>929</v>
       </c>
-      <c r="T1145" t="n">
+      <c r="T1150" t="n">
         <v>420</v>
       </c>
     </row>
